--- a/config/seeds.xlsx
+++ b/config/seeds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike\Desktop\code\hotel-worx-3\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D131E360-43D4-4527-B665-FED32E647DEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39674A30-8FBF-4CD1-B4BE-C9AF119B032A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res_rooms (old)" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3819" uniqueCount="2004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4020" uniqueCount="2006">
   <si>
     <t>room_num</t>
   </si>
@@ -6047,6 +6047,12 @@
   </si>
   <si>
     <t>company_id</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>USA</t>
   </si>
 </sst>
 </file>
@@ -24340,7 +24346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E883060-82F7-4A7D-B9A5-DBB4756D7366}">
   <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
@@ -28182,11 +28188,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D2267-72D7-482F-A136-70E06D3C8037}">
-  <dimension ref="A1:L201"/>
+  <dimension ref="A1:M201"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L201" sqref="L2:L201"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2:M201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28198,15 +28204,16 @@
     <col min="5" max="5" width="18.21875" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.109375" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="132.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="9"/>
+    <col min="8" max="8" width="6" style="9" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="132.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>1468</v>
       </c>
@@ -28229,22 +28236,25 @@
         <v>385</v>
       </c>
       <c r="H1" s="12" t="s">
+        <v>2004</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="M1" s="23" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>1698</v>
       </c>
@@ -28267,23 +28277,26 @@
         <v>27292</v>
       </c>
       <c r="H2" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>589</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="K2" s="13" t="s">
         <v>1271</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="L2" s="13" t="s">
         <v>1245</v>
       </c>
-      <c r="L2" s="14" t="str">
-        <f>"("&amp;A2&amp;", '"&amp;B2&amp;"', '"&amp;C2&amp;"', '"&amp;D2&amp;"', '"&amp;E2&amp;"', '"&amp;F2&amp;"', '"&amp;G2&amp;"', '"&amp;H2&amp;"', '"&amp;I2&amp;"', '"&amp;J2&amp;"', '"&amp;K2&amp;"'),"</f>
-        <v>(1, 'Jamar', 'Wilkerson', '7193 Valley St', 'Lexington', 'NC', '27292', 'rgiersig@yahoo.com', '806-427-8083', '4532860057700920', '10 / 22'),</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M2" s="14" t="str">
+        <f t="shared" ref="M2:M65" si="0">"("&amp;A2&amp;", '"&amp;B2&amp;"', '"&amp;C2&amp;"', '"&amp;D2&amp;"', '"&amp;E2&amp;"', '"&amp;F2&amp;"', '"&amp;G2&amp;"', '"&amp;H2&amp;"', '"&amp;I2&amp;"', '"&amp;J2&amp;"', '"&amp;K2&amp;"', '"&amp;L2&amp;"'),"</f>
+        <v>(1, 'Jamar', 'Wilkerson', '7193 Valley St', 'Lexington', 'NC', '27292', 'USA', 'rgiersig@yahoo.com', '806-427-8083', '4532860057700920', '10 / 22'),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>1704</v>
       </c>
@@ -28306,23 +28319,26 @@
         <v>38801</v>
       </c>
       <c r="H3" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="J3" s="13" t="s">
         <v>590</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="K3" s="13" t="s">
         <v>1433</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="L3" s="13" t="s">
         <v>1257</v>
       </c>
-      <c r="L3" s="14" t="str">
-        <f t="shared" ref="L3:L66" si="0">"("&amp;A3&amp;", '"&amp;B3&amp;"', '"&amp;C3&amp;"', '"&amp;D3&amp;"', '"&amp;E3&amp;"', '"&amp;F3&amp;"', '"&amp;G3&amp;"', '"&amp;H3&amp;"', '"&amp;I3&amp;"', '"&amp;J3&amp;"', '"&amp;K3&amp;"'),"</f>
-        <v>(2, 'Tatum', 'Guerrero', '255 South Acacia Lane', 'Tupelo', 'MS', '38801', 'neuffer@aol.com', '828-904-7535', '5201787827319417', '07 / 21'),</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>(2, 'Tatum', 'Guerrero', '255 South Acacia Lane', 'Tupelo', 'MS', '38801', 'USA', 'neuffer@aol.com', '828-904-7535', '5201787827319417', '07 / 21'),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>1706</v>
       </c>
@@ -28345,23 +28361,26 @@
         <v>27320</v>
       </c>
       <c r="H4" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I4" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="J4" s="13" t="s">
         <v>591</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="K4" s="13" t="s">
         <v>1315</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="L4" s="13" t="s">
         <v>1257</v>
       </c>
-      <c r="L4" s="14" t="str">
+      <c r="M4" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(3, 'Dillon', 'Espinoza', '940 Wakehurst Circle', 'Reidsville', 'NC', '27320', 'zavadsky@me.com', '247-992-9396', '4532126743033195', '07 / 21'),</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(3, 'Dillon', 'Espinoza', '940 Wakehurst Circle', 'Reidsville', 'NC', '27320', 'USA', 'zavadsky@me.com', '247-992-9396', '4532126743033195', '07 / 21'),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>1700</v>
       </c>
@@ -28384,23 +28403,26 @@
         <v>957</v>
       </c>
       <c r="H5" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I5" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="J5" s="13" t="s">
         <v>592</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="K5" s="13" t="s">
         <v>1399</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="L5" s="13" t="s">
         <v>1258</v>
       </c>
-      <c r="L5" s="14" t="str">
+      <c r="M5" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(4, 'Dania', 'Bonilla', '98 Schoolhouse Street', 'Mahwah', 'NJ', '07430', 'frikazoyd@comcast.net', '482-508-5700', '5437458666794161', '10 / 21'),</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(4, 'Dania', 'Bonilla', '98 Schoolhouse Street', 'Mahwah', 'NJ', '07430', 'USA', 'frikazoyd@comcast.net', '482-508-5700', '5437458666794161', '10 / 21'),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>1699</v>
       </c>
@@ -28423,23 +28445,26 @@
         <v>92236</v>
       </c>
       <c r="H6" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I6" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="J6" s="13" t="s">
         <v>593</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="K6" s="13" t="s">
         <v>1422</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="L6" s="13" t="s">
         <v>1256</v>
       </c>
-      <c r="L6" s="14" t="str">
+      <c r="M6" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(5, 'Alondra', 'Sanford', '26 Oakwood Court', 'Coachella', 'CA', '92236', 'bdthomas@gmail.com', '792-816-0942', '5372340794008150', '06 / 21'),</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(5, 'Alondra', 'Sanford', '26 Oakwood Court', 'Coachella', 'CA', '92236', 'USA', 'bdthomas@gmail.com', '792-816-0942', '5372340794008150', '06 / 21'),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>1702</v>
       </c>
@@ -28462,23 +28487,26 @@
         <v>22015</v>
       </c>
       <c r="H7" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I7" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="J7" s="13" t="s">
         <v>594</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="K7" s="13" t="s">
         <v>1320</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="L7" s="13" t="s">
         <v>1261</v>
       </c>
-      <c r="L7" s="14" t="str">
+      <c r="M7" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(6, 'Alden', 'Weeks', '9991 Princess Road', 'Burke', 'VA', '22015', 'ylchang@comcast.net', '727-471-0334', '4556096080902081', '02 / 23'),</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(6, 'Alden', 'Weeks', '9991 Princess Road', 'Burke', 'VA', '22015', 'USA', 'ylchang@comcast.net', '727-471-0334', '4556096080902081', '02 / 23'),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>1705</v>
       </c>
@@ -28501,23 +28529,26 @@
         <v>15206</v>
       </c>
       <c r="H8" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I8" s="13" t="s">
         <v>395</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="J8" s="13" t="s">
         <v>595</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="K8" s="13" t="s">
         <v>1444</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="L8" s="13" t="s">
         <v>1246</v>
       </c>
-      <c r="L8" s="14" t="str">
+      <c r="M8" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(7, 'Noelle', 'Shaffer', '8863 Homestead Rd', 'Pittsburgh', 'PA', '15206', 'uncled@yahoo.com', '587-315-4887', '5416440139855907', '12 / 22'),</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(7, 'Noelle', 'Shaffer', '8863 Homestead Rd', 'Pittsburgh', 'PA', '15206', 'USA', 'uncled@yahoo.com', '587-315-4887', '5416440139855907', '12 / 22'),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>1701</v>
       </c>
@@ -28540,23 +28571,26 @@
         <v>46123</v>
       </c>
       <c r="H9" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I9" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="J9" s="13" t="s">
         <v>596</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="K9" s="13" t="s">
         <v>1326</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="L9" s="13" t="s">
         <v>1245</v>
       </c>
-      <c r="L9" s="14" t="str">
+      <c r="M9" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(8, 'Aspen', 'Forbes', '8521 Glenholme St', 'Avon', 'IN', '46123', 'dsugal@me.com', '333-486-1488', '4024007108268276', '10 / 22'),</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(8, 'Aspen', 'Forbes', '8521 Glenholme St', 'Avon', 'IN', '46123', 'USA', 'dsugal@me.com', '333-486-1488', '4024007108268276', '10 / 22'),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>1703</v>
       </c>
@@ -28579,23 +28613,26 @@
         <v>44883</v>
       </c>
       <c r="H10" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I10" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="J10" s="13" t="s">
         <v>597</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="K10" s="13" t="s">
         <v>1394</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="L10" s="13" t="s">
         <v>1261</v>
       </c>
-      <c r="L10" s="14" t="str">
+      <c r="M10" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(9, 'Gael', 'Holt', '926 Roberts Ave', 'Tiffin', 'OH', '44883', 'jfmulder@yahoo.ca', '968-950-0566', '5256249010220351', '02 / 23'),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(9, 'Gael', 'Holt', '926 Roberts Ave', 'Tiffin', 'OH', '44883', 'USA', 'jfmulder@yahoo.ca', '968-950-0566', '5256249010220351', '02 / 23'),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>1707</v>
       </c>
@@ -28618,23 +28655,26 @@
         <v>48322</v>
       </c>
       <c r="H11" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I11" s="13" t="s">
         <v>398</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="J11" s="13" t="s">
         <v>598</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="K11" s="13" t="s">
         <v>1335</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="L11" s="13" t="s">
         <v>1246</v>
       </c>
-      <c r="L11" s="14" t="str">
+      <c r="M11" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(10, 'Amina', 'Whitaker', '9961 East Honey Creek Drive', 'West Bloomfield', 'MI', '48322', 'ullman@gmail.com', '662-691-0234', '4485894726287503', '12 / 22'),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(10, 'Amina', 'Whitaker', '9961 East Honey Creek Drive', 'West Bloomfield', 'MI', '48322', 'USA', 'ullman@gmail.com', '662-691-0234', '4485894726287503', '12 / 22'),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>1708</v>
       </c>
@@ -28657,23 +28697,26 @@
         <v>33410</v>
       </c>
       <c r="H12" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I12" s="13" t="s">
         <v>399</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="J12" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="K12" s="13" t="s">
         <v>1323</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="L12" s="13" t="s">
         <v>1260</v>
       </c>
-      <c r="L12" s="14" t="str">
+      <c r="M12" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(11, 'Addison', 'Oliver', '670 James Lane', 'Palm Beach Gardens', 'FL', '33410', 'syncnine@yahoo.ca', '960-602-1401', '4916097498862490', '08 / 22'),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(11, 'Addison', 'Oliver', '670 James Lane', 'Palm Beach Gardens', 'FL', '33410', 'USA', 'syncnine@yahoo.ca', '960-602-1401', '4916097498862490', '08 / 22'),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>1709</v>
       </c>
@@ -28696,23 +28739,26 @@
         <v>11375</v>
       </c>
       <c r="H13" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I13" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="J13" s="13" t="s">
         <v>600</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="K13" s="13" t="s">
         <v>1393</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="L13" s="13" t="s">
         <v>1257</v>
       </c>
-      <c r="L13" s="14" t="str">
+      <c r="M13" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(12, 'Dylan', 'Cochran', '63 Shadow Brook Ave', 'Forest Hills', 'NY', '11375', 'bbirth@comcast.net', '650-450-4673', '5533534756498856', '07 / 21'),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(12, 'Dylan', 'Cochran', '63 Shadow Brook Ave', 'Forest Hills', 'NY', '11375', 'USA', 'bbirth@comcast.net', '650-450-4673', '5533534756498856', '07 / 21'),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>1710</v>
       </c>
@@ -28735,23 +28781,26 @@
         <v>33125</v>
       </c>
       <c r="H14" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I14" s="13" t="s">
         <v>401</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="J14" s="13" t="s">
         <v>601</v>
       </c>
-      <c r="J14" s="13" t="s">
+      <c r="K14" s="13" t="s">
         <v>1424</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="L14" s="13" t="s">
         <v>1246</v>
       </c>
-      <c r="L14" s="14" t="str">
+      <c r="M14" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(13, 'Justice', 'Pruitt', '775 Jackson Dr', 'Miami', 'FL', '33125', 'cameron@icloud.com', '939-786-0529', '5432237236867318', '12 / 22'),</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(13, 'Justice', 'Pruitt', '775 Jackson Dr', 'Miami', 'FL', '33125', 'USA', 'cameron@icloud.com', '939-786-0529', '5432237236867318', '12 / 22'),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>1711</v>
       </c>
@@ -28774,23 +28823,26 @@
         <v>91316</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>402</v>
       </c>
-      <c r="I15" s="13" t="s">
+      <c r="J15" s="13" t="s">
         <v>602</v>
       </c>
-      <c r="J15" s="13" t="s">
+      <c r="K15" s="13" t="s">
         <v>1380</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="L15" s="13" t="s">
         <v>1251</v>
       </c>
-      <c r="L15" s="14" t="str">
+      <c r="M15" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(14, 'Deanna', 'Randolph', '9943 8th Court', 'Encino', 'CA', '91316', 'jaesenj@att.net', '876-859-1297', '5352119825297147', '03 / 20'),</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(14, 'Deanna', 'Randolph', '9943 8th Court', 'Encino', 'CA', '91316', 'USA', 'jaesenj@att.net', '876-859-1297', '5352119825297147', '03 / 20'),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>1712</v>
       </c>
@@ -28813,23 +28865,26 @@
         <v>60451</v>
       </c>
       <c r="H16" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I16" s="13" t="s">
         <v>403</v>
       </c>
-      <c r="I16" s="13" t="s">
+      <c r="J16" s="13" t="s">
         <v>603</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="K16" s="13" t="s">
         <v>1436</v>
       </c>
-      <c r="K16" s="13" t="s">
+      <c r="L16" s="13" t="s">
         <v>1262</v>
       </c>
-      <c r="L16" s="14" t="str">
+      <c r="M16" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(15, 'Athena', 'Santos', '7 Oakland Lane', 'New Lenox', 'IL', '60451', 'jaxweb@yahoo.com', '914-996-3936', '5106922433471049', '05 / 23'),</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(15, 'Athena', 'Santos', '7 Oakland Lane', 'New Lenox', 'IL', '60451', 'USA', 'jaxweb@yahoo.com', '914-996-3936', '5106922433471049', '05 / 23'),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
         <v>1713</v>
       </c>
@@ -28852,23 +28907,26 @@
         <v>38016</v>
       </c>
       <c r="H17" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I17" s="13" t="s">
         <v>404</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="J17" s="13" t="s">
         <v>604</v>
       </c>
-      <c r="J17" s="13" t="s">
+      <c r="K17" s="13" t="s">
         <v>1297</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="L17" s="13" t="s">
         <v>1250</v>
       </c>
-      <c r="L17" s="14" t="str">
+      <c r="M17" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(16, 'Sanai', 'Reid', '9 Stillwater Street', 'Cordova', 'TN', '38016', 'adamk@optonline.net', '911-237-5265', '4916556997009788', '01 / 20'),</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(16, 'Sanai', 'Reid', '9 Stillwater Street', 'Cordova', 'TN', '38016', 'USA', 'adamk@optonline.net', '911-237-5265', '4916556997009788', '01 / 20'),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>1714</v>
       </c>
@@ -28891,23 +28949,26 @@
         <v>55987</v>
       </c>
       <c r="H18" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I18" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="I18" s="13" t="s">
+      <c r="J18" s="13" t="s">
         <v>605</v>
       </c>
-      <c r="J18" s="13" t="s">
+      <c r="K18" s="13" t="s">
         <v>1453</v>
       </c>
-      <c r="K18" s="13" t="s">
+      <c r="L18" s="13" t="s">
         <v>1245</v>
       </c>
-      <c r="L18" s="14" t="str">
+      <c r="M18" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(17, 'Lilyana', 'Holmes', '750 Clinton Court', 'Winona', 'MN', '55987', 'forsberg@gmail.com', '708-951-1380', '5496169220227030', '10 / 22'),</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(17, 'Lilyana', 'Holmes', '750 Clinton Court', 'Winona', 'MN', '55987', 'USA', 'forsberg@gmail.com', '708-951-1380', '5496169220227030', '10 / 22'),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
         <v>1715</v>
       </c>
@@ -28930,23 +28991,26 @@
         <v>29910</v>
       </c>
       <c r="H19" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I19" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="I19" s="13" t="s">
+      <c r="J19" s="13" t="s">
         <v>606</v>
       </c>
-      <c r="J19" s="13" t="s">
+      <c r="K19" s="13" t="s">
         <v>1402</v>
       </c>
-      <c r="K19" s="13" t="s">
+      <c r="L19" s="13" t="s">
         <v>1258</v>
       </c>
-      <c r="L19" s="14" t="str">
+      <c r="M19" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(18, 'Nolan', 'Cantrell', '9217 Elmwood St', 'Bluffton', 'SC', '29910', 'bflong@yahoo.ca', '865-324-9180', '5261912435156731', '10 / 21'),</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(18, 'Nolan', 'Cantrell', '9217 Elmwood St', 'Bluffton', 'SC', '29910', 'USA', 'bflong@yahoo.ca', '865-324-9180', '5261912435156731', '10 / 21'),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>1716</v>
       </c>
@@ -28969,23 +29033,26 @@
         <v>28376</v>
       </c>
       <c r="H20" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I20" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="I20" s="13" t="s">
+      <c r="J20" s="13" t="s">
         <v>607</v>
       </c>
-      <c r="J20" s="13" t="s">
+      <c r="K20" s="13" t="s">
         <v>1419</v>
       </c>
-      <c r="K20" s="13" t="s">
+      <c r="L20" s="13" t="s">
         <v>1245</v>
       </c>
-      <c r="L20" s="14" t="str">
+      <c r="M20" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(19, 'Jayleen', 'Clark', '64 Hillside Street', 'Raeford', 'NC', '28376', 'mcsporran@verizon.net', '661-609-3680', '5319542457938773', '10 / 22'),</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(19, 'Jayleen', 'Clark', '64 Hillside Street', 'Raeford', 'NC', '28376', 'USA', 'mcsporran@verizon.net', '661-609-3680', '5319542457938773', '10 / 22'),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
         <v>1717</v>
       </c>
@@ -29008,23 +29075,26 @@
         <v>44146</v>
       </c>
       <c r="H21" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I21" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="I21" s="13" t="s">
+      <c r="J21" s="13" t="s">
         <v>608</v>
       </c>
-      <c r="J21" s="13" t="s">
+      <c r="K21" s="13" t="s">
         <v>1443</v>
       </c>
-      <c r="K21" s="13" t="s">
+      <c r="L21" s="13" t="s">
         <v>1262</v>
       </c>
-      <c r="L21" s="14" t="str">
+      <c r="M21" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(20, 'Javion', 'George', '510 Randall Mill St', 'Bedford', 'OH', '44146', 'raides@verizon.net', '709-669-4252', '5486618793020141', '05 / 23'),</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(20, 'Javion', 'George', '510 Randall Mill St', 'Bedford', 'OH', '44146', 'USA', 'raides@verizon.net', '709-669-4252', '5486618793020141', '05 / 23'),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
         <v>1718</v>
       </c>
@@ -29047,23 +29117,26 @@
         <v>34653</v>
       </c>
       <c r="H22" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I22" s="13" t="s">
         <v>409</v>
       </c>
-      <c r="I22" s="13" t="s">
+      <c r="J22" s="13" t="s">
         <v>609</v>
       </c>
-      <c r="J22" s="13" t="s">
+      <c r="K22" s="13" t="s">
         <v>1414</v>
       </c>
-      <c r="K22" s="13" t="s">
+      <c r="L22" s="13" t="s">
         <v>1259</v>
       </c>
-      <c r="L22" s="14" t="str">
+      <c r="M22" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(21, 'Cadence', 'Mayo', '99 Rock Creek St', 'New Port Richey', 'FL', '34653', 'sinkou@hotmail.com', '616-599-7197', '5577246653852682', '03 / 22'),</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(21, 'Cadence', 'Mayo', '99 Rock Creek St', 'New Port Richey', 'FL', '34653', 'USA', 'sinkou@hotmail.com', '616-599-7197', '5577246653852682', '03 / 22'),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
         <v>1719</v>
       </c>
@@ -29086,23 +29159,26 @@
         <v>23832</v>
       </c>
       <c r="H23" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I23" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="J23" s="13" t="s">
         <v>610</v>
       </c>
-      <c r="J23" s="13" t="s">
+      <c r="K23" s="13" t="s">
         <v>1328</v>
       </c>
-      <c r="K23" s="13" t="s">
+      <c r="L23" s="13" t="s">
         <v>1257</v>
       </c>
-      <c r="L23" s="14" t="str">
+      <c r="M23" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(22, 'Sasha', 'Cooper', '23 Selby Street', 'Chesterfield', 'VA', '23832', 'flakeg@att.net', '760-533-4007', '4532877846928448', '07 / 21'),</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(22, 'Sasha', 'Cooper', '23 Selby Street', 'Chesterfield', 'VA', '23832', 'USA', 'flakeg@att.net', '760-533-4007', '4532877846928448', '07 / 21'),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
         <v>1720</v>
       </c>
@@ -29125,23 +29201,26 @@
         <v>30223</v>
       </c>
       <c r="H24" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I24" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="I24" s="13" t="s">
+      <c r="J24" s="13" t="s">
         <v>611</v>
       </c>
-      <c r="J24" s="13" t="s">
+      <c r="K24" s="13" t="s">
         <v>1375</v>
       </c>
-      <c r="K24" s="13" t="s">
+      <c r="L24" s="13" t="s">
         <v>1258</v>
       </c>
-      <c r="L24" s="14" t="str">
+      <c r="M24" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(23, 'Saniyah', 'Jacobson', '67 Arch Ave', 'Griffin', 'GA', '30223', 'papathan@yahoo.com', '936-222-8116', '5228961842009571', '10 / 21'),</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(23, 'Saniyah', 'Jacobson', '67 Arch Ave', 'Griffin', 'GA', '30223', 'USA', 'papathan@yahoo.com', '936-222-8116', '5228961842009571', '10 / 21'),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
         <v>1721</v>
       </c>
@@ -29164,23 +29243,26 @@
         <v>958</v>
       </c>
       <c r="H25" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I25" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="I25" s="13" t="s">
+      <c r="J25" s="13" t="s">
         <v>612</v>
       </c>
-      <c r="J25" s="13" t="s">
+      <c r="K25" s="13" t="s">
         <v>1357</v>
       </c>
-      <c r="K25" s="13" t="s">
+      <c r="L25" s="13" t="s">
         <v>1249</v>
       </c>
-      <c r="L25" s="14" t="str">
+      <c r="M25" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(24, 'Zack', 'Turner', '7259 Queen St', 'Lawrence', 'MA', '01841', 'loscar@msn.com', '910-518-3593', '4532244442010974', '05 / 22'),</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(24, 'Zack', 'Turner', '7259 Queen St', 'Lawrence', 'MA', '01841', 'USA', 'loscar@msn.com', '910-518-3593', '4532244442010974', '05 / 22'),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
         <v>1722</v>
       </c>
@@ -29203,23 +29285,26 @@
         <v>959</v>
       </c>
       <c r="H26" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I26" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="I26" s="13" t="s">
+      <c r="J26" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="J26" s="13" t="s">
+      <c r="K26" s="13" t="s">
         <v>1336</v>
       </c>
-      <c r="K26" s="13" t="s">
+      <c r="L26" s="13" t="s">
         <v>1255</v>
       </c>
-      <c r="L26" s="14" t="str">
+      <c r="M26" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(25, 'Zane', 'Rush', '8741 N 53rd Dr', 'Johnston', 'RI', '02919', 'elflord@att.net', '700-655-5860', '4485368559376089', '11 / 20'),</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(25, 'Zane', 'Rush', '8741 N 53rd Dr', 'Johnston', 'RI', '02919', 'USA', 'elflord@att.net', '700-655-5860', '4485368559376089', '11 / 20'),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
         <v>1723</v>
       </c>
@@ -29242,23 +29327,26 @@
         <v>960</v>
       </c>
       <c r="H27" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I27" s="13" t="s">
         <v>414</v>
       </c>
-      <c r="I27" s="13" t="s">
+      <c r="J27" s="13" t="s">
         <v>614</v>
       </c>
-      <c r="J27" s="13" t="s">
+      <c r="K27" s="13" t="s">
         <v>1292</v>
       </c>
-      <c r="K27" s="13" t="s">
+      <c r="L27" s="13" t="s">
         <v>1256</v>
       </c>
-      <c r="L27" s="14" t="str">
+      <c r="M27" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(26, 'Megan', 'Matthews', '857 Lake Forest Drive', 'Marlton', 'NJ', '08053', 'parasite@sbcglobal.net', '310-404-8867', '4485478804077232', '06 / 21'),</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(26, 'Megan', 'Matthews', '857 Lake Forest Drive', 'Marlton', 'NJ', '08053', 'USA', 'parasite@sbcglobal.net', '310-404-8867', '4485478804077232', '06 / 21'),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>1724</v>
       </c>
@@ -29281,23 +29369,26 @@
         <v>44070</v>
       </c>
       <c r="H28" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I28" s="13" t="s">
         <v>415</v>
       </c>
-      <c r="I28" s="13" t="s">
+      <c r="J28" s="13" t="s">
         <v>615</v>
       </c>
-      <c r="J28" s="13" t="s">
+      <c r="K28" s="13" t="s">
         <v>1306</v>
       </c>
-      <c r="K28" s="13" t="s">
+      <c r="L28" s="13" t="s">
         <v>1252</v>
       </c>
-      <c r="L28" s="14" t="str">
+      <c r="M28" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(27, 'Jamari', 'Duffy', '901 Purple Finch St', 'North Olmsted', 'OH', '44070', 'steve@icloud.com', '342-273-8703', '4716622530248465', '04 / 20'),</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(27, 'Jamari', 'Duffy', '901 Purple Finch St', 'North Olmsted', 'OH', '44070', 'USA', 'steve@icloud.com', '342-273-8703', '4716622530248465', '04 / 20'),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="s">
         <v>1725</v>
       </c>
@@ -29320,23 +29411,26 @@
         <v>19082</v>
       </c>
       <c r="H29" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I29" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="I29" s="13" t="s">
+      <c r="J29" s="13" t="s">
         <v>616</v>
       </c>
-      <c r="J29" s="13" t="s">
+      <c r="K29" s="13" t="s">
         <v>1446</v>
       </c>
-      <c r="K29" s="13" t="s">
+      <c r="L29" s="13" t="s">
         <v>1245</v>
       </c>
-      <c r="L29" s="14" t="str">
+      <c r="M29" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(28, 'Jorden', 'Mejia', '94 Johnson Ave', 'Upper Darby', 'PA', '19082', 'isaacson@aol.com', '520-271-9924', '5479300783928265', '10 / 22'),</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(28, 'Jorden', 'Mejia', '94 Johnson Ave', 'Upper Darby', 'PA', '19082', 'USA', 'isaacson@aol.com', '520-271-9924', '5479300783928265', '10 / 22'),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="26" t="s">
         <v>1726</v>
       </c>
@@ -29359,23 +29453,26 @@
         <v>21207</v>
       </c>
       <c r="H30" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I30" s="13" t="s">
         <v>417</v>
       </c>
-      <c r="I30" s="13" t="s">
+      <c r="J30" s="13" t="s">
         <v>617</v>
       </c>
-      <c r="J30" s="13" t="s">
+      <c r="K30" s="13" t="s">
         <v>1322</v>
       </c>
-      <c r="K30" s="13" t="s">
+      <c r="L30" s="13" t="s">
         <v>1264</v>
       </c>
-      <c r="L30" s="14" t="str">
+      <c r="M30" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(29, 'Remington', 'Wilson', '7486 E Linden Lane', 'Gwynn Oak', 'MD', '21207', 'papathan@msn.com', '986-555-6036', '4504618028078444', '10 / 23'),</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(29, 'Remington', 'Wilson', '7486 E Linden Lane', 'Gwynn Oak', 'MD', '21207', 'USA', 'papathan@msn.com', '986-555-6036', '4504618028078444', '10 / 23'),</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="26" t="s">
         <v>1727</v>
       </c>
@@ -29398,23 +29495,26 @@
         <v>23139</v>
       </c>
       <c r="H31" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I31" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="I31" s="13" t="s">
+      <c r="J31" s="13" t="s">
         <v>618</v>
       </c>
-      <c r="J31" s="13" t="s">
+      <c r="K31" s="13" t="s">
         <v>1294</v>
       </c>
-      <c r="K31" s="13" t="s">
+      <c r="L31" s="13" t="s">
         <v>1260</v>
       </c>
-      <c r="L31" s="14" t="str">
+      <c r="M31" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(30, 'Jaime', 'Conley', '175 Victoria Dr', 'Powhatan', 'VA', '23139', 'dkeeler@outlook.com', '828-416-1195', '4485900434168529', '08 / 22'),</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(30, 'Jaime', 'Conley', '175 Victoria Dr', 'Powhatan', 'VA', '23139', 'USA', 'dkeeler@outlook.com', '828-416-1195', '4485900434168529', '08 / 22'),</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="26" t="s">
         <v>1728</v>
       </c>
@@ -29437,23 +29537,26 @@
         <v>13440</v>
       </c>
       <c r="H32" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I32" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="I32" s="13" t="s">
+      <c r="J32" s="13" t="s">
         <v>619</v>
       </c>
-      <c r="J32" s="13" t="s">
+      <c r="K32" s="13" t="s">
         <v>1451</v>
       </c>
-      <c r="K32" s="13" t="s">
+      <c r="L32" s="13" t="s">
         <v>1255</v>
       </c>
-      <c r="L32" s="14" t="str">
+      <c r="M32" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(31, 'Adyson', 'Rosario', '403 Highland Street', 'Rome', 'NY', '13440', 'mbalazin@aol.com', '399-620-0096', '5434776227170446', '11 / 20'),</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(31, 'Adyson', 'Rosario', '403 Highland Street', 'Rome', 'NY', '13440', 'USA', 'mbalazin@aol.com', '399-620-0096', '5434776227170446', '11 / 20'),</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="26" t="s">
         <v>1729</v>
       </c>
@@ -29476,23 +29579,26 @@
         <v>23434</v>
       </c>
       <c r="H33" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I33" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="I33" s="13" t="s">
+      <c r="J33" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="J33" s="13" t="s">
+      <c r="K33" s="13" t="s">
         <v>1288</v>
       </c>
-      <c r="K33" s="13" t="s">
+      <c r="L33" s="13" t="s">
         <v>1258</v>
       </c>
-      <c r="L33" s="14" t="str">
+      <c r="M33" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(32, 'Alexis', 'Owen', '56 Canal Road', 'Suffolk', 'VA', '23434', 'munson@yahoo.ca', '468-405-3074', '4716528981715151', '10 / 21'),</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(32, 'Alexis', 'Owen', '56 Canal Road', 'Suffolk', 'VA', '23434', 'USA', 'munson@yahoo.ca', '468-405-3074', '4716528981715151', '10 / 21'),</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="26" t="s">
         <v>1730</v>
       </c>
@@ -29515,23 +29621,26 @@
         <v>93555</v>
       </c>
       <c r="H34" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I34" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="I34" s="13" t="s">
+      <c r="J34" s="13" t="s">
         <v>621</v>
       </c>
-      <c r="J34" s="13" t="s">
+      <c r="K34" s="13" t="s">
         <v>1290</v>
       </c>
-      <c r="K34" s="13" t="s">
+      <c r="L34" s="13" t="s">
         <v>1263</v>
       </c>
-      <c r="L34" s="14" t="str">
+      <c r="M34" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(33, 'Isabella', 'Norris', '404 Grand Street', 'Ridgecrest', 'CA', '93555', 'oster@comcast.net', '800-257-6419', '4929374741493141', '07 / 23'),</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(33, 'Isabella', 'Norris', '404 Grand Street', 'Ridgecrest', 'CA', '93555', 'USA', 'oster@comcast.net', '800-257-6419', '4929374741493141', '07 / 23'),</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="26" t="s">
         <v>1731</v>
       </c>
@@ -29554,23 +29663,26 @@
         <v>19426</v>
       </c>
       <c r="H35" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I35" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="I35" s="13" t="s">
+      <c r="J35" s="13" t="s">
         <v>622</v>
       </c>
-      <c r="J35" s="13" t="s">
+      <c r="K35" s="13" t="s">
         <v>1405</v>
       </c>
-      <c r="K35" s="13" t="s">
+      <c r="L35" s="13" t="s">
         <v>1253</v>
       </c>
-      <c r="L35" s="14" t="str">
+      <c r="M35" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(34, 'Dallas', 'Hanson', '8548 Coffee Drive', 'Collegeville', 'PA', '19426', 'denism@hotmail.com', '456-885-6495', '5157646255393498', '05 / 20'),</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(34, 'Dallas', 'Hanson', '8548 Coffee Drive', 'Collegeville', 'PA', '19426', 'USA', 'denism@hotmail.com', '456-885-6495', '5157646255393498', '05 / 20'),</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="26" t="s">
         <v>1732</v>
       </c>
@@ -29593,23 +29705,26 @@
         <v>37128</v>
       </c>
       <c r="H36" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I36" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="I36" s="13" t="s">
+      <c r="J36" s="13" t="s">
         <v>623</v>
       </c>
-      <c r="J36" s="13" t="s">
+      <c r="K36" s="13" t="s">
         <v>1416</v>
       </c>
-      <c r="K36" s="13" t="s">
+      <c r="L36" s="13" t="s">
         <v>1250</v>
       </c>
-      <c r="L36" s="14" t="str">
+      <c r="M36" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(35, 'Laci', 'Figueroa', '8254 Amerige St', 'Murfreesboro', 'TN', '37128', 'shazow@yahoo.ca', '431-402-7023', '5431364554333565', '01 / 20'),</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(35, 'Laci', 'Figueroa', '8254 Amerige St', 'Murfreesboro', 'TN', '37128', 'USA', 'shazow@yahoo.ca', '431-402-7023', '5431364554333565', '01 / 20'),</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="26" t="s">
         <v>1733</v>
       </c>
@@ -29632,23 +29747,26 @@
         <v>27540</v>
       </c>
       <c r="H37" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I37" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="I37" s="13" t="s">
+      <c r="J37" s="13" t="s">
         <v>624</v>
       </c>
-      <c r="J37" s="13" t="s">
+      <c r="K37" s="13" t="s">
         <v>1435</v>
       </c>
-      <c r="K37" s="13" t="s">
+      <c r="L37" s="13" t="s">
         <v>1252</v>
       </c>
-      <c r="L37" s="14" t="str">
+      <c r="M37" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(36, 'Talan', 'Bolton', '964 Southampton Street', 'Holly Springs', 'NC', '27540', 'thowell@outlook.com', '952-234-8973', '5353062098067970', '04 / 20'),</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(36, 'Talan', 'Bolton', '964 Southampton Street', 'Holly Springs', 'NC', '27540', 'USA', 'thowell@outlook.com', '952-234-8973', '5353062098067970', '04 / 20'),</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="26" t="s">
         <v>1734</v>
       </c>
@@ -29671,23 +29789,26 @@
         <v>80003</v>
       </c>
       <c r="H38" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I38" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="I38" s="13" t="s">
+      <c r="J38" s="13" t="s">
         <v>625</v>
       </c>
-      <c r="J38" s="13" t="s">
+      <c r="K38" s="13" t="s">
         <v>1370</v>
       </c>
-      <c r="K38" s="13" t="s">
+      <c r="L38" s="13" t="s">
         <v>1253</v>
       </c>
-      <c r="L38" s="14" t="str">
+      <c r="M38" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(37, 'Keegan', 'Oneal', '43 Lower River St', 'Arvada', 'CO', '80003', 'eegsa@yahoo.ca', '659-415-3573', '5150118173365104', '05 / 20'),</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(37, 'Keegan', 'Oneal', '43 Lower River St', 'Arvada', 'CO', '80003', 'USA', 'eegsa@yahoo.ca', '659-415-3573', '5150118173365104', '05 / 20'),</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="26" t="s">
         <v>1735</v>
       </c>
@@ -29710,23 +29831,26 @@
         <v>32533</v>
       </c>
       <c r="H39" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I39" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="I39" s="13" t="s">
+      <c r="J39" s="13" t="s">
         <v>626</v>
       </c>
-      <c r="J39" s="13" t="s">
+      <c r="K39" s="13" t="s">
         <v>1300</v>
       </c>
-      <c r="K39" s="13" t="s">
+      <c r="L39" s="13" t="s">
         <v>1255</v>
       </c>
-      <c r="L39" s="14" t="str">
+      <c r="M39" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(38, 'Yareli', 'Wilcox', '401 N Shub Farm Ave', 'Cantonment', 'FL', '32533', 'mastinfo@optonline.net', '459-390-4906', '4485026104820635', '11 / 20'),</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(38, 'Yareli', 'Wilcox', '401 N Shub Farm Ave', 'Cantonment', 'FL', '32533', 'USA', 'mastinfo@optonline.net', '459-390-4906', '4485026104820635', '11 / 20'),</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="26" t="s">
         <v>1736</v>
       </c>
@@ -29749,23 +29873,26 @@
         <v>11365</v>
       </c>
       <c r="H40" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I40" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="I40" s="13" t="s">
+      <c r="J40" s="13" t="s">
         <v>627</v>
       </c>
-      <c r="J40" s="13" t="s">
+      <c r="K40" s="13" t="s">
         <v>1347</v>
       </c>
-      <c r="K40" s="13" t="s">
+      <c r="L40" s="13" t="s">
         <v>1263</v>
       </c>
-      <c r="L40" s="14" t="str">
+      <c r="M40" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(39, 'Malia', 'Moon', '3 Halifax Street', 'Fresh Meadows', 'NY', '11365', 'rsteiner@yahoo.ca', '347-294-2041', '4048264749657365', '07 / 23'),</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(39, 'Malia', 'Moon', '3 Halifax Street', 'Fresh Meadows', 'NY', '11365', 'USA', 'rsteiner@yahoo.ca', '347-294-2041', '4048264749657365', '07 / 23'),</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="26" t="s">
         <v>1737</v>
       </c>
@@ -29788,23 +29915,26 @@
         <v>19020</v>
       </c>
       <c r="H41" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I41" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="I41" s="13" t="s">
+      <c r="J41" s="13" t="s">
         <v>628</v>
       </c>
-      <c r="J41" s="13" t="s">
+      <c r="K41" s="13" t="s">
         <v>1296</v>
       </c>
-      <c r="K41" s="13" t="s">
+      <c r="L41" s="13" t="s">
         <v>1263</v>
       </c>
-      <c r="L41" s="14" t="str">
+      <c r="M41" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(40, 'Lauryn', 'Baxter', '64 Pennington St', 'Bensalem', 'PA', '19020', 'knorr@aol.com', '233-378-6219', '4539995497010382', '07 / 23'),</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(40, 'Lauryn', 'Baxter', '64 Pennington St', 'Bensalem', 'PA', '19020', 'USA', 'knorr@aol.com', '233-378-6219', '4539995497010382', '07 / 23'),</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="26" t="s">
         <v>1738</v>
       </c>
@@ -29827,23 +29957,26 @@
         <v>48205</v>
       </c>
       <c r="H42" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I42" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="I42" s="13" t="s">
+      <c r="J42" s="13" t="s">
         <v>629</v>
       </c>
-      <c r="J42" s="13" t="s">
+      <c r="K42" s="13" t="s">
         <v>1410</v>
       </c>
-      <c r="K42" s="13" t="s">
+      <c r="L42" s="13" t="s">
         <v>1265</v>
       </c>
-      <c r="L42" s="14" t="str">
+      <c r="M42" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(41, 'Jaidyn', 'Monroe', '77 Cedar Swamp Dr', 'Detroit', 'MI', '48205', 'mcmillan@icloud.com', '814-431-5867', '5418378286552109', '11 / 23'),</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(41, 'Jaidyn', 'Monroe', '77 Cedar Swamp Dr', 'Detroit', 'MI', '48205', 'USA', 'mcmillan@icloud.com', '814-431-5867', '5418378286552109', '11 / 23'),</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="26" t="s">
         <v>1739</v>
       </c>
@@ -29866,23 +29999,26 @@
         <v>1247</v>
       </c>
       <c r="H43" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I43" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="I43" s="13" t="s">
+      <c r="J43" s="13" t="s">
         <v>630</v>
       </c>
-      <c r="J43" s="13" t="s">
+      <c r="K43" s="13" t="s">
         <v>1429</v>
       </c>
-      <c r="K43" s="13" t="s">
+      <c r="L43" s="13" t="s">
         <v>1251</v>
       </c>
-      <c r="L43" s="14" t="str">
+      <c r="M43" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(42, 'Hailie', 'Fritz', '7496 Rosewood Avenue', 'Basking Ridge', 'NJ', '07920', 'mosses@att.net', '825-338-1072', '5270923683622703', '03 / 20'),</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(42, 'Hailie', 'Fritz', '7496 Rosewood Avenue', 'Basking Ridge', 'NJ', '07920', 'USA', 'mosses@att.net', '825-338-1072', '5270923683622703', '03 / 20'),</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="26" t="s">
         <v>1740</v>
       </c>
@@ -29905,23 +30041,26 @@
         <v>42101</v>
       </c>
       <c r="H44" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I44" s="13" t="s">
         <v>431</v>
       </c>
-      <c r="I44" s="13" t="s">
+      <c r="J44" s="13" t="s">
         <v>631</v>
       </c>
-      <c r="J44" s="13" t="s">
+      <c r="K44" s="13" t="s">
         <v>1423</v>
       </c>
-      <c r="K44" s="13" t="s">
+      <c r="L44" s="13" t="s">
         <v>1263</v>
       </c>
-      <c r="L44" s="14" t="str">
+      <c r="M44" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(43, 'Anastasia', 'Murillo', '3 Saxon Ave', 'Bowling Green', 'KY', '42101', 'amaranth@outlook.com', '814-458-0264', '5527776687798361', '07 / 23'),</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(43, 'Anastasia', 'Murillo', '3 Saxon Ave', 'Bowling Green', 'KY', '42101', 'USA', 'amaranth@outlook.com', '814-458-0264', '5527776687798361', '07 / 23'),</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
         <v>1741</v>
       </c>
@@ -29944,23 +30083,26 @@
         <v>19401</v>
       </c>
       <c r="H45" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I45" s="13" t="s">
         <v>432</v>
       </c>
-      <c r="I45" s="13" t="s">
+      <c r="J45" s="13" t="s">
         <v>632</v>
       </c>
-      <c r="J45" s="13" t="s">
+      <c r="K45" s="13" t="s">
         <v>1404</v>
       </c>
-      <c r="K45" s="13" t="s">
+      <c r="L45" s="13" t="s">
         <v>1259</v>
       </c>
-      <c r="L45" s="14" t="str">
+      <c r="M45" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(44, 'Henry', 'Greene', '1 Olive St', 'Norristown', 'PA', '19401', 'bockelboy@yahoo.com', '631-317-3252', '5110745756989394', '03 / 22'),</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(44, 'Henry', 'Greene', '1 Olive St', 'Norristown', 'PA', '19401', 'USA', 'bockelboy@yahoo.com', '631-317-3252', '5110745756989394', '03 / 22'),</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="26" t="s">
         <v>1742</v>
       </c>
@@ -29983,23 +30125,26 @@
         <v>975</v>
       </c>
       <c r="H46" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I46" s="13" t="s">
         <v>433</v>
       </c>
-      <c r="I46" s="13" t="s">
+      <c r="J46" s="13" t="s">
         <v>633</v>
       </c>
-      <c r="J46" s="13" t="s">
+      <c r="K46" s="13" t="s">
         <v>1281</v>
       </c>
-      <c r="K46" s="13" t="s">
+      <c r="L46" s="13" t="s">
         <v>1252</v>
       </c>
-      <c r="L46" s="14" t="str">
+      <c r="M46" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(45, 'Alisa', 'Melton', '9981 Valley View Street', 'Reading', 'MA', '01867', 'brickbat@hotmail.com', '625-935-1250', '4539091236734878', '04 / 20'),</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(45, 'Alisa', 'Melton', '9981 Valley View Street', 'Reading', 'MA', '01867', 'USA', 'brickbat@hotmail.com', '625-935-1250', '4539091236734878', '04 / 20'),</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="26" t="s">
         <v>1743</v>
       </c>
@@ -30022,23 +30167,26 @@
         <v>20877</v>
       </c>
       <c r="H47" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I47" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="I47" s="13" t="s">
+      <c r="J47" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="J47" s="13" t="s">
+      <c r="K47" s="13" t="s">
         <v>1343</v>
       </c>
-      <c r="K47" s="13" t="s">
+      <c r="L47" s="13" t="s">
         <v>1253</v>
       </c>
-      <c r="L47" s="14" t="str">
+      <c r="M47" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(46, 'Frankie', 'Schmitt', '8727 George Ave', 'Gaithersburg', 'MD', '20877', 'themer@live.com', '412-513-6786', '4024007143754140', '05 / 20'),</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(46, 'Frankie', 'Schmitt', '8727 George Ave', 'Gaithersburg', 'MD', '20877', 'USA', 'themer@live.com', '412-513-6786', '4024007143754140', '05 / 20'),</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="26" t="s">
         <v>1744</v>
       </c>
@@ -30061,23 +30209,26 @@
         <v>974</v>
       </c>
       <c r="H48" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I48" s="13" t="s">
         <v>435</v>
       </c>
-      <c r="I48" s="13" t="s">
+      <c r="J48" s="13" t="s">
         <v>635</v>
       </c>
-      <c r="J48" s="13" t="s">
+      <c r="K48" s="13" t="s">
         <v>1400</v>
       </c>
-      <c r="K48" s="13" t="s">
+      <c r="L48" s="13" t="s">
         <v>1265</v>
       </c>
-      <c r="L48" s="14" t="str">
+      <c r="M48" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(47, 'Will', 'Ramirez', '22 Glen Ridge Street', 'Arlington', 'MA', '02474', 'birddog@optonline.net', '925-620-6861', '5321011925356709', '11 / 23'),</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(47, 'Will', 'Ramirez', '22 Glen Ridge Street', 'Arlington', 'MA', '02474', 'USA', 'birddog@optonline.net', '925-620-6861', '5321011925356709', '11 / 23'),</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="26" t="s">
         <v>1745</v>
       </c>
@@ -30100,23 +30251,26 @@
         <v>11550</v>
       </c>
       <c r="H49" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I49" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="I49" s="13" t="s">
+      <c r="J49" s="13" t="s">
         <v>636</v>
       </c>
-      <c r="J49" s="13" t="s">
+      <c r="K49" s="13" t="s">
         <v>1324</v>
       </c>
-      <c r="K49" s="13" t="s">
+      <c r="L49" s="13" t="s">
         <v>1250</v>
       </c>
-      <c r="L49" s="14" t="str">
+      <c r="M49" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(48, 'Hayley', 'Wolfe', '265 Tower Street', 'Hempstead', 'NY', '11550', 'valdez@hotmail.com', '266-629-5060', '4532762805347758', '01 / 20'),</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(48, 'Hayley', 'Wolfe', '265 Tower Street', 'Hempstead', 'NY', '11550', 'USA', 'valdez@hotmail.com', '266-629-5060', '4532762805347758', '01 / 20'),</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="26" t="s">
         <v>1746</v>
       </c>
@@ -30139,23 +30293,26 @@
         <v>28205</v>
       </c>
       <c r="H50" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I50" s="13" t="s">
         <v>437</v>
       </c>
-      <c r="I50" s="13" t="s">
+      <c r="J50" s="13" t="s">
         <v>637</v>
       </c>
-      <c r="J50" s="13" t="s">
+      <c r="K50" s="13" t="s">
         <v>1462</v>
       </c>
-      <c r="K50" s="13" t="s">
+      <c r="L50" s="13" t="s">
         <v>1255</v>
       </c>
-      <c r="L50" s="14" t="str">
+      <c r="M50" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(49, 'Chad', 'Cooley', '9501 Campfire Ave', 'Charlotte', 'NC', '28205', 'gator@sbcglobal.net', '561-670-6581', '5351188439820868', '11 / 20'),</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(49, 'Chad', 'Cooley', '9501 Campfire Ave', 'Charlotte', 'NC', '28205', 'USA', 'gator@sbcglobal.net', '561-670-6581', '5351188439820868', '11 / 20'),</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="26" t="s">
         <v>1747</v>
       </c>
@@ -30178,23 +30335,26 @@
         <v>973</v>
       </c>
       <c r="H51" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I51" s="13" t="s">
         <v>438</v>
       </c>
-      <c r="I51" s="13" t="s">
+      <c r="J51" s="13" t="s">
         <v>638</v>
       </c>
-      <c r="J51" s="13" t="s">
+      <c r="K51" s="13" t="s">
         <v>1311</v>
       </c>
-      <c r="K51" s="13" t="s">
+      <c r="L51" s="13" t="s">
         <v>1254</v>
       </c>
-      <c r="L51" s="14" t="str">
+      <c r="M51" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(50, 'Chasity', 'Brennan', '18 Longfellow Ave', 'Union City', 'NJ', '07087', 'tkrotchko@me.com', '322-916-7918', '4485822151690164', '06 / 20'),</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(50, 'Chasity', 'Brennan', '18 Longfellow Ave', 'Union City', 'NJ', '07087', 'USA', 'tkrotchko@me.com', '322-916-7918', '4485822151690164', '06 / 20'),</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="26" t="s">
         <v>1748</v>
       </c>
@@ -30217,23 +30377,26 @@
         <v>39120</v>
       </c>
       <c r="H52" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I52" s="13" t="s">
         <v>439</v>
       </c>
-      <c r="I52" s="13" t="s">
+      <c r="J52" s="13" t="s">
         <v>639</v>
       </c>
-      <c r="J52" s="13" t="s">
+      <c r="K52" s="13" t="s">
         <v>1432</v>
       </c>
-      <c r="K52" s="13" t="s">
+      <c r="L52" s="13" t="s">
         <v>1264</v>
       </c>
-      <c r="L52" s="14" t="str">
+      <c r="M52" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(51, 'Kendall', 'Meyer', '482 W Silver Spear St', 'Natchez', 'MS', '39120', 'plover@live.com', '900-285-7237', '5167538111949522', '10 / 23'),</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(51, 'Kendall', 'Meyer', '482 W Silver Spear St', 'Natchez', 'MS', '39120', 'USA', 'plover@live.com', '900-285-7237', '5167538111949522', '10 / 23'),</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="26" t="s">
         <v>1749</v>
       </c>
@@ -30256,23 +30419,26 @@
         <v>15146</v>
       </c>
       <c r="H53" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I53" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="I53" s="13" t="s">
+      <c r="J53" s="13" t="s">
         <v>640</v>
       </c>
-      <c r="J53" s="13" t="s">
+      <c r="K53" s="13" t="s">
         <v>1360</v>
       </c>
-      <c r="K53" s="13" t="s">
+      <c r="L53" s="13" t="s">
         <v>1254</v>
       </c>
-      <c r="L53" s="14" t="str">
+      <c r="M53" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(52, 'Lucy', 'Navarro', '641 Hill Lane', 'Monroeville', 'PA', '15146', 'sisyphus@aol.com', '479-222-2795', '4929028594282916', '06 / 20'),</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(52, 'Lucy', 'Navarro', '641 Hill Lane', 'Monroeville', 'PA', '15146', 'USA', 'sisyphus@aol.com', '479-222-2795', '4929028594282916', '06 / 20'),</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="26" t="s">
         <v>1750</v>
       </c>
@@ -30295,23 +30461,26 @@
         <v>44221</v>
       </c>
       <c r="H54" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I54" s="13" t="s">
         <v>441</v>
       </c>
-      <c r="I54" s="13" t="s">
+      <c r="J54" s="13" t="s">
         <v>641</v>
       </c>
-      <c r="J54" s="13" t="s">
+      <c r="K54" s="13" t="s">
         <v>1354</v>
       </c>
-      <c r="K54" s="13" t="s">
+      <c r="L54" s="13" t="s">
         <v>1246</v>
       </c>
-      <c r="L54" s="14" t="str">
+      <c r="M54" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(53, 'Rayna', 'Marshall', '7254 James St', 'Cuyahoga Falls', 'OH', '44221', 'matty@att.net', '514-677-5805', '4532769426349899', '12 / 22'),</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(53, 'Rayna', 'Marshall', '7254 James St', 'Cuyahoga Falls', 'OH', '44221', 'USA', 'matty@att.net', '514-677-5805', '4532769426349899', '12 / 22'),</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="26" t="s">
         <v>1751</v>
       </c>
@@ -30334,23 +30503,26 @@
         <v>45342</v>
       </c>
       <c r="H55" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I55" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="I55" s="13" t="s">
+      <c r="J55" s="13" t="s">
         <v>642</v>
       </c>
-      <c r="J55" s="13" t="s">
+      <c r="K55" s="13" t="s">
         <v>1366</v>
       </c>
-      <c r="K55" s="13" t="s">
+      <c r="L55" s="13" t="s">
         <v>1265</v>
       </c>
-      <c r="L55" s="14" t="str">
+      <c r="M55" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(54, 'Sanai', 'Gray', '729 Sherman Avenue', 'Miamisburg', 'OH', '45342', 'balchen@hotmail.com', '933-275-5030', '5324721375635793', '11 / 23'),</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(54, 'Sanai', 'Gray', '729 Sherman Avenue', 'Miamisburg', 'OH', '45342', 'USA', 'balchen@hotmail.com', '933-275-5030', '5324721375635793', '11 / 23'),</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="26" t="s">
         <v>1752</v>
       </c>
@@ -30373,23 +30545,26 @@
         <v>32404</v>
       </c>
       <c r="H56" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I56" s="13" t="s">
         <v>443</v>
       </c>
-      <c r="I56" s="13" t="s">
+      <c r="J56" s="13" t="s">
         <v>643</v>
       </c>
-      <c r="J56" s="13" t="s">
+      <c r="K56" s="13" t="s">
         <v>1388</v>
       </c>
-      <c r="K56" s="13" t="s">
+      <c r="L56" s="13" t="s">
         <v>1250</v>
       </c>
-      <c r="L56" s="14" t="str">
+      <c r="M56" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(55, 'Valentina', 'Hogan', '265 N Valley View Ave', 'Panama City', 'FL', '32404', 'jgmyers@outlook.com', '510-813-1783', '5573329803086494', '01 / 20'),</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(55, 'Valentina', 'Hogan', '265 N Valley View Ave', 'Panama City', 'FL', '32404', 'USA', 'jgmyers@outlook.com', '510-813-1783', '5573329803086494', '01 / 20'),</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="26" t="s">
         <v>1753</v>
       </c>
@@ -30412,23 +30587,26 @@
         <v>54701</v>
       </c>
       <c r="H57" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I57" s="13" t="s">
         <v>444</v>
       </c>
-      <c r="I57" s="13" t="s">
+      <c r="J57" s="13" t="s">
         <v>644</v>
       </c>
-      <c r="J57" s="13" t="s">
+      <c r="K57" s="13" t="s">
         <v>1353</v>
       </c>
-      <c r="K57" s="13" t="s">
+      <c r="L57" s="13" t="s">
         <v>1253</v>
       </c>
-      <c r="L57" s="14" t="str">
+      <c r="M57" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(56, 'Moshe', 'Powers', '7763 W Strawberry Drive', 'Eau Claire', 'WI', '54701', 'gfody@aol.com', '212-220-2744', '4539750761674144', '05 / 20'),</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(56, 'Moshe', 'Powers', '7763 W Strawberry Drive', 'Eau Claire', 'WI', '54701', 'USA', 'gfody@aol.com', '212-220-2744', '4539750761674144', '05 / 20'),</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="26" t="s">
         <v>1754</v>
       </c>
@@ -30451,23 +30629,26 @@
         <v>60091</v>
       </c>
       <c r="H58" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I58" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="I58" s="13" t="s">
+      <c r="J58" s="13" t="s">
         <v>645</v>
       </c>
-      <c r="J58" s="13" t="s">
+      <c r="K58" s="13" t="s">
         <v>1403</v>
       </c>
-      <c r="K58" s="13" t="s">
+      <c r="L58" s="13" t="s">
         <v>1265</v>
       </c>
-      <c r="L58" s="14" t="str">
+      <c r="M58" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(57, 'Annie', 'Frederick', '8677 Honey Creek St', 'Wilmette', 'IL', '60091', 'houle@me.com', '739-511-7408', '5392993257139742', '11 / 23'),</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(57, 'Annie', 'Frederick', '8677 Honey Creek St', 'Wilmette', 'IL', '60091', 'USA', 'houle@me.com', '739-511-7408', '5392993257139742', '11 / 23'),</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="26" t="s">
         <v>1755</v>
       </c>
@@ -30490,23 +30671,26 @@
         <v>48042</v>
       </c>
       <c r="H59" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I59" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="I59" s="13" t="s">
+      <c r="J59" s="13" t="s">
         <v>646</v>
       </c>
-      <c r="J59" s="13" t="s">
+      <c r="K59" s="13" t="s">
         <v>1308</v>
       </c>
-      <c r="K59" s="13" t="s">
+      <c r="L59" s="13" t="s">
         <v>1255</v>
       </c>
-      <c r="L59" s="14" t="str">
+      <c r="M59" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(58, 'Alvin', 'Bradley', '9793 Mulberry Road', 'Macomb', 'MI', '48042', 'nwiger@sbcglobal.net', '743-392-3756', '4532817301393993', '11 / 20'),</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(58, 'Alvin', 'Bradley', '9793 Mulberry Road', 'Macomb', 'MI', '48042', 'USA', 'nwiger@sbcglobal.net', '743-392-3756', '4532817301393993', '11 / 20'),</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="26" t="s">
         <v>1756</v>
       </c>
@@ -30529,23 +30713,26 @@
         <v>38637</v>
       </c>
       <c r="H60" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I60" s="13" t="s">
         <v>447</v>
       </c>
-      <c r="I60" s="13" t="s">
+      <c r="J60" s="13" t="s">
         <v>647</v>
       </c>
-      <c r="J60" s="13" t="s">
+      <c r="K60" s="13" t="s">
         <v>1348</v>
       </c>
-      <c r="K60" s="13" t="s">
+      <c r="L60" s="13" t="s">
         <v>1265</v>
       </c>
-      <c r="L60" s="14" t="str">
+      <c r="M60" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(59, 'Kaya', 'Mays', '389 Water Lane', 'Horn Lake', 'MS', '38637', 'grossman@outlook.com', '748-219-7266', '4929202104533809', '11 / 23'),</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(59, 'Kaya', 'Mays', '389 Water Lane', 'Horn Lake', 'MS', '38637', 'USA', 'grossman@outlook.com', '748-219-7266', '4929202104533809', '11 / 23'),</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="26" t="s">
         <v>1757</v>
       </c>
@@ -30568,23 +30755,26 @@
         <v>10550</v>
       </c>
       <c r="H61" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I61" s="13" t="s">
         <v>448</v>
       </c>
-      <c r="I61" s="13" t="s">
+      <c r="J61" s="13" t="s">
         <v>648</v>
       </c>
-      <c r="J61" s="13" t="s">
+      <c r="K61" s="13" t="s">
         <v>1448</v>
       </c>
-      <c r="K61" s="13" t="s">
+      <c r="L61" s="13" t="s">
         <v>1245</v>
       </c>
-      <c r="L61" s="14" t="str">
+      <c r="M61" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(60, 'Rashad', 'House', '7178 Mill St', 'Mount Vernon', 'NY', '10550', 'kwilliams@gmail.com', '267-905-9863', '5334940369564169', '10 / 22'),</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(60, 'Rashad', 'House', '7178 Mill St', 'Mount Vernon', 'NY', '10550', 'USA', 'kwilliams@gmail.com', '267-905-9863', '5334940369564169', '10 / 22'),</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="26" t="s">
         <v>1758</v>
       </c>
@@ -30607,23 +30797,26 @@
         <v>29301</v>
       </c>
       <c r="H62" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I62" s="13" t="s">
         <v>449</v>
       </c>
-      <c r="I62" s="13" t="s">
+      <c r="J62" s="13" t="s">
         <v>649</v>
       </c>
-      <c r="J62" s="13" t="s">
+      <c r="K62" s="13" t="s">
         <v>1431</v>
       </c>
-      <c r="K62" s="13" t="s">
+      <c r="L62" s="13" t="s">
         <v>1265</v>
       </c>
-      <c r="L62" s="14" t="str">
+      <c r="M62" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(61, 'Brogan', 'Newman', '216 Glen Creek Ave', 'Spartanburg', 'SC', '29301', 'yzheng@mac.com', '489-834-8509', '5452711376611723', '11 / 23'),</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(61, 'Brogan', 'Newman', '216 Glen Creek Ave', 'Spartanburg', 'SC', '29301', 'USA', 'yzheng@mac.com', '489-834-8509', '5452711376611723', '11 / 23'),</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="26" t="s">
         <v>1759</v>
       </c>
@@ -30646,23 +30839,26 @@
         <v>91768</v>
       </c>
       <c r="H63" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I63" s="13" t="s">
         <v>450</v>
       </c>
-      <c r="I63" s="13" t="s">
+      <c r="J63" s="13" t="s">
         <v>650</v>
       </c>
-      <c r="J63" s="13" t="s">
+      <c r="K63" s="13" t="s">
         <v>1299</v>
       </c>
-      <c r="K63" s="13" t="s">
+      <c r="L63" s="13" t="s">
         <v>1255</v>
       </c>
-      <c r="L63" s="14" t="str">
+      <c r="M63" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(62, 'Paris', 'Roberson', '9018 Madison Ave', 'Pomona', 'CA', '91768', 'rhialto@yahoo.ca', '918-973-0112', '4916627028682180', '11 / 20'),</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(62, 'Paris', 'Roberson', '9018 Madison Ave', 'Pomona', 'CA', '91768', 'USA', 'rhialto@yahoo.ca', '918-973-0112', '4916627028682180', '11 / 20'),</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="26" t="s">
         <v>1760</v>
       </c>
@@ -30685,23 +30881,26 @@
         <v>27530</v>
       </c>
       <c r="H64" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I64" s="13" t="s">
         <v>451</v>
       </c>
-      <c r="I64" s="13" t="s">
+      <c r="J64" s="13" t="s">
         <v>651</v>
       </c>
-      <c r="J64" s="13" t="s">
+      <c r="K64" s="13" t="s">
         <v>1371</v>
       </c>
-      <c r="K64" s="13" t="s">
+      <c r="L64" s="13" t="s">
         <v>1250</v>
       </c>
-      <c r="L64" s="14" t="str">
+      <c r="M64" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(63, 'Jessie', 'Ward', '515 Old 2nd St', 'Goldsboro', 'NC', '27530', 'seano@verizon.net', '957-327-2664', '5577454061180460', '01 / 20'),</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(63, 'Jessie', 'Ward', '515 Old 2nd St', 'Goldsboro', 'NC', '27530', 'USA', 'seano@verizon.net', '957-327-2664', '5577454061180460', '01 / 20'),</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="26" t="s">
         <v>1761</v>
       </c>
@@ -30724,23 +30923,26 @@
         <v>60409</v>
       </c>
       <c r="H65" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I65" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="I65" s="13" t="s">
+      <c r="J65" s="13" t="s">
         <v>652</v>
       </c>
-      <c r="J65" s="13" t="s">
+      <c r="K65" s="13" t="s">
         <v>1286</v>
       </c>
-      <c r="K65" s="13" t="s">
+      <c r="L65" s="13" t="s">
         <v>1263</v>
       </c>
-      <c r="L65" s="14" t="str">
+      <c r="M65" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>(64, 'Zane', 'Kaiser', '8789 S Nichols St', 'Calumet City', 'IL', '60409', 'nasor@me.com', '976-971-5906', '4929845305180869', '07 / 23'),</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(64, 'Zane', 'Kaiser', '8789 S Nichols St', 'Calumet City', 'IL', '60409', 'USA', 'nasor@me.com', '976-971-5906', '4929845305180869', '07 / 23'),</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="26" t="s">
         <v>1762</v>
       </c>
@@ -30763,23 +30965,26 @@
         <v>61350</v>
       </c>
       <c r="H66" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I66" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="I66" s="13" t="s">
+      <c r="J66" s="13" t="s">
         <v>653</v>
       </c>
-      <c r="J66" s="13" t="s">
+      <c r="K66" s="13" t="s">
         <v>1367</v>
       </c>
-      <c r="K66" s="13" t="s">
+      <c r="L66" s="13" t="s">
         <v>1245</v>
       </c>
-      <c r="L66" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>(65, 'Joanna', 'Patton', '7565 Newport Rd', 'Ottawa', 'IL', '61350', 'penna@optonline.net', '812-281-7607', '5408207780168793', '10 / 22'),</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M66" s="14" t="str">
+        <f t="shared" ref="M66:M129" si="1">"("&amp;A66&amp;", '"&amp;B66&amp;"', '"&amp;C66&amp;"', '"&amp;D66&amp;"', '"&amp;E66&amp;"', '"&amp;F66&amp;"', '"&amp;G66&amp;"', '"&amp;H66&amp;"', '"&amp;I66&amp;"', '"&amp;J66&amp;"', '"&amp;K66&amp;"', '"&amp;L66&amp;"'),"</f>
+        <v>(65, 'Joanna', 'Patton', '7565 Newport Rd', 'Ottawa', 'IL', '61350', 'USA', 'penna@optonline.net', '812-281-7607', '5408207780168793', '10 / 22'),</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="26" t="s">
         <v>1763</v>
       </c>
@@ -30802,23 +31007,26 @@
         <v>993</v>
       </c>
       <c r="H67" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I67" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="I67" s="13" t="s">
+      <c r="J67" s="13" t="s">
         <v>654</v>
       </c>
-      <c r="J67" s="13" t="s">
+      <c r="K67" s="13" t="s">
         <v>1378</v>
       </c>
-      <c r="K67" s="13" t="s">
+      <c r="L67" s="13" t="s">
         <v>1245</v>
       </c>
-      <c r="L67" s="14" t="str">
-        <f t="shared" ref="L67:L130" si="1">"("&amp;A67&amp;", '"&amp;B67&amp;"', '"&amp;C67&amp;"', '"&amp;D67&amp;"', '"&amp;E67&amp;"', '"&amp;F67&amp;"', '"&amp;G67&amp;"', '"&amp;H67&amp;"', '"&amp;I67&amp;"', '"&amp;J67&amp;"', '"&amp;K67&amp;"'),"</f>
-        <v>(66, 'Zain', 'Fletcher', '489 Railroad St', 'Watertown', 'MA', '02472', 'jrkorson@mac.com', '423-292-8323', '5526925594296172', '10 / 22'),</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M67" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>(66, 'Zain', 'Fletcher', '489 Railroad St', 'Watertown', 'MA', '02472', 'USA', 'jrkorson@mac.com', '423-292-8323', '5526925594296172', '10 / 22'),</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="26" t="s">
         <v>1764</v>
       </c>
@@ -30841,23 +31049,26 @@
         <v>81001</v>
       </c>
       <c r="H68" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I68" s="13" t="s">
         <v>455</v>
       </c>
-      <c r="I68" s="13" t="s">
+      <c r="J68" s="13" t="s">
         <v>655</v>
       </c>
-      <c r="J68" s="13" t="s">
+      <c r="K68" s="13" t="s">
         <v>1317</v>
       </c>
-      <c r="K68" s="13" t="s">
+      <c r="L68" s="13" t="s">
         <v>1254</v>
       </c>
-      <c r="L68" s="14" t="str">
+      <c r="M68" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(67, 'Harper', 'Davenport', '461 Creek St', 'Pueblo', 'CO', '81001', 'mccurley@outlook.com', '903-938-1934', '4539037397187588', '06 / 20'),</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(67, 'Harper', 'Davenport', '461 Creek St', 'Pueblo', 'CO', '81001', 'USA', 'mccurley@outlook.com', '903-938-1934', '4539037397187588', '06 / 20'),</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="26" t="s">
         <v>1765</v>
       </c>
@@ -30880,23 +31091,26 @@
         <v>32765</v>
       </c>
       <c r="H69" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I69" s="13" t="s">
         <v>456</v>
       </c>
-      <c r="I69" s="13" t="s">
+      <c r="J69" s="13" t="s">
         <v>656</v>
       </c>
-      <c r="J69" s="13" t="s">
+      <c r="K69" s="13" t="s">
         <v>1351</v>
       </c>
-      <c r="K69" s="13" t="s">
+      <c r="L69" s="13" t="s">
         <v>1246</v>
       </c>
-      <c r="L69" s="14" t="str">
+      <c r="M69" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(68, 'Alexandria', 'Green', '8534 Iroquois Street', 'Oviedo', 'FL', '32765', 'dartlife@verizon.net', '740-270-4391', '4485947141014272', '12 / 22'),</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(68, 'Alexandria', 'Green', '8534 Iroquois Street', 'Oviedo', 'FL', '32765', 'USA', 'dartlife@verizon.net', '740-270-4391', '4485947141014272', '12 / 22'),</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="26" t="s">
         <v>1766</v>
       </c>
@@ -30919,23 +31133,26 @@
         <v>38655</v>
       </c>
       <c r="H70" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I70" s="13" t="s">
         <v>457</v>
       </c>
-      <c r="I70" s="13" t="s">
+      <c r="J70" s="13" t="s">
         <v>657</v>
       </c>
-      <c r="J70" s="13" t="s">
+      <c r="K70" s="13" t="s">
         <v>1461</v>
       </c>
-      <c r="K70" s="13" t="s">
+      <c r="L70" s="13" t="s">
         <v>1250</v>
       </c>
-      <c r="L70" s="14" t="str">
+      <c r="M70" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(69, 'Christopher', 'Mcmillan', '12 NW Kent St', 'Oxford', 'MS', '38655', 'gommix@me.com', '440-641-0693', '5555235794691758', '01 / 20'),</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(69, 'Christopher', 'Mcmillan', '12 NW Kent St', 'Oxford', 'MS', '38655', 'USA', 'gommix@me.com', '440-641-0693', '5555235794691758', '01 / 20'),</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="26" t="s">
         <v>1767</v>
       </c>
@@ -30958,23 +31175,26 @@
         <v>34698</v>
       </c>
       <c r="H71" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I71" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="I71" s="13" t="s">
+      <c r="J71" s="13" t="s">
         <v>658</v>
       </c>
-      <c r="J71" s="13" t="s">
+      <c r="K71" s="13" t="s">
         <v>1445</v>
       </c>
-      <c r="K71" s="13" t="s">
+      <c r="L71" s="13" t="s">
         <v>1265</v>
       </c>
-      <c r="L71" s="14" t="str">
+      <c r="M71" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(70, 'Adriana', 'Compton', '26 South Dogwood Ave', 'Dunedin', 'FL', '34698', 'adhere@sbcglobal.net', '611-376-7210', '5255760485826697', '11 / 23'),</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(70, 'Adriana', 'Compton', '26 South Dogwood Ave', 'Dunedin', 'FL', '34698', 'USA', 'adhere@sbcglobal.net', '611-376-7210', '5255760485826697', '11 / 23'),</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="26" t="s">
         <v>1768</v>
       </c>
@@ -30997,23 +31217,26 @@
         <v>55330</v>
       </c>
       <c r="H72" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I72" s="13" t="s">
         <v>459</v>
       </c>
-      <c r="I72" s="13" t="s">
+      <c r="J72" s="13" t="s">
         <v>659</v>
       </c>
-      <c r="J72" s="13" t="s">
+      <c r="K72" s="13" t="s">
         <v>1352</v>
       </c>
-      <c r="K72" s="13" t="s">
+      <c r="L72" s="13" t="s">
         <v>1259</v>
       </c>
-      <c r="L72" s="14" t="str">
+      <c r="M72" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(71, 'Adrienne', 'Marquez', '8537 East Hall Lane', 'Elk River', 'MN', '55330', 'phish@hotmail.com', '459-210-4092', '4716208891266864', '03 / 22'),</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(71, 'Adrienne', 'Marquez', '8537 East Hall Lane', 'Elk River', 'MN', '55330', 'USA', 'phish@hotmail.com', '459-210-4092', '4716208891266864', '03 / 22'),</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="26" t="s">
         <v>1769</v>
       </c>
@@ -31036,23 +31259,26 @@
         <v>30039</v>
       </c>
       <c r="H73" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I73" s="13" t="s">
         <v>460</v>
       </c>
-      <c r="I73" s="13" t="s">
+      <c r="J73" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="J73" s="13" t="s">
+      <c r="K73" s="13" t="s">
         <v>1344</v>
       </c>
-      <c r="K73" s="13" t="s">
+      <c r="L73" s="13" t="s">
         <v>1245</v>
       </c>
-      <c r="L73" s="14" t="str">
+      <c r="M73" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(72, 'Cordell', 'Mosley', '8819 Summerhouse St', 'Snellville', 'GA', '30039', 'afeldspar@comcast.net', '549-403-8376', '4532228352412767', '10 / 22'),</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(72, 'Cordell', 'Mosley', '8819 Summerhouse St', 'Snellville', 'GA', '30039', 'USA', 'afeldspar@comcast.net', '549-403-8376', '4532228352412767', '10 / 22'),</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="26" t="s">
         <v>1770</v>
       </c>
@@ -31075,23 +31301,26 @@
         <v>15044</v>
       </c>
       <c r="H74" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I74" s="13" t="s">
         <v>461</v>
       </c>
-      <c r="I74" s="13" t="s">
+      <c r="J74" s="13" t="s">
         <v>661</v>
       </c>
-      <c r="J74" s="13" t="s">
+      <c r="K74" s="13" t="s">
         <v>1426</v>
       </c>
-      <c r="K74" s="13" t="s">
+      <c r="L74" s="13" t="s">
         <v>1259</v>
       </c>
-      <c r="L74" s="14" t="str">
+      <c r="M74" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(73, 'Derrick', 'Keller', '556 Bay Meadows Ave', 'Gibsonia', 'PA', '15044', 'crusader@outlook.com', '569-795-8637', '5554898631398159', '03 / 22'),</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(73, 'Derrick', 'Keller', '556 Bay Meadows Ave', 'Gibsonia', 'PA', '15044', 'USA', 'crusader@outlook.com', '569-795-8637', '5554898631398159', '03 / 22'),</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="26" t="s">
         <v>1771</v>
       </c>
@@ -31114,23 +31343,26 @@
         <v>976</v>
       </c>
       <c r="H75" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I75" s="13" t="s">
         <v>462</v>
       </c>
-      <c r="I75" s="13" t="s">
+      <c r="J75" s="13" t="s">
         <v>662</v>
       </c>
-      <c r="J75" s="13" t="s">
+      <c r="K75" s="13" t="s">
         <v>1280</v>
       </c>
-      <c r="K75" s="13" t="s">
+      <c r="L75" s="13" t="s">
         <v>1256</v>
       </c>
-      <c r="L75" s="14" t="str">
+      <c r="M75" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(74, 'Darian', 'Adams', '9 Joy Ridge DR', 'Newton', 'NJ', '07860', 'parents@verizon.net', '725-512-1058', '4929694035882059', '06 / 21'),</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(74, 'Darian', 'Adams', '9 Joy Ridge DR', 'Newton', 'NJ', '07860', 'USA', 'parents@verizon.net', '725-512-1058', '4929694035882059', '06 / 21'),</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="26" t="s">
         <v>1772</v>
       </c>
@@ -31153,23 +31385,26 @@
         <v>21234</v>
       </c>
       <c r="H76" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I76" s="13" t="s">
         <v>463</v>
       </c>
-      <c r="I76" s="13" t="s">
+      <c r="J76" s="13" t="s">
         <v>663</v>
       </c>
-      <c r="J76" s="13" t="s">
+      <c r="K76" s="13" t="s">
         <v>1284</v>
       </c>
-      <c r="K76" s="13" t="s">
+      <c r="L76" s="13" t="s">
         <v>1254</v>
       </c>
-      <c r="L76" s="14" t="str">
+      <c r="M76" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(75, 'Simon', 'Macdonald', '8505 South Cross Ave', 'Parkville', 'MD', '21234', 'marioph@me.com', '393-915-4676', '4485265379414316', '06 / 20'),</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(75, 'Simon', 'Macdonald', '8505 South Cross Ave', 'Parkville', 'MD', '21234', 'USA', 'marioph@me.com', '393-915-4676', '4485265379414316', '06 / 20'),</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="26" t="s">
         <v>1773</v>
       </c>
@@ -31192,23 +31427,26 @@
         <v>23223</v>
       </c>
       <c r="H77" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I77" s="13" t="s">
         <v>464</v>
       </c>
-      <c r="I77" s="13" t="s">
+      <c r="J77" s="13" t="s">
         <v>664</v>
       </c>
-      <c r="J77" s="13" t="s">
+      <c r="K77" s="13" t="s">
         <v>1285</v>
       </c>
-      <c r="K77" s="13" t="s">
+      <c r="L77" s="13" t="s">
         <v>1261</v>
       </c>
-      <c r="L77" s="14" t="str">
+      <c r="M77" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(76, 'James', 'Jefferson', '7783 8th St', 'Richmond', 'VA', '23223', 'dhwon@live.com', '675-316-9651', '4916815065813574', '02 / 23'),</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(76, 'James', 'Jefferson', '7783 8th St', 'Richmond', 'VA', '23223', 'USA', 'dhwon@live.com', '675-316-9651', '4916815065813574', '02 / 23'),</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="26" t="s">
         <v>1774</v>
       </c>
@@ -31231,23 +31469,26 @@
         <v>30815</v>
       </c>
       <c r="H78" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I78" s="13" t="s">
         <v>465</v>
       </c>
-      <c r="I78" s="13" t="s">
+      <c r="J78" s="13" t="s">
         <v>665</v>
       </c>
-      <c r="J78" s="13" t="s">
+      <c r="K78" s="13" t="s">
         <v>1312</v>
       </c>
-      <c r="K78" s="13" t="s">
+      <c r="L78" s="13" t="s">
         <v>1264</v>
       </c>
-      <c r="L78" s="14" t="str">
+      <c r="M78" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(77, 'Justin', 'Berry', '9896 William Dr', 'Hephzibah', 'GA', '30815', 'jespley@icloud.com', '713-350-0017', '4532672280619268', '10 / 23'),</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(77, 'Justin', 'Berry', '9896 William Dr', 'Hephzibah', 'GA', '30815', 'USA', 'jespley@icloud.com', '713-350-0017', '4532672280619268', '10 / 23'),</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="26" t="s">
         <v>1775</v>
       </c>
@@ -31270,23 +31511,26 @@
         <v>42240</v>
       </c>
       <c r="H79" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I79" s="13" t="s">
         <v>466</v>
       </c>
-      <c r="I79" s="13" t="s">
+      <c r="J79" s="13" t="s">
         <v>666</v>
       </c>
-      <c r="J79" s="13" t="s">
+      <c r="K79" s="13" t="s">
         <v>1338</v>
       </c>
-      <c r="K79" s="13" t="s">
+      <c r="L79" s="13" t="s">
         <v>1252</v>
       </c>
-      <c r="L79" s="14" t="str">
+      <c r="M79" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(78, 'Joanna', 'Vance', '9115 Academy Ave', 'Hopkinsville', 'KY', '42240', 'parksh@yahoo.ca', '983-793-5543', '4485294475146663', '04 / 20'),</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(78, 'Joanna', 'Vance', '9115 Academy Ave', 'Hopkinsville', 'KY', '42240', 'USA', 'parksh@yahoo.ca', '983-793-5543', '4485294475146663', '04 / 20'),</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="26" t="s">
         <v>1776</v>
       </c>
@@ -31309,23 +31553,26 @@
         <v>977</v>
       </c>
       <c r="H80" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I80" s="13" t="s">
         <v>467</v>
       </c>
-      <c r="I80" s="13" t="s">
+      <c r="J80" s="13" t="s">
         <v>667</v>
       </c>
-      <c r="J80" s="13" t="s">
+      <c r="K80" s="13" t="s">
         <v>1364</v>
       </c>
-      <c r="K80" s="13" t="s">
+      <c r="L80" s="13" t="s">
         <v>1256</v>
       </c>
-      <c r="L80" s="14" t="str">
+      <c r="M80" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(79, 'Corinne', 'Schneider', '8 North John Ave', 'Camden', 'NJ', '08105', 'dgriffith@gmail.com', '828-733-3793', '4929097663986954', '06 / 21'),</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(79, 'Corinne', 'Schneider', '8 North John Ave', 'Camden', 'NJ', '08105', 'USA', 'dgriffith@gmail.com', '828-733-3793', '4929097663986954', '06 / 21'),</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="26" t="s">
         <v>1777</v>
       </c>
@@ -31348,23 +31595,26 @@
         <v>97062</v>
       </c>
       <c r="H81" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I81" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="I81" s="13" t="s">
+      <c r="J81" s="13" t="s">
         <v>668</v>
       </c>
-      <c r="J81" s="13" t="s">
+      <c r="K81" s="13" t="s">
         <v>1365</v>
       </c>
-      <c r="K81" s="13" t="s">
+      <c r="L81" s="13" t="s">
         <v>1261</v>
       </c>
-      <c r="L81" s="14" t="str">
+      <c r="M81" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(80, 'Alonzo', 'Kim', '9882 Greystone St', 'Tualatin', 'OR', '97062', 'smallpaul@verizon.net', '287-346-5598', '4532084686016604', '02 / 23'),</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(80, 'Alonzo', 'Kim', '9882 Greystone St', 'Tualatin', 'OR', '97062', 'USA', 'smallpaul@verizon.net', '287-346-5598', '4532084686016604', '02 / 23'),</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="26" t="s">
         <v>1778</v>
       </c>
@@ -31387,23 +31637,26 @@
         <v>11729</v>
       </c>
       <c r="H82" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I82" s="13" t="s">
         <v>469</v>
       </c>
-      <c r="I82" s="13" t="s">
+      <c r="J82" s="13" t="s">
         <v>669</v>
       </c>
-      <c r="J82" s="13" t="s">
+      <c r="K82" s="13" t="s">
         <v>1418</v>
       </c>
-      <c r="K82" s="13" t="s">
+      <c r="L82" s="13" t="s">
         <v>1255</v>
       </c>
-      <c r="L82" s="14" t="str">
+      <c r="M82" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(81, 'Maeve', 'Wolf', '17 Gulf Avenue', 'Deer Park', 'NY', '11729', 'cameron@me.com', '813-997-5505', '5240964731122053', '11 / 20'),</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(81, 'Maeve', 'Wolf', '17 Gulf Avenue', 'Deer Park', 'NY', '11729', 'USA', 'cameron@me.com', '813-997-5505', '5240964731122053', '11 / 20'),</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="26" t="s">
         <v>1779</v>
       </c>
@@ -31426,23 +31679,26 @@
         <v>98503</v>
       </c>
       <c r="H83" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I83" s="13" t="s">
         <v>470</v>
       </c>
-      <c r="I83" s="13" t="s">
+      <c r="J83" s="13" t="s">
         <v>670</v>
       </c>
-      <c r="J83" s="13" t="s">
+      <c r="K83" s="13" t="s">
         <v>1346</v>
       </c>
-      <c r="K83" s="13" t="s">
+      <c r="L83" s="13" t="s">
         <v>1264</v>
       </c>
-      <c r="L83" s="14" t="str">
+      <c r="M83" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(82, 'Kayden', 'Brennan', '9678 East Second St', 'Lacey', 'WA', '98503', 'jaxweb@msn.com', '581-490-2910', '4850372941947539', '10 / 23'),</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(82, 'Kayden', 'Brennan', '9678 East Second St', 'Lacey', 'WA', '98503', 'USA', 'jaxweb@msn.com', '581-490-2910', '4850372941947539', '10 / 23'),</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="26" t="s">
         <v>1780</v>
       </c>
@@ -31465,23 +31721,26 @@
         <v>15102</v>
       </c>
       <c r="H84" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I84" s="13" t="s">
         <v>471</v>
       </c>
-      <c r="I84" s="13" t="s">
+      <c r="J84" s="13" t="s">
         <v>671</v>
       </c>
-      <c r="J84" s="13" t="s">
+      <c r="K84" s="13" t="s">
         <v>1391</v>
       </c>
-      <c r="K84" s="13" t="s">
+      <c r="L84" s="13" t="s">
         <v>1255</v>
       </c>
-      <c r="L84" s="14" t="str">
+      <c r="M84" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(83, 'Brianna', 'Ochoa', '8594 W Primrose Dr', 'Bethel Park', 'PA', '15102', 'inico@sbcglobal.net', '207-253-6039', '5506969027947633', '11 / 20'),</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(83, 'Brianna', 'Ochoa', '8594 W Primrose Dr', 'Bethel Park', 'PA', '15102', 'USA', 'inico@sbcglobal.net', '207-253-6039', '5506969027947633', '11 / 20'),</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="26" t="s">
         <v>1781</v>
       </c>
@@ -31504,23 +31763,26 @@
         <v>55311</v>
       </c>
       <c r="H85" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I85" s="13" t="s">
         <v>472</v>
       </c>
-      <c r="I85" s="13" t="s">
+      <c r="J85" s="13" t="s">
         <v>672</v>
       </c>
-      <c r="J85" s="13" t="s">
+      <c r="K85" s="13" t="s">
         <v>1373</v>
       </c>
-      <c r="K85" s="13" t="s">
+      <c r="L85" s="13" t="s">
         <v>1249</v>
       </c>
-      <c r="L85" s="14" t="str">
+      <c r="M85" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(84, 'John', 'Chapman', '21 Laurel St', 'Osseo', 'MN', '55311', 'nogin@optonline.net', '975-251-7418', '5195762654266666', '05 / 22'),</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(84, 'John', 'Chapman', '21 Laurel St', 'Osseo', 'MN', '55311', 'USA', 'nogin@optonline.net', '975-251-7418', '5195762654266666', '05 / 22'),</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="26" t="s">
         <v>1782</v>
       </c>
@@ -31543,23 +31805,26 @@
         <v>30240</v>
       </c>
       <c r="H86" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I86" s="13" t="s">
         <v>473</v>
       </c>
-      <c r="I86" s="13" t="s">
+      <c r="J86" s="13" t="s">
         <v>673</v>
       </c>
-      <c r="J86" s="13" t="s">
+      <c r="K86" s="13" t="s">
         <v>1279</v>
       </c>
-      <c r="K86" s="13" t="s">
+      <c r="L86" s="13" t="s">
         <v>1251</v>
       </c>
-      <c r="L86" s="14" t="str">
+      <c r="M86" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(85, 'Jayden', 'Haas', '9 Acacia Ave', 'Lagrange', 'GA', '30240', 'birddog@outlook.com', '661-348-3687', '4716114579060795', '03 / 20'),</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(85, 'Jayden', 'Haas', '9 Acacia Ave', 'Lagrange', 'GA', '30240', 'USA', 'birddog@outlook.com', '661-348-3687', '4716114579060795', '03 / 20'),</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="26" t="s">
         <v>1783</v>
       </c>
@@ -31582,23 +31847,26 @@
         <v>48236</v>
       </c>
       <c r="H87" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I87" s="13" t="s">
         <v>474</v>
       </c>
-      <c r="I87" s="13" t="s">
+      <c r="J87" s="13" t="s">
         <v>674</v>
       </c>
-      <c r="J87" s="13" t="s">
+      <c r="K87" s="13" t="s">
         <v>1369</v>
       </c>
-      <c r="K87" s="13" t="s">
+      <c r="L87" s="13" t="s">
         <v>1262</v>
       </c>
-      <c r="L87" s="14" t="str">
+      <c r="M87" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(86, 'Lila', 'Bean', '181 Rockledge St', 'Grosse Pointe', 'MI', '48236', 'malin@verizon.net', '381-291-3227', '5543667310511307', '05 / 23'),</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(86, 'Lila', 'Bean', '181 Rockledge St', 'Grosse Pointe', 'MI', '48236', 'USA', 'malin@verizon.net', '381-291-3227', '5543667310511307', '05 / 23'),</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" s="26" t="s">
         <v>1784</v>
       </c>
@@ -31621,23 +31889,26 @@
         <v>45356</v>
       </c>
       <c r="H88" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I88" s="13" t="s">
         <v>475</v>
       </c>
-      <c r="I88" s="13" t="s">
+      <c r="J88" s="13" t="s">
         <v>675</v>
       </c>
-      <c r="J88" s="13" t="s">
+      <c r="K88" s="13" t="s">
         <v>1396</v>
       </c>
-      <c r="K88" s="13" t="s">
+      <c r="L88" s="13" t="s">
         <v>1250</v>
       </c>
-      <c r="L88" s="14" t="str">
+      <c r="M88" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(87, 'Dereon', 'Christensen', '686 Brewery Road', 'Piqua', 'OH', '45356', 'gmcgath@aol.com', '449-334-0030', '5126400313958621', '01 / 20'),</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(87, 'Dereon', 'Christensen', '686 Brewery Road', 'Piqua', 'OH', '45356', 'USA', 'gmcgath@aol.com', '449-334-0030', '5126400313958621', '01 / 20'),</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="26" t="s">
         <v>1785</v>
       </c>
@@ -31660,23 +31931,26 @@
         <v>32707</v>
       </c>
       <c r="H89" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I89" s="13" t="s">
         <v>476</v>
       </c>
-      <c r="I89" s="13" t="s">
+      <c r="J89" s="13" t="s">
         <v>676</v>
       </c>
-      <c r="J89" s="13" t="s">
+      <c r="K89" s="13" t="s">
         <v>1277</v>
       </c>
-      <c r="K89" s="13" t="s">
+      <c r="L89" s="13" t="s">
         <v>1261</v>
       </c>
-      <c r="L89" s="14" t="str">
+      <c r="M89" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(88, 'Evie', 'Vasquez', '931 Vale St', 'Casselberry', 'FL', '32707', 'themer@att.net', '761-462-4362', '4532409028483016', '02 / 23'),</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(88, 'Evie', 'Vasquez', '931 Vale St', 'Casselberry', 'FL', '32707', 'USA', 'themer@att.net', '761-462-4362', '4532409028483016', '02 / 23'),</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" s="26" t="s">
         <v>1786</v>
       </c>
@@ -31699,23 +31973,26 @@
         <v>60008</v>
       </c>
       <c r="H90" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I90" s="13" t="s">
         <v>477</v>
       </c>
-      <c r="I90" s="13" t="s">
+      <c r="J90" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="J90" s="13" t="s">
+      <c r="K90" s="13" t="s">
         <v>1267</v>
       </c>
-      <c r="K90" s="13" t="s">
+      <c r="L90" s="13" t="s">
         <v>1265</v>
       </c>
-      <c r="L90" s="14" t="str">
+      <c r="M90" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(89, 'Chris', 'Robinson', '7904 Buttonwood St', 'Rolling Meadows', 'IL', '60008', 'jshearer@att.net', '740-317-1565', '4837504133359374', '11 / 23'),</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(89, 'Chris', 'Robinson', '7904 Buttonwood St', 'Rolling Meadows', 'IL', '60008', 'USA', 'jshearer@att.net', '740-317-1565', '4837504133359374', '11 / 23'),</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="26" t="s">
         <v>1787</v>
       </c>
@@ -31738,23 +32015,26 @@
         <v>21222</v>
       </c>
       <c r="H91" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I91" s="13" t="s">
         <v>478</v>
       </c>
-      <c r="I91" s="13" t="s">
+      <c r="J91" s="13" t="s">
         <v>678</v>
       </c>
-      <c r="J91" s="13" t="s">
+      <c r="K91" s="13" t="s">
         <v>1427</v>
       </c>
-      <c r="K91" s="13" t="s">
+      <c r="L91" s="13" t="s">
         <v>1262</v>
       </c>
-      <c r="L91" s="14" t="str">
+      <c r="M91" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(90, 'Marina', 'Lynch', '220 Annadale St', 'Dundalk', 'MD', '21222', 'maradine@live.com', '375-955-4770', '5389457265176539', '05 / 23'),</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(90, 'Marina', 'Lynch', '220 Annadale St', 'Dundalk', 'MD', '21222', 'USA', 'maradine@live.com', '375-955-4770', '5389457265176539', '05 / 23'),</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="26" t="s">
         <v>1788</v>
       </c>
@@ -31777,23 +32057,26 @@
         <v>20707</v>
       </c>
       <c r="H92" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I92" s="13" t="s">
         <v>479</v>
       </c>
-      <c r="I92" s="13" t="s">
+      <c r="J92" s="13" t="s">
         <v>679</v>
       </c>
-      <c r="J92" s="13" t="s">
+      <c r="K92" s="13" t="s">
         <v>1340</v>
       </c>
-      <c r="K92" s="13" t="s">
+      <c r="L92" s="13" t="s">
         <v>1258</v>
       </c>
-      <c r="L92" s="14" t="str">
+      <c r="M92" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(91, 'Angelique', 'Orr', '33 Wall Drive', 'Laurel', 'MD', '20707', 'wayward@att.net', '920-847-3144', '4916252948545241', '10 / 21'),</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(91, 'Angelique', 'Orr', '33 Wall Drive', 'Laurel', 'MD', '20707', 'USA', 'wayward@att.net', '920-847-3144', '4916252948545241', '10 / 21'),</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="26" t="s">
         <v>1789</v>
       </c>
@@ -31816,23 +32099,26 @@
         <v>18301</v>
       </c>
       <c r="H93" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I93" s="13" t="s">
         <v>480</v>
       </c>
-      <c r="I93" s="13" t="s">
+      <c r="J93" s="13" t="s">
         <v>680</v>
       </c>
-      <c r="J93" s="13" t="s">
+      <c r="K93" s="13" t="s">
         <v>1458</v>
       </c>
-      <c r="K93" s="13" t="s">
+      <c r="L93" s="13" t="s">
         <v>1259</v>
       </c>
-      <c r="L93" s="14" t="str">
+      <c r="M93" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(92, 'Jadyn', 'Duke', '7 Central Street', 'East Stroudsburg', 'PA', '18301', 'wortmanj@outlook.com', '504-769-8542', '5377049754048768', '03 / 22'),</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(92, 'Jadyn', 'Duke', '7 Central Street', 'East Stroudsburg', 'PA', '18301', 'USA', 'wortmanj@outlook.com', '504-769-8542', '5377049754048768', '03 / 22'),</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="26" t="s">
         <v>1790</v>
       </c>
@@ -31855,23 +32141,26 @@
         <v>23059</v>
       </c>
       <c r="H94" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I94" s="13" t="s">
         <v>481</v>
       </c>
-      <c r="I94" s="13" t="s">
+      <c r="J94" s="13" t="s">
         <v>681</v>
       </c>
-      <c r="J94" s="13" t="s">
+      <c r="K94" s="13" t="s">
         <v>1355</v>
       </c>
-      <c r="K94" s="13" t="s">
+      <c r="L94" s="13" t="s">
         <v>1252</v>
       </c>
-      <c r="L94" s="14" t="str">
+      <c r="M94" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(93, 'Ashly', 'Mays', '526 Mechanic Street', 'Glen Allen', 'VA', '23059', 'chaikin@optonline.net', '690-252-2019', '4532822204827774', '04 / 20'),</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(93, 'Ashly', 'Mays', '526 Mechanic Street', 'Glen Allen', 'VA', '23059', 'USA', 'chaikin@optonline.net', '690-252-2019', '4532822204827774', '04 / 20'),</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="26" t="s">
         <v>1791</v>
       </c>
@@ -31894,23 +32183,26 @@
         <v>32907</v>
       </c>
       <c r="H95" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I95" s="13" t="s">
         <v>482</v>
       </c>
-      <c r="I95" s="13" t="s">
+      <c r="J95" s="13" t="s">
         <v>682</v>
       </c>
-      <c r="J95" s="13" t="s">
+      <c r="K95" s="13" t="s">
         <v>1362</v>
       </c>
-      <c r="K95" s="13" t="s">
+      <c r="L95" s="13" t="s">
         <v>1262</v>
       </c>
-      <c r="L95" s="14" t="str">
+      <c r="M95" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(94, 'Travis', 'Hale', '284 Bellevue Rd', 'Palm Bay', 'FL', '32907', 'fallorn@yahoo.ca', '381-479-7780', '4556611534232339', '05 / 23'),</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(94, 'Travis', 'Hale', '284 Bellevue Rd', 'Palm Bay', 'FL', '32907', 'USA', 'fallorn@yahoo.ca', '381-479-7780', '4556611534232339', '05 / 23'),</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" s="26" t="s">
         <v>1792</v>
       </c>
@@ -31933,23 +32225,26 @@
         <v>21228</v>
       </c>
       <c r="H96" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I96" s="13" t="s">
         <v>483</v>
       </c>
-      <c r="I96" s="13" t="s">
+      <c r="J96" s="13" t="s">
         <v>683</v>
       </c>
-      <c r="J96" s="13" t="s">
+      <c r="K96" s="13" t="s">
         <v>1452</v>
       </c>
-      <c r="K96" s="13" t="s">
+      <c r="L96" s="13" t="s">
         <v>1258</v>
       </c>
-      <c r="L96" s="14" t="str">
+      <c r="M96" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(95, 'Clara', 'Moses', '8794 North George Court', 'Catonsville', 'MD', '21228', 'ehood@hotmail.com', '896-810-2805', '5380917988326504', '10 / 21'),</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(95, 'Clara', 'Moses', '8794 North George Court', 'Catonsville', 'MD', '21228', 'USA', 'ehood@hotmail.com', '896-810-2805', '5380917988326504', '10 / 21'),</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="26" t="s">
         <v>1793</v>
       </c>
@@ -31972,23 +32267,26 @@
         <v>97603</v>
       </c>
       <c r="H97" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I97" s="13" t="s">
         <v>484</v>
       </c>
-      <c r="I97" s="13" t="s">
+      <c r="J97" s="13" t="s">
         <v>684</v>
       </c>
-      <c r="J97" s="13" t="s">
+      <c r="K97" s="13" t="s">
         <v>1376</v>
       </c>
-      <c r="K97" s="13" t="s">
+      <c r="L97" s="13" t="s">
         <v>1262</v>
       </c>
-      <c r="L97" s="14" t="str">
+      <c r="M97" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(96, 'Bethany', 'English', '884 Pennsylvania Dr', 'Klamath Falls', 'OR', '97603', 'delpino@sbcglobal.net', '247-914-8204', '5164322742909046', '05 / 23'),</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(96, 'Bethany', 'English', '884 Pennsylvania Dr', 'Klamath Falls', 'OR', '97603', 'USA', 'delpino@sbcglobal.net', '247-914-8204', '5164322742909046', '05 / 23'),</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" s="26" t="s">
         <v>1794</v>
       </c>
@@ -32011,23 +32309,26 @@
         <v>60621</v>
       </c>
       <c r="H98" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I98" s="13" t="s">
         <v>485</v>
       </c>
-      <c r="I98" s="13" t="s">
+      <c r="J98" s="13" t="s">
         <v>685</v>
       </c>
-      <c r="J98" s="13" t="s">
+      <c r="K98" s="13" t="s">
         <v>1463</v>
       </c>
-      <c r="K98" s="13" t="s">
+      <c r="L98" s="13" t="s">
         <v>1260</v>
       </c>
-      <c r="L98" s="14" t="str">
+      <c r="M98" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(97, 'Justice', 'Ayers', '7863 Glen Eagles Ave', 'Chicago', 'IL', '60621', 'noneme@aol.com', '954-604-7142', '5364548004224108', '08 / 22'),</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(97, 'Justice', 'Ayers', '7863 Glen Eagles Ave', 'Chicago', 'IL', '60621', 'USA', 'noneme@aol.com', '954-604-7142', '5364548004224108', '08 / 22'),</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" s="26" t="s">
         <v>1795</v>
       </c>
@@ -32050,23 +32351,26 @@
         <v>48127</v>
       </c>
       <c r="H99" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I99" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="I99" s="13" t="s">
+      <c r="J99" s="13" t="s">
         <v>686</v>
       </c>
-      <c r="J99" s="13" t="s">
+      <c r="K99" s="13" t="s">
         <v>1464</v>
       </c>
-      <c r="K99" s="13" t="s">
+      <c r="L99" s="13" t="s">
         <v>1250</v>
       </c>
-      <c r="L99" s="14" t="str">
+      <c r="M99" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(98, 'Greta', 'Miles', '126 Maple Drive', 'Dearborn Heights', 'MI', '48127', 'mjewell@yahoo.com', '466-469-8266', '5580368783843046', '01 / 20'),</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(98, 'Greta', 'Miles', '126 Maple Drive', 'Dearborn Heights', 'MI', '48127', 'USA', 'mjewell@yahoo.com', '466-469-8266', '5580368783843046', '01 / 20'),</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="26" t="s">
         <v>1796</v>
       </c>
@@ -32089,23 +32393,26 @@
         <v>26508</v>
       </c>
       <c r="H100" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I100" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="I100" s="13" t="s">
+      <c r="J100" s="13" t="s">
         <v>687</v>
       </c>
-      <c r="J100" s="13" t="s">
+      <c r="K100" s="13" t="s">
         <v>1359</v>
       </c>
-      <c r="K100" s="13" t="s">
+      <c r="L100" s="13" t="s">
         <v>1263</v>
       </c>
-      <c r="L100" s="14" t="str">
+      <c r="M100" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(99, 'Mohammad', 'Pena', '750 Pin Oak Drive', 'Morgantown', 'WV', '26508', 'chrisk@yahoo.com', '622-797-2357', '4024007151558672', '07 / 23'),</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(99, 'Mohammad', 'Pena', '750 Pin Oak Drive', 'Morgantown', 'WV', '26508', 'USA', 'chrisk@yahoo.com', '622-797-2357', '4024007151558672', '07 / 23'),</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" s="26" t="s">
         <v>1797</v>
       </c>
@@ -32128,23 +32435,26 @@
         <v>22191</v>
       </c>
       <c r="H101" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I101" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="I101" s="13" t="s">
+      <c r="J101" s="13" t="s">
         <v>688</v>
       </c>
-      <c r="J101" s="13" t="s">
+      <c r="K101" s="13" t="s">
         <v>1287</v>
       </c>
-      <c r="K101" s="13" t="s">
+      <c r="L101" s="13" t="s">
         <v>1261</v>
       </c>
-      <c r="L101" s="14" t="str">
+      <c r="M101" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(100, 'Jayden', 'Pope', '8785 Clinton Street', 'Woodbridge', 'VA', '22191', 'naupa@comcast.net', '378-231-7607', '4119845682261050', '02 / 23'),</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(100, 'Jayden', 'Pope', '8785 Clinton Street', 'Woodbridge', 'VA', '22191', 'USA', 'naupa@comcast.net', '378-231-7607', '4119845682261050', '02 / 23'),</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="26" t="s">
         <v>1798</v>
       </c>
@@ -32167,23 +32477,26 @@
         <v>26003</v>
       </c>
       <c r="H102" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I102" s="13" t="s">
         <v>489</v>
       </c>
-      <c r="I102" s="13" t="s">
+      <c r="J102" s="13" t="s">
         <v>689</v>
       </c>
-      <c r="J102" s="13" t="s">
+      <c r="K102" s="13" t="s">
         <v>1361</v>
       </c>
-      <c r="K102" s="13" t="s">
+      <c r="L102" s="13" t="s">
         <v>1249</v>
       </c>
-      <c r="L102" s="14" t="str">
+      <c r="M102" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(101, 'Melissa', 'Simmons', '9988 Hilltop Street', 'Wheeling', 'WV', '26003', 'kevinm@sbcglobal.net', '563-507-9591', '4341415328489166', '05 / 22'),</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(101, 'Melissa', 'Simmons', '9988 Hilltop Street', 'Wheeling', 'WV', '26003', 'USA', 'kevinm@sbcglobal.net', '563-507-9591', '4341415328489166', '05 / 22'),</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" s="26" t="s">
         <v>1799</v>
       </c>
@@ -32206,23 +32519,26 @@
         <v>1006</v>
       </c>
       <c r="H103" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I103" s="13" t="s">
         <v>490</v>
       </c>
-      <c r="I103" s="13" t="s">
+      <c r="J103" s="13" t="s">
         <v>690</v>
       </c>
-      <c r="J103" s="13" t="s">
+      <c r="K103" s="13" t="s">
         <v>1303</v>
       </c>
-      <c r="K103" s="13" t="s">
+      <c r="L103" s="13" t="s">
         <v>1263</v>
       </c>
-      <c r="L103" s="14" t="str">
+      <c r="M103" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(102, 'Bryan', 'Burgess', '9143 Pine Circle', 'Englewood', 'NJ', '07631', 'sacraver@optonline.net', '436-912-8635', '4929935195303158', '07 / 23'),</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(102, 'Bryan', 'Burgess', '9143 Pine Circle', 'Englewood', 'NJ', '07631', 'USA', 'sacraver@optonline.net', '436-912-8635', '4929935195303158', '07 / 23'),</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" s="26" t="s">
         <v>1800</v>
       </c>
@@ -32245,23 +32561,26 @@
         <v>47933</v>
       </c>
       <c r="H104" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I104" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="I104" s="13" t="s">
+      <c r="J104" s="13" t="s">
         <v>691</v>
       </c>
-      <c r="J104" s="13" t="s">
+      <c r="K104" s="13" t="s">
         <v>1302</v>
       </c>
-      <c r="K104" s="13" t="s">
+      <c r="L104" s="13" t="s">
         <v>1264</v>
       </c>
-      <c r="L104" s="14" t="str">
+      <c r="M104" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(103, 'Weston', 'Holden', '550 Wentworth Dr', 'Crawfordsville', 'IN', '47933', 'morain@msn.com', '556-303-4802', '4916467741746388', '10 / 23'),</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(103, 'Weston', 'Holden', '550 Wentworth Dr', 'Crawfordsville', 'IN', '47933', 'USA', 'morain@msn.com', '556-303-4802', '4916467741746388', '10 / 23'),</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" s="26" t="s">
         <v>1801</v>
       </c>
@@ -32284,23 +32603,26 @@
         <v>20735</v>
       </c>
       <c r="H105" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I105" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="I105" s="13" t="s">
+      <c r="J105" s="13" t="s">
         <v>692</v>
       </c>
-      <c r="J105" s="13" t="s">
+      <c r="K105" s="13" t="s">
         <v>1268</v>
       </c>
-      <c r="K105" s="13" t="s">
+      <c r="L105" s="13" t="s">
         <v>1250</v>
       </c>
-      <c r="L105" s="14" t="str">
+      <c r="M105" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(104, 'Ainsley', 'Spence', '184 Santa Clara Avenue', 'Clinton', 'MD', '20735', 'oevans@optonline.net', '813-522-4409', '4539491527254489', '01 / 20'),</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(104, 'Ainsley', 'Spence', '184 Santa Clara Avenue', 'Clinton', 'MD', '20735', 'USA', 'oevans@optonline.net', '813-522-4409', '4539491527254489', '01 / 20'),</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" s="26" t="s">
         <v>1802</v>
       </c>
@@ -32323,23 +32645,26 @@
         <v>11417</v>
       </c>
       <c r="H106" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I106" s="13" t="s">
         <v>493</v>
       </c>
-      <c r="I106" s="13" t="s">
+      <c r="J106" s="13" t="s">
         <v>693</v>
       </c>
-      <c r="J106" s="13" t="s">
+      <c r="K106" s="13" t="s">
         <v>1447</v>
       </c>
-      <c r="K106" s="13" t="s">
+      <c r="L106" s="13" t="s">
         <v>1251</v>
       </c>
-      <c r="L106" s="14" t="str">
+      <c r="M106" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(105, 'Adam', 'Cox', '74 Shirley Rd', 'Ozone Park', 'NY', '11417', 'fwiles@live.com', '482-795-7224', '5461868642061346', '03 / 20'),</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(105, 'Adam', 'Cox', '74 Shirley Rd', 'Ozone Park', 'NY', '11417', 'USA', 'fwiles@live.com', '482-795-7224', '5461868642061346', '03 / 20'),</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" s="26" t="s">
         <v>1803</v>
       </c>
@@ -32362,23 +32687,26 @@
         <v>1005</v>
       </c>
       <c r="H107" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I107" s="13" t="s">
         <v>494</v>
       </c>
-      <c r="I107" s="13" t="s">
+      <c r="J107" s="13" t="s">
         <v>694</v>
       </c>
-      <c r="J107" s="13" t="s">
+      <c r="K107" s="13" t="s">
         <v>1313</v>
       </c>
-      <c r="K107" s="13" t="s">
+      <c r="L107" s="13" t="s">
         <v>1250</v>
       </c>
-      <c r="L107" s="14" t="str">
+      <c r="M107" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(106, 'Kayleigh', 'Hardy', '348 Ramblewood St', 'Norwalk', 'CT', '06851', 'geeber@optonline.net', '330-564-2716', '4916123701238458', '01 / 20'),</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(106, 'Kayleigh', 'Hardy', '348 Ramblewood St', 'Norwalk', 'CT', '06851', 'USA', 'geeber@optonline.net', '330-564-2716', '4916123701238458', '01 / 20'),</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" s="26" t="s">
         <v>1804</v>
       </c>
@@ -32401,23 +32729,26 @@
         <v>1007</v>
       </c>
       <c r="H108" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I108" s="13" t="s">
         <v>495</v>
       </c>
-      <c r="I108" s="13" t="s">
+      <c r="J108" s="13" t="s">
         <v>695</v>
       </c>
-      <c r="J108" s="13" t="s">
+      <c r="K108" s="13" t="s">
         <v>1325</v>
       </c>
-      <c r="K108" s="13" t="s">
+      <c r="L108" s="13" t="s">
         <v>1265</v>
       </c>
-      <c r="L108" s="14" t="str">
+      <c r="M108" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(107, 'Braden', 'Eaton', '96 Mountainview Ave', 'South Plainfield', 'NJ', '07080', 'adillon@me.com', '910-518-2569', '4024007171111148', '11 / 23'),</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(107, 'Braden', 'Eaton', '96 Mountainview Ave', 'South Plainfield', 'NJ', '07080', 'USA', 'adillon@me.com', '910-518-2569', '4024007171111148', '11 / 23'),</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" s="26" t="s">
         <v>1805</v>
       </c>
@@ -32440,23 +32771,26 @@
         <v>15601</v>
       </c>
       <c r="H109" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I109" s="13" t="s">
         <v>496</v>
       </c>
-      <c r="I109" s="13" t="s">
+      <c r="J109" s="13" t="s">
         <v>696</v>
       </c>
-      <c r="J109" s="13" t="s">
+      <c r="K109" s="13" t="s">
         <v>1310</v>
       </c>
-      <c r="K109" s="13" t="s">
+      <c r="L109" s="13" t="s">
         <v>1265</v>
       </c>
-      <c r="L109" s="14" t="str">
+      <c r="M109" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(108, 'Viviana', 'Perry', '96 Indian Summer Court', 'Greensburg', 'PA', '15601', 'agolomsh@att.net', '538-529-3270', '4024007182021559', '11 / 23'),</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(108, 'Viviana', 'Perry', '96 Indian Summer Court', 'Greensburg', 'PA', '15601', 'USA', 'agolomsh@att.net', '538-529-3270', '4024007182021559', '11 / 23'),</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" s="26" t="s">
         <v>1806</v>
       </c>
@@ -32479,23 +32813,26 @@
         <v>978</v>
       </c>
       <c r="H110" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I110" s="13" t="s">
         <v>497</v>
       </c>
-      <c r="I110" s="13" t="s">
+      <c r="J110" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="J110" s="13" t="s">
+      <c r="K110" s="13" t="s">
         <v>1425</v>
       </c>
-      <c r="K110" s="13" t="s">
+      <c r="L110" s="13" t="s">
         <v>1253</v>
       </c>
-      <c r="L110" s="14" t="str">
+      <c r="M110" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(109, 'Wendy', 'Kline', '7843 W William Ave', 'Torrington', 'CT', '06790', 'gward@live.com', '719-452-3133', '5580915250021637', '05 / 20'),</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(109, 'Wendy', 'Kline', '7843 W William Ave', 'Torrington', 'CT', '06790', 'USA', 'gward@live.com', '719-452-3133', '5580915250021637', '05 / 20'),</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" s="26" t="s">
         <v>1807</v>
       </c>
@@ -32518,23 +32855,26 @@
         <v>1004</v>
       </c>
       <c r="H111" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I111" s="13" t="s">
         <v>498</v>
       </c>
-      <c r="I111" s="13" t="s">
+      <c r="J111" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="J111" s="13" t="s">
+      <c r="K111" s="13" t="s">
         <v>1438</v>
       </c>
-      <c r="K111" s="13" t="s">
+      <c r="L111" s="13" t="s">
         <v>1265</v>
       </c>
-      <c r="L111" s="14" t="str">
+      <c r="M111" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(110, 'Keenan', 'Bradford', '853 Ohio Lane', 'Vincentown', 'NJ', '08088', 'jkegl@verizon.net', '532-224-2358', '5552949290364768', '11 / 23'),</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(110, 'Keenan', 'Bradford', '853 Ohio Lane', 'Vincentown', 'NJ', '08088', 'USA', 'jkegl@verizon.net', '532-224-2358', '5552949290364768', '11 / 23'),</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" s="26" t="s">
         <v>1808</v>
       </c>
@@ -32557,23 +32897,26 @@
         <v>10598</v>
       </c>
       <c r="H112" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I112" s="13" t="s">
         <v>499</v>
       </c>
-      <c r="I112" s="13" t="s">
+      <c r="J112" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="J112" s="13" t="s">
+      <c r="K112" s="13" t="s">
         <v>1417</v>
       </c>
-      <c r="K112" s="13" t="s">
+      <c r="L112" s="13" t="s">
         <v>1261</v>
       </c>
-      <c r="L112" s="14" t="str">
+      <c r="M112" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(111, 'Maritza', 'Mccarthy', '832 North Lake Forest Ave', 'Yorktown Heights', 'NY', '10598', 'wikinerd@optonline.net', '656-463-2920', '5446404861717531', '02 / 23'),</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(111, 'Maritza', 'Mccarthy', '832 North Lake Forest Ave', 'Yorktown Heights', 'NY', '10598', 'USA', 'wikinerd@optonline.net', '656-463-2920', '5446404861717531', '02 / 23'),</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" s="26" t="s">
         <v>1809</v>
       </c>
@@ -32596,23 +32939,26 @@
         <v>32162</v>
       </c>
       <c r="H113" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I113" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="I113" s="13" t="s">
+      <c r="J113" s="13" t="s">
         <v>700</v>
       </c>
-      <c r="J113" s="13" t="s">
+      <c r="K113" s="13" t="s">
         <v>1350</v>
       </c>
-      <c r="K113" s="13" t="s">
+      <c r="L113" s="13" t="s">
         <v>1251</v>
       </c>
-      <c r="L113" s="14" t="str">
+      <c r="M113" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(112, 'Sophie', 'Henry', '77 S Fawn Street', 'The Villages', 'FL', '32162', 'chrisj@yahoo.com', '775-581-4083', '4532022596572308', '03 / 20'),</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(112, 'Sophie', 'Henry', '77 S Fawn Street', 'The Villages', 'FL', '32162', 'USA', 'chrisj@yahoo.com', '775-581-4083', '4532022596572308', '03 / 20'),</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" s="26" t="s">
         <v>1810</v>
       </c>
@@ -32635,23 +32981,26 @@
         <v>48910</v>
       </c>
       <c r="H114" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I114" s="13" t="s">
         <v>501</v>
       </c>
-      <c r="I114" s="13" t="s">
+      <c r="J114" s="13" t="s">
         <v>701</v>
       </c>
-      <c r="J114" s="13" t="s">
+      <c r="K114" s="13" t="s">
         <v>1421</v>
       </c>
-      <c r="K114" s="13" t="s">
+      <c r="L114" s="13" t="s">
         <v>1250</v>
       </c>
-      <c r="L114" s="14" t="str">
+      <c r="M114" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(113, 'James', 'Odonnell', '424 Lookout Street', 'Lansing', 'MI', '48910', 'staikos@yahoo.ca', '307-417-3397', '5270301992784326', '01 / 20'),</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(113, 'James', 'Odonnell', '424 Lookout Street', 'Lansing', 'MI', '48910', 'USA', 'staikos@yahoo.ca', '307-417-3397', '5270301992784326', '01 / 20'),</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" s="26" t="s">
         <v>1811</v>
       </c>
@@ -32674,23 +33023,26 @@
         <v>1003</v>
       </c>
       <c r="H115" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I115" s="13" t="s">
         <v>502</v>
       </c>
-      <c r="I115" s="13" t="s">
+      <c r="J115" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="J115" s="13" t="s">
+      <c r="K115" s="13" t="s">
         <v>1318</v>
       </c>
-      <c r="K115" s="13" t="s">
+      <c r="L115" s="13" t="s">
         <v>1256</v>
       </c>
-      <c r="L115" s="14" t="str">
+      <c r="M115" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(114, 'Elisa', 'Cantrell', '82 4th Dr', 'Bayonne', 'NJ', '07002', 'stakasa@yahoo.com', '958-282-5834', '4532312529085498', '06 / 21'),</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(114, 'Elisa', 'Cantrell', '82 4th Dr', 'Bayonne', 'NJ', '07002', 'USA', 'stakasa@yahoo.com', '958-282-5834', '4532312529085498', '06 / 21'),</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" s="26" t="s">
         <v>1812</v>
       </c>
@@ -32713,23 +33065,26 @@
         <v>34231</v>
       </c>
       <c r="H116" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I116" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="I116" s="13" t="s">
+      <c r="J116" s="13" t="s">
         <v>703</v>
       </c>
-      <c r="J116" s="13" t="s">
+      <c r="K116" s="13" t="s">
         <v>1439</v>
       </c>
-      <c r="K116" s="13" t="s">
+      <c r="L116" s="13" t="s">
         <v>1264</v>
       </c>
-      <c r="L116" s="14" t="str">
+      <c r="M116" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(115, 'Braylon', 'Mendoza', '38 Jockey Hollow Street', 'Sarasota', 'FL', '34231', 'leviathan@outlook.com', '835-758-3684', '5289099222984281', '10 / 23'),</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(115, 'Braylon', 'Mendoza', '38 Jockey Hollow Street', 'Sarasota', 'FL', '34231', 'USA', 'leviathan@outlook.com', '835-758-3684', '5289099222984281', '10 / 23'),</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" s="26" t="s">
         <v>1813</v>
       </c>
@@ -32752,23 +33107,26 @@
         <v>979</v>
       </c>
       <c r="H117" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I117" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="I117" s="13" t="s">
+      <c r="J117" s="13" t="s">
         <v>704</v>
       </c>
-      <c r="J117" s="13" t="s">
+      <c r="K117" s="13" t="s">
         <v>1273</v>
       </c>
-      <c r="K117" s="13" t="s">
+      <c r="L117" s="13" t="s">
         <v>1245</v>
       </c>
-      <c r="L117" s="14" t="str">
+      <c r="M117" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(116, 'Julius', 'Bond', '8865 South Rockledge St', 'Montclair', 'NJ', '07042', 'kenja@att.net', '784-381-9622', '4532202390903962', '10 / 22'),</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(116, 'Julius', 'Bond', '8865 South Rockledge St', 'Montclair', 'NJ', '07042', 'USA', 'kenja@att.net', '784-381-9622', '4532202390903962', '10 / 22'),</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" s="26" t="s">
         <v>1814</v>
       </c>
@@ -32791,23 +33149,26 @@
         <v>29501</v>
       </c>
       <c r="H118" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I118" s="13" t="s">
         <v>505</v>
       </c>
-      <c r="I118" s="13" t="s">
+      <c r="J118" s="13" t="s">
         <v>705</v>
       </c>
-      <c r="J118" s="13" t="s">
+      <c r="K118" s="13" t="s">
         <v>1356</v>
       </c>
-      <c r="K118" s="13" t="s">
+      <c r="L118" s="13" t="s">
         <v>1254</v>
       </c>
-      <c r="L118" s="14" t="str">
+      <c r="M118" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(117, 'Christian', 'Sheppard', '199 North Bridle Lane', 'Florence', 'SC', '29501', 'hermes@mac.com', '464-226-2761', '4929437880350487', '06 / 20'),</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(117, 'Christian', 'Sheppard', '199 North Bridle Lane', 'Florence', 'SC', '29501', 'USA', 'hermes@mac.com', '464-226-2761', '4929437880350487', '06 / 20'),</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" s="26" t="s">
         <v>1815</v>
       </c>
@@ -32830,23 +33191,26 @@
         <v>11520</v>
       </c>
       <c r="H119" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I119" s="13" t="s">
         <v>506</v>
       </c>
-      <c r="I119" s="13" t="s">
+      <c r="J119" s="13" t="s">
         <v>706</v>
       </c>
-      <c r="J119" s="13" t="s">
+      <c r="K119" s="13" t="s">
         <v>1363</v>
       </c>
-      <c r="K119" s="13" t="s">
+      <c r="L119" s="13" t="s">
         <v>1257</v>
       </c>
-      <c r="L119" s="14" t="str">
+      <c r="M119" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(118, 'Leon', 'Rose', '18 Williams St', 'Freeport', 'NY', '11520', 'vmalik@me.com', '629-614-3230', '4532831107214626', '07 / 21'),</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(118, 'Leon', 'Rose', '18 Williams St', 'Freeport', 'NY', '11520', 'USA', 'vmalik@me.com', '629-614-3230', '4532831107214626', '07 / 21'),</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" s="26" t="s">
         <v>1816</v>
       </c>
@@ -32869,23 +33233,26 @@
         <v>1015</v>
       </c>
       <c r="H120" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I120" s="13" t="s">
         <v>507</v>
       </c>
-      <c r="I120" s="13" t="s">
+      <c r="J120" s="13" t="s">
         <v>707</v>
       </c>
-      <c r="J120" s="13" t="s">
+      <c r="K120" s="13" t="s">
         <v>1309</v>
       </c>
-      <c r="K120" s="13" t="s">
+      <c r="L120" s="13" t="s">
         <v>1246</v>
       </c>
-      <c r="L120" s="14" t="str">
+      <c r="M120" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(119, 'Julio', 'Pollard', '7162 Clay Lane', 'Newark', 'NJ', '07103', 'hutton@att.net', '319-483-3927', '4556897240877406', '12 / 22'),</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(119, 'Julio', 'Pollard', '7162 Clay Lane', 'Newark', 'NJ', '07103', 'USA', 'hutton@att.net', '319-483-3927', '4556897240877406', '12 / 22'),</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" s="26" t="s">
         <v>1817</v>
       </c>
@@ -32908,23 +33275,26 @@
         <v>44136</v>
       </c>
       <c r="H121" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I121" s="13" t="s">
         <v>508</v>
       </c>
-      <c r="I121" s="13" t="s">
+      <c r="J121" s="13" t="s">
         <v>708</v>
       </c>
-      <c r="J121" s="13" t="s">
+      <c r="K121" s="13" t="s">
         <v>1329</v>
       </c>
-      <c r="K121" s="13" t="s">
+      <c r="L121" s="13" t="s">
         <v>1249</v>
       </c>
-      <c r="L121" s="14" t="str">
+      <c r="M121" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(120, 'Parker', 'Church', '232 Bradford Road', 'Strongsville', 'OH', '44136', 'lauronen@sbcglobal.net', '491-884-5142', '4485140093353969', '05 / 22'),</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(120, 'Parker', 'Church', '232 Bradford Road', 'Strongsville', 'OH', '44136', 'USA', 'lauronen@sbcglobal.net', '491-884-5142', '4485140093353969', '05 / 22'),</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" s="26" t="s">
         <v>1818</v>
       </c>
@@ -32947,23 +33317,26 @@
         <v>60056</v>
       </c>
       <c r="H122" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I122" s="13" t="s">
         <v>509</v>
       </c>
-      <c r="I122" s="13" t="s">
+      <c r="J122" s="13" t="s">
         <v>709</v>
       </c>
-      <c r="J122" s="13" t="s">
+      <c r="K122" s="13" t="s">
         <v>1412</v>
       </c>
-      <c r="K122" s="13" t="s">
+      <c r="L122" s="13" t="s">
         <v>1256</v>
       </c>
-      <c r="L122" s="14" t="str">
+      <c r="M122" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(121, 'Julia', 'Ballard', '23 Branch St', 'Mount Prospect', 'IL', '60056', 'keiji@yahoo.com', '814-207-0175', '5411594498309396', '06 / 21'),</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(121, 'Julia', 'Ballard', '23 Branch St', 'Mount Prospect', 'IL', '60056', 'USA', 'keiji@yahoo.com', '814-207-0175', '5411594498309396', '06 / 21'),</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" s="26" t="s">
         <v>1819</v>
       </c>
@@ -32986,23 +33359,26 @@
         <v>48076</v>
       </c>
       <c r="H123" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I123" s="13" t="s">
         <v>510</v>
       </c>
-      <c r="I123" s="13" t="s">
+      <c r="J123" s="13" t="s">
         <v>710</v>
       </c>
-      <c r="J123" s="13" t="s">
+      <c r="K123" s="13" t="s">
         <v>1327</v>
       </c>
-      <c r="K123" s="13" t="s">
+      <c r="L123" s="13" t="s">
         <v>1265</v>
       </c>
-      <c r="L123" s="14" t="str">
+      <c r="M123" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(122, 'Molly', 'Waller', '177 Richardson Dr', 'Southfield', 'MI', '48076', 'satch@live.com', '739-965-6824', '4929867978588939', '11 / 23'),</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(122, 'Molly', 'Waller', '177 Richardson Dr', 'Southfield', 'MI', '48076', 'USA', 'satch@live.com', '739-965-6824', '4929867978588939', '11 / 23'),</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" s="26" t="s">
         <v>1820</v>
       </c>
@@ -33025,23 +33401,26 @@
         <v>980</v>
       </c>
       <c r="H124" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I124" s="13" t="s">
         <v>511</v>
       </c>
-      <c r="I124" s="13" t="s">
+      <c r="J124" s="13" t="s">
         <v>711</v>
       </c>
-      <c r="J124" s="13" t="s">
+      <c r="K124" s="13" t="s">
         <v>1454</v>
       </c>
-      <c r="K124" s="13" t="s">
+      <c r="L124" s="13" t="s">
         <v>1250</v>
       </c>
-      <c r="L124" s="14" t="str">
+      <c r="M124" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(123, 'Natasha', 'Small', '8175 Miller Street', 'New Britain', 'CT', '06051', 'liedra@live.com', '794-461-9929', '5132287304024048', '01 / 20'),</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(123, 'Natasha', 'Small', '8175 Miller Street', 'New Britain', 'CT', '06051', 'USA', 'liedra@live.com', '794-461-9929', '5132287304024048', '01 / 20'),</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" s="26" t="s">
         <v>1821</v>
       </c>
@@ -33064,23 +33443,26 @@
         <v>50010</v>
       </c>
       <c r="H125" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I125" s="13" t="s">
         <v>512</v>
       </c>
-      <c r="I125" s="13" t="s">
+      <c r="J125" s="13" t="s">
         <v>712</v>
       </c>
-      <c r="J125" s="13" t="s">
+      <c r="K125" s="13" t="s">
         <v>1291</v>
       </c>
-      <c r="K125" s="13" t="s">
+      <c r="L125" s="13" t="s">
         <v>1260</v>
       </c>
-      <c r="L125" s="14" t="str">
+      <c r="M125" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(124, 'Fisher', 'Kline', '7778 Mayflower St', 'Ames', 'IA', '50010', 'donev@optonline.net', '598-929-3796', '4024007149208059', '08 / 22'),</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(124, 'Fisher', 'Kline', '7778 Mayflower St', 'Ames', 'IA', '50010', 'USA', 'donev@optonline.net', '598-929-3796', '4024007149208059', '08 / 22'),</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" s="26" t="s">
         <v>1822</v>
       </c>
@@ -33103,23 +33485,26 @@
         <v>55104</v>
       </c>
       <c r="H126" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I126" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="I126" s="13" t="s">
+      <c r="J126" s="13" t="s">
         <v>713</v>
       </c>
-      <c r="J126" s="13" t="s">
+      <c r="K126" s="13" t="s">
         <v>1332</v>
       </c>
-      <c r="K126" s="13" t="s">
+      <c r="L126" s="13" t="s">
         <v>1265</v>
       </c>
-      <c r="L126" s="14" t="str">
+      <c r="M126" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(125, 'Maggie', 'Mccarthy', '322 Manchester Street', 'Saint Paul', 'MN', '55104', 'fudrucker@yahoo.ca', '796-719-6501', '4556444115174047', '11 / 23'),</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(125, 'Maggie', 'Mccarthy', '322 Manchester Street', 'Saint Paul', 'MN', '55104', 'USA', 'fudrucker@yahoo.ca', '796-719-6501', '4556444115174047', '11 / 23'),</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" s="26" t="s">
         <v>1823</v>
       </c>
@@ -33142,23 +33527,26 @@
         <v>45040</v>
       </c>
       <c r="H127" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I127" s="13" t="s">
         <v>514</v>
       </c>
-      <c r="I127" s="13" t="s">
+      <c r="J127" s="13" t="s">
         <v>714</v>
       </c>
-      <c r="J127" s="13" t="s">
+      <c r="K127" s="13" t="s">
         <v>1358</v>
       </c>
-      <c r="K127" s="13" t="s">
+      <c r="L127" s="13" t="s">
         <v>1256</v>
       </c>
-      <c r="L127" s="14" t="str">
+      <c r="M127" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(126, 'Justus', 'Clayton', '7357 South Poplar St', 'Mason', 'OH', '45040', 'msroth@hotmail.com', '701-735-1336', '4916829707958895', '06 / 21'),</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(126, 'Justus', 'Clayton', '7357 South Poplar St', 'Mason', 'OH', '45040', 'USA', 'msroth@hotmail.com', '701-735-1336', '4916829707958895', '06 / 21'),</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" s="26" t="s">
         <v>1824</v>
       </c>
@@ -33181,23 +33569,26 @@
         <v>11364</v>
       </c>
       <c r="H128" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I128" s="13" t="s">
         <v>515</v>
       </c>
-      <c r="I128" s="13" t="s">
+      <c r="J128" s="13" t="s">
         <v>715</v>
       </c>
-      <c r="J128" s="13" t="s">
+      <c r="K128" s="13" t="s">
         <v>1304</v>
       </c>
-      <c r="K128" s="13" t="s">
+      <c r="L128" s="13" t="s">
         <v>1257</v>
       </c>
-      <c r="L128" s="14" t="str">
+      <c r="M128" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(127, 'Sammy', 'King', '457 Magnolia Ave', 'Oakland Gardens', 'NY', '11364', 'dalamb@live.com', '238-389-3800', '4532492770040655', '07 / 21'),</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(127, 'Sammy', 'King', '457 Magnolia Ave', 'Oakland Gardens', 'NY', '11364', 'USA', 'dalamb@live.com', '238-389-3800', '4532492770040655', '07 / 21'),</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" s="26" t="s">
         <v>1825</v>
       </c>
@@ -33220,23 +33611,26 @@
         <v>31601</v>
       </c>
       <c r="H129" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I129" s="13" t="s">
         <v>516</v>
       </c>
-      <c r="I129" s="13" t="s">
+      <c r="J129" s="13" t="s">
         <v>716</v>
       </c>
-      <c r="J129" s="13" t="s">
+      <c r="K129" s="13" t="s">
         <v>1377</v>
       </c>
-      <c r="K129" s="13" t="s">
+      <c r="L129" s="13" t="s">
         <v>1252</v>
       </c>
-      <c r="L129" s="14" t="str">
+      <c r="M129" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>(128, 'Zayne', 'Robles', '406 South Elmwood St', 'Valdosta', 'GA', '31601', 'gozer@hotmail.com', '401-673-6733', '5321145993366180', '04 / 20'),</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(128, 'Zayne', 'Robles', '406 South Elmwood St', 'Valdosta', 'GA', '31601', 'USA', 'gozer@hotmail.com', '401-673-6733', '5321145993366180', '04 / 20'),</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" s="26" t="s">
         <v>1826</v>
       </c>
@@ -33259,23 +33653,26 @@
         <v>981</v>
       </c>
       <c r="H130" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I130" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="I130" s="13" t="s">
+      <c r="J130" s="13" t="s">
         <v>717</v>
       </c>
-      <c r="J130" s="13" t="s">
+      <c r="K130" s="13" t="s">
         <v>1441</v>
       </c>
-      <c r="K130" s="13" t="s">
+      <c r="L130" s="13" t="s">
         <v>1263</v>
       </c>
-      <c r="L130" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>(129, 'Alfonso', 'Christensen', '578 Joy Ridge Road', 'Jamaica Plain', 'MA', '02130', 'burns@comcast.net', '705-239-6647', '5122911294694898', '07 / 23'),</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M130" s="14" t="str">
+        <f t="shared" ref="M130:M193" si="2">"("&amp;A130&amp;", '"&amp;B130&amp;"', '"&amp;C130&amp;"', '"&amp;D130&amp;"', '"&amp;E130&amp;"', '"&amp;F130&amp;"', '"&amp;G130&amp;"', '"&amp;H130&amp;"', '"&amp;I130&amp;"', '"&amp;J130&amp;"', '"&amp;K130&amp;"', '"&amp;L130&amp;"'),"</f>
+        <v>(129, 'Alfonso', 'Christensen', '578 Joy Ridge Road', 'Jamaica Plain', 'MA', '02130', 'USA', 'burns@comcast.net', '705-239-6647', '5122911294694898', '07 / 23'),</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" s="26" t="s">
         <v>1827</v>
       </c>
@@ -33298,23 +33695,26 @@
         <v>98144</v>
       </c>
       <c r="H131" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I131" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="I131" s="13" t="s">
+      <c r="J131" s="13" t="s">
         <v>718</v>
       </c>
-      <c r="J131" s="13" t="s">
+      <c r="K131" s="13" t="s">
         <v>1379</v>
       </c>
-      <c r="K131" s="13" t="s">
+      <c r="L131" s="13" t="s">
         <v>1259</v>
       </c>
-      <c r="L131" s="14" t="str">
-        <f t="shared" ref="L131:L194" si="2">"("&amp;A131&amp;", '"&amp;B131&amp;"', '"&amp;C131&amp;"', '"&amp;D131&amp;"', '"&amp;E131&amp;"', '"&amp;F131&amp;"', '"&amp;G131&amp;"', '"&amp;H131&amp;"', '"&amp;I131&amp;"', '"&amp;J131&amp;"', '"&amp;K131&amp;"'),"</f>
-        <v>(130, 'Prince', 'Rivas', '542 Goldfield Drive', 'Seattle', 'WA', '98144', 'singh@optonline.net', '662-547-7098', '5324038470601087', '03 / 22'),</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M131" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>(130, 'Prince', 'Rivas', '542 Goldfield Drive', 'Seattle', 'WA', '98144', 'USA', 'singh@optonline.net', '662-547-7098', '5324038470601087', '03 / 22'),</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" s="26" t="s">
         <v>1828</v>
       </c>
@@ -33337,23 +33737,26 @@
         <v>54880</v>
       </c>
       <c r="H132" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I132" s="13" t="s">
         <v>519</v>
       </c>
-      <c r="I132" s="13" t="s">
+      <c r="J132" s="13" t="s">
         <v>719</v>
       </c>
-      <c r="J132" s="13" t="s">
+      <c r="K132" s="13" t="s">
         <v>1390</v>
       </c>
-      <c r="K132" s="13" t="s">
+      <c r="L132" s="13" t="s">
         <v>1257</v>
       </c>
-      <c r="L132" s="14" t="str">
+      <c r="M132" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(131, 'Reginald', 'Humphrey', '851 Corona St', 'Superior', 'WI', '54880', 'kmiller@icloud.com', '950-654-8629', '5487218902697209', '07 / 21'),</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(131, 'Reginald', 'Humphrey', '851 Corona St', 'Superior', 'WI', '54880', 'USA', 'kmiller@icloud.com', '950-654-8629', '5487218902697209', '07 / 21'),</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" s="26" t="s">
         <v>1829</v>
       </c>
@@ -33376,23 +33779,26 @@
         <v>17701</v>
       </c>
       <c r="H133" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I133" s="13" t="s">
         <v>520</v>
       </c>
-      <c r="I133" s="13" t="s">
+      <c r="J133" s="13" t="s">
         <v>720</v>
       </c>
-      <c r="J133" s="13" t="s">
+      <c r="K133" s="13" t="s">
         <v>1457</v>
       </c>
-      <c r="K133" s="13" t="s">
+      <c r="L133" s="13" t="s">
         <v>1250</v>
       </c>
-      <c r="L133" s="14" t="str">
+      <c r="M133" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(132, 'Elyse', 'Williamson', '88 Fawn Court', 'Williamsport', 'PA', '17701', 'goresky@me.com', '908-298-7526', '5590549041546780', '01 / 20'),</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(132, 'Elyse', 'Williamson', '88 Fawn Court', 'Williamsport', 'PA', '17701', 'USA', 'goresky@me.com', '908-298-7526', '5590549041546780', '01 / 20'),</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" s="26" t="s">
         <v>1830</v>
       </c>
@@ -33415,23 +33821,26 @@
         <v>60402</v>
       </c>
       <c r="H134" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I134" s="13" t="s">
         <v>521</v>
       </c>
-      <c r="I134" s="13" t="s">
+      <c r="J134" s="13" t="s">
         <v>721</v>
       </c>
-      <c r="J134" s="13" t="s">
+      <c r="K134" s="13" t="s">
         <v>1334</v>
       </c>
-      <c r="K134" s="13" t="s">
+      <c r="L134" s="13" t="s">
         <v>1261</v>
       </c>
-      <c r="L134" s="14" t="str">
+      <c r="M134" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(133, 'George', 'Joyce', '7940 Rockville Drive', 'Berwyn', 'IL', '60402', 'fglock@comcast.net', '483-910-7929', '4916759699234825', '02 / 23'),</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(133, 'George', 'Joyce', '7940 Rockville Drive', 'Berwyn', 'IL', '60402', 'USA', 'fglock@comcast.net', '483-910-7929', '4916759699234825', '02 / 23'),</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" s="26" t="s">
         <v>1831</v>
       </c>
@@ -33454,23 +33863,26 @@
         <v>1016</v>
       </c>
       <c r="H135" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I135" s="13" t="s">
         <v>522</v>
       </c>
-      <c r="I135" s="13" t="s">
+      <c r="J135" s="13" t="s">
         <v>722</v>
       </c>
-      <c r="J135" s="13" t="s">
+      <c r="K135" s="13" t="s">
         <v>1345</v>
       </c>
-      <c r="K135" s="13" t="s">
+      <c r="L135" s="13" t="s">
         <v>1265</v>
       </c>
-      <c r="L135" s="14" t="str">
+      <c r="M135" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(134, 'Gauge', 'Daugherty', '79 Bridle Street', 'Linden', 'NJ', '07036', 'skoch@mac.com', '828-228-5616', '4916506626954516', '11 / 23'),</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(134, 'Gauge', 'Daugherty', '79 Bridle Street', 'Linden', 'NJ', '07036', 'USA', 'skoch@mac.com', '828-228-5616', '4916506626954516', '11 / 23'),</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" s="26" t="s">
         <v>1832</v>
       </c>
@@ -33493,23 +33905,26 @@
         <v>23320</v>
       </c>
       <c r="H136" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I136" s="13" t="s">
         <v>523</v>
       </c>
-      <c r="I136" s="13" t="s">
+      <c r="J136" s="13" t="s">
         <v>723</v>
       </c>
-      <c r="J136" s="13" t="s">
+      <c r="K136" s="13" t="s">
         <v>1413</v>
       </c>
-      <c r="K136" s="13" t="s">
+      <c r="L136" s="13" t="s">
         <v>1251</v>
       </c>
-      <c r="L136" s="14" t="str">
+      <c r="M136" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(135, 'Oliver', 'Berg', '7 Coffee Drive', 'Chesapeake', 'VA', '23320', 'fwitness@gmail.com', '638-986-9853', '5339594494440822', '03 / 20'),</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(135, 'Oliver', 'Berg', '7 Coffee Drive', 'Chesapeake', 'VA', '23320', 'USA', 'fwitness@gmail.com', '638-986-9853', '5339594494440822', '03 / 20'),</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" s="26" t="s">
         <v>1833</v>
       </c>
@@ -33532,23 +33947,26 @@
         <v>53562</v>
       </c>
       <c r="H137" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I137" s="13" t="s">
         <v>524</v>
       </c>
-      <c r="I137" s="13" t="s">
+      <c r="J137" s="13" t="s">
         <v>724</v>
       </c>
-      <c r="J137" s="13" t="s">
+      <c r="K137" s="13" t="s">
         <v>1274</v>
       </c>
-      <c r="K137" s="13" t="s">
+      <c r="L137" s="13" t="s">
         <v>1258</v>
       </c>
-      <c r="L137" s="14" t="str">
+      <c r="M137" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(136, 'Kian', 'Shields', '8225 Arnold Lane', 'Middleton', 'WI', '53562', 'pakaste@live.com', '463-600-4566', '4086582763485949', '10 / 21'),</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(136, 'Kian', 'Shields', '8225 Arnold Lane', 'Middleton', 'WI', '53562', 'USA', 'pakaste@live.com', '463-600-4566', '4086582763485949', '10 / 21'),</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" s="26" t="s">
         <v>1834</v>
       </c>
@@ -33571,23 +33989,26 @@
         <v>44122</v>
       </c>
       <c r="H138" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I138" s="13" t="s">
         <v>525</v>
       </c>
-      <c r="I138" s="13" t="s">
+      <c r="J138" s="13" t="s">
         <v>725</v>
       </c>
-      <c r="J138" s="13" t="s">
+      <c r="K138" s="13" t="s">
         <v>1289</v>
       </c>
-      <c r="K138" s="13" t="s">
+      <c r="L138" s="13" t="s">
         <v>1257</v>
       </c>
-      <c r="L138" s="14" t="str">
+      <c r="M138" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(137, 'Alisson', 'Hutchinson', '740 N Princess Ave', 'Beachwood', 'OH', '44122', 'mhassel@verizon.net', '406-822-2849', '4485747603476948', '07 / 21'),</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(137, 'Alisson', 'Hutchinson', '740 N Princess Ave', 'Beachwood', 'OH', '44122', 'USA', 'mhassel@verizon.net', '406-822-2849', '4485747603476948', '07 / 21'),</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" s="26" t="s">
         <v>1835</v>
       </c>
@@ -33610,23 +34031,26 @@
         <v>92831</v>
       </c>
       <c r="H139" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I139" s="13" t="s">
         <v>526</v>
       </c>
-      <c r="I139" s="13" t="s">
+      <c r="J139" s="13" t="s">
         <v>726</v>
       </c>
-      <c r="J139" s="13" t="s">
+      <c r="K139" s="13" t="s">
         <v>1337</v>
       </c>
-      <c r="K139" s="13" t="s">
+      <c r="L139" s="13" t="s">
         <v>1252</v>
       </c>
-      <c r="L139" s="14" t="str">
+      <c r="M139" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(138, 'Lilly', 'Conway', '82 Green Hill Ave', 'Fullerton', 'CA', '92831', 'tmaek@comcast.net', '367-340-5495', '4556916647409504', '04 / 20'),</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(138, 'Lilly', 'Conway', '82 Green Hill Ave', 'Fullerton', 'CA', '92831', 'USA', 'tmaek@comcast.net', '367-340-5495', '4556916647409504', '04 / 20'),</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" s="26" t="s">
         <v>1836</v>
       </c>
@@ -33649,23 +34073,26 @@
         <v>21220</v>
       </c>
       <c r="H140" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I140" s="13" t="s">
         <v>527</v>
       </c>
-      <c r="I140" s="13" t="s">
+      <c r="J140" s="13" t="s">
         <v>727</v>
       </c>
-      <c r="J140" s="13" t="s">
+      <c r="K140" s="13" t="s">
         <v>1368</v>
       </c>
-      <c r="K140" s="13" t="s">
+      <c r="L140" s="13" t="s">
         <v>1264</v>
       </c>
-      <c r="L140" s="14" t="str">
+      <c r="M140" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(139, 'Marina', 'Hutchinson', '7727 Brewery St', 'Middle River', 'MD', '21220', 'sokol@yahoo.ca', '522-273-0035', '5540775069609355', '10 / 23'),</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(139, 'Marina', 'Hutchinson', '7727 Brewery St', 'Middle River', 'MD', '21220', 'USA', 'sokol@yahoo.ca', '522-273-0035', '5540775069609355', '10 / 23'),</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" s="26" t="s">
         <v>1837</v>
       </c>
@@ -33688,23 +34115,26 @@
         <v>18201</v>
       </c>
       <c r="H141" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I141" s="13" t="s">
         <v>528</v>
       </c>
-      <c r="I141" s="13" t="s">
+      <c r="J141" s="13" t="s">
         <v>728</v>
       </c>
-      <c r="J141" s="13" t="s">
+      <c r="K141" s="13" t="s">
         <v>1382</v>
       </c>
-      <c r="K141" s="13" t="s">
+      <c r="L141" s="13" t="s">
         <v>1262</v>
       </c>
-      <c r="L141" s="14" t="str">
+      <c r="M141" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(140, 'Joe', 'Farrell', '12 Illinois Street', 'Hazleton', 'PA', '18201', 'ganter@comcast.net', '624-574-4780', '5583668987093851', '05 / 23'),</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(140, 'Joe', 'Farrell', '12 Illinois Street', 'Hazleton', 'PA', '18201', 'USA', 'ganter@comcast.net', '624-574-4780', '5583668987093851', '05 / 23'),</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" s="26" t="s">
         <v>1838</v>
       </c>
@@ -33727,23 +34157,26 @@
         <v>1017</v>
       </c>
       <c r="H142" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I142" s="13" t="s">
         <v>529</v>
       </c>
-      <c r="I142" s="13" t="s">
+      <c r="J142" s="13" t="s">
         <v>729</v>
       </c>
-      <c r="J142" s="13" t="s">
+      <c r="K142" s="13" t="s">
         <v>1307</v>
       </c>
-      <c r="K142" s="13" t="s">
+      <c r="L142" s="13" t="s">
         <v>1249</v>
       </c>
-      <c r="L142" s="14" t="str">
+      <c r="M142" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(141, 'Adyson', 'Chandler', '7483 Young Rd Suite 50', 'North Andover', 'MA', '01845', 'seebs@sbcglobal.net', '759-767-7507', '4024007105301104', '05 / 22'),</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(141, 'Adyson', 'Chandler', '7483 Young Rd Suite 50', 'North Andover', 'MA', '01845', 'USA', 'seebs@sbcglobal.net', '759-767-7507', '4024007105301104', '05 / 22'),</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" s="26" t="s">
         <v>1839</v>
       </c>
@@ -33766,23 +34199,26 @@
         <v>34491</v>
       </c>
       <c r="H143" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I143" s="13" t="s">
         <v>530</v>
       </c>
-      <c r="I143" s="13" t="s">
+      <c r="J143" s="13" t="s">
         <v>730</v>
       </c>
-      <c r="J143" s="13" t="s">
+      <c r="K143" s="13" t="s">
         <v>1372</v>
       </c>
-      <c r="K143" s="13" t="s">
+      <c r="L143" s="13" t="s">
         <v>1254</v>
       </c>
-      <c r="L143" s="14" t="str">
+      <c r="M143" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(142, 'Hana', 'Waller', '378 Glenlake Lane', 'Summerfield', 'FL', '34491', 'rgiersig@aol.com', '479-802-2162', '5598093084233719', '06 / 20'),</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(142, 'Hana', 'Waller', '378 Glenlake Lane', 'Summerfield', 'FL', '34491', 'USA', 'rgiersig@aol.com', '479-802-2162', '5598093084233719', '06 / 20'),</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" s="26" t="s">
         <v>1840</v>
       </c>
@@ -33805,23 +34241,26 @@
         <v>80241</v>
       </c>
       <c r="H144" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I144" s="13" t="s">
         <v>531</v>
       </c>
-      <c r="I144" s="13" t="s">
+      <c r="J144" s="13" t="s">
         <v>731</v>
       </c>
-      <c r="J144" s="13" t="s">
+      <c r="K144" s="13" t="s">
         <v>1428</v>
       </c>
-      <c r="K144" s="13" t="s">
+      <c r="L144" s="13" t="s">
         <v>1246</v>
       </c>
-      <c r="L144" s="14" t="str">
+      <c r="M144" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(143, 'John', 'Medina', '135 Harrison Ave', 'Thornton', 'CO', '80241', 'mgemmons@live.com', '338-591-0502', '5324278188153654', '12 / 22'),</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(143, 'John', 'Medina', '135 Harrison Ave', 'Thornton', 'CO', '80241', 'USA', 'mgemmons@live.com', '338-591-0502', '5324278188153654', '12 / 22'),</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" s="26" t="s">
         <v>1841</v>
       </c>
@@ -33844,23 +34283,26 @@
         <v>20705</v>
       </c>
       <c r="H145" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I145" s="13" t="s">
         <v>532</v>
       </c>
-      <c r="I145" s="13" t="s">
+      <c r="J145" s="13" t="s">
         <v>732</v>
       </c>
-      <c r="J145" s="13" t="s">
+      <c r="K145" s="13" t="s">
         <v>1465</v>
       </c>
-      <c r="K145" s="13" t="s">
+      <c r="L145" s="13" t="s">
         <v>1245</v>
       </c>
-      <c r="L145" s="14" t="str">
+      <c r="M145" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(144, 'Charity', 'Carr', '77 Roehampton Dr', 'Beltsville', 'MD', '20705', 'benits@me.com', '522-432-0614', '5264888498491560', '10 / 22'),</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(144, 'Charity', 'Carr', '77 Roehampton Dr', 'Beltsville', 'MD', '20705', 'USA', 'benits@me.com', '522-432-0614', '5264888498491560', '10 / 22'),</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" s="26" t="s">
         <v>1842</v>
       </c>
@@ -33883,23 +34325,26 @@
         <v>60047</v>
       </c>
       <c r="H146" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I146" s="13" t="s">
         <v>533</v>
       </c>
-      <c r="I146" s="13" t="s">
+      <c r="J146" s="13" t="s">
         <v>733</v>
       </c>
-      <c r="J146" s="13" t="s">
+      <c r="K146" s="13" t="s">
         <v>1460</v>
       </c>
-      <c r="K146" s="13" t="s">
+      <c r="L146" s="13" t="s">
         <v>1250</v>
       </c>
-      <c r="L146" s="14" t="str">
+      <c r="M146" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(145, 'Paisley', 'Long', '7 County St', 'Lake Zurich', 'IL', '60047', 'hllam@yahoo.com', '903-951-2837', '5553695117116803', '01 / 20'),</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(145, 'Paisley', 'Long', '7 County St', 'Lake Zurich', 'IL', '60047', 'USA', 'hllam@yahoo.com', '903-951-2837', '5553695117116803', '01 / 20'),</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" s="26" t="s">
         <v>1843</v>
       </c>
@@ -33922,23 +34367,26 @@
         <v>39532</v>
       </c>
       <c r="H147" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I147" s="13" t="s">
         <v>534</v>
       </c>
-      <c r="I147" s="13" t="s">
+      <c r="J147" s="13" t="s">
         <v>734</v>
       </c>
-      <c r="J147" s="13" t="s">
+      <c r="K147" s="13" t="s">
         <v>1298</v>
       </c>
-      <c r="K147" s="13" t="s">
+      <c r="L147" s="13" t="s">
         <v>1245</v>
       </c>
-      <c r="L147" s="14" t="str">
+      <c r="M147" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(146, 'Justice', 'Levine', '53 Arlington Street', 'Biloxi', 'MS', '39532', 'emmanuel@att.net', '610-962-2072', '4539209693371675', '10 / 22'),</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(146, 'Justice', 'Levine', '53 Arlington Street', 'Biloxi', 'MS', '39532', 'USA', 'emmanuel@att.net', '610-962-2072', '4539209693371675', '10 / 22'),</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" s="26" t="s">
         <v>1844</v>
       </c>
@@ -33961,23 +34409,26 @@
         <v>38106</v>
       </c>
       <c r="H148" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I148" s="13" t="s">
         <v>535</v>
       </c>
-      <c r="I148" s="13" t="s">
+      <c r="J148" s="13" t="s">
         <v>735</v>
       </c>
-      <c r="J148" s="13" t="s">
+      <c r="K148" s="13" t="s">
         <v>1459</v>
       </c>
-      <c r="K148" s="13" t="s">
+      <c r="L148" s="13" t="s">
         <v>1250</v>
       </c>
-      <c r="L148" s="14" t="str">
+      <c r="M148" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(147, 'Bentley', 'Dougherty', '631 Clark Ave', 'Memphis', 'TN', '38106', 'sriha@optonline.net', '801-800-1435', '5163514789002526', '01 / 20'),</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(147, 'Bentley', 'Dougherty', '631 Clark Ave', 'Memphis', 'TN', '38106', 'USA', 'sriha@optonline.net', '801-800-1435', '5163514789002526', '01 / 20'),</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" s="26" t="s">
         <v>1845</v>
       </c>
@@ -34000,23 +34451,26 @@
         <v>982</v>
       </c>
       <c r="H149" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I149" s="13" t="s">
         <v>536</v>
       </c>
-      <c r="I149" s="13" t="s">
+      <c r="J149" s="13" t="s">
         <v>736</v>
       </c>
-      <c r="J149" s="13" t="s">
+      <c r="K149" s="13" t="s">
         <v>1341</v>
       </c>
-      <c r="K149" s="13" t="s">
+      <c r="L149" s="13" t="s">
         <v>1250</v>
       </c>
-      <c r="L149" s="14" t="str">
+      <c r="M149" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(148, 'Annabelle', 'Potts', '1 Old Lawrence St', 'Stratford', 'CT', '06614', 'euice@aol.com', '442-645-7330', '4532995401159280', '01 / 20'),</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(148, 'Annabelle', 'Potts', '1 Old Lawrence St', 'Stratford', 'CT', '06614', 'USA', 'euice@aol.com', '442-645-7330', '4532995401159280', '01 / 20'),</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" s="26" t="s">
         <v>1846</v>
       </c>
@@ -34039,23 +34493,26 @@
         <v>30038</v>
       </c>
       <c r="H150" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I150" s="13" t="s">
         <v>537</v>
       </c>
-      <c r="I150" s="13" t="s">
+      <c r="J150" s="13" t="s">
         <v>737</v>
       </c>
-      <c r="J150" s="13" t="s">
+      <c r="K150" s="13" t="s">
         <v>1383</v>
       </c>
-      <c r="K150" s="13" t="s">
+      <c r="L150" s="13" t="s">
         <v>1254</v>
       </c>
-      <c r="L150" s="14" t="str">
+      <c r="M150" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(149, 'Clark', 'Faulkner', '7374 Livingston St', 'Lithonia', 'GA', '30038', 'camenisch@optonline.net', '846-492-4708', '5331207621857366', '06 / 20'),</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(149, 'Clark', 'Faulkner', '7374 Livingston St', 'Lithonia', 'GA', '30038', 'USA', 'camenisch@optonline.net', '846-492-4708', '5331207621857366', '06 / 20'),</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" s="26" t="s">
         <v>1847</v>
       </c>
@@ -34078,23 +34535,26 @@
         <v>11374</v>
       </c>
       <c r="H151" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I151" s="13" t="s">
         <v>538</v>
       </c>
-      <c r="I151" s="13" t="s">
+      <c r="J151" s="13" t="s">
         <v>738</v>
       </c>
-      <c r="J151" s="13" t="s">
+      <c r="K151" s="13" t="s">
         <v>1401</v>
       </c>
-      <c r="K151" s="13" t="s">
+      <c r="L151" s="13" t="s">
         <v>1251</v>
       </c>
-      <c r="L151" s="14" t="str">
+      <c r="M151" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(150, 'Ronald', 'Clements', '779 Pine St', 'Rego Park', 'NY', '11374', 'mnemonic@msn.com', '930-960-5638', '5585181163195225', '03 / 20'),</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(150, 'Ronald', 'Clements', '779 Pine St', 'Rego Park', 'NY', '11374', 'USA', 'mnemonic@msn.com', '930-960-5638', '5585181163195225', '03 / 20'),</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" s="26" t="s">
         <v>1848</v>
       </c>
@@ -34117,23 +34577,26 @@
         <v>983</v>
       </c>
       <c r="H152" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I152" s="13" t="s">
         <v>539</v>
       </c>
-      <c r="I152" s="13" t="s">
+      <c r="J152" s="13" t="s">
         <v>739</v>
       </c>
-      <c r="J152" s="13" t="s">
+      <c r="K152" s="13" t="s">
         <v>1389</v>
       </c>
-      <c r="K152" s="13" t="s">
+      <c r="L152" s="13" t="s">
         <v>1246</v>
       </c>
-      <c r="L152" s="14" t="str">
+      <c r="M152" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(151, 'Madilyn', 'Fischer', '308 Saxton Drive', 'Point Pleasant Beach', 'NJ', '08742', 'mfburgo@comcast.net', '344-207-0486', '5174863840490619', '12 / 22'),</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(151, 'Madilyn', 'Fischer', '308 Saxton Drive', 'Point Pleasant Beach', 'NJ', '08742', 'USA', 'mfburgo@comcast.net', '344-207-0486', '5174863840490619', '12 / 22'),</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" s="26" t="s">
         <v>1849</v>
       </c>
@@ -34156,23 +34619,26 @@
         <v>33904</v>
       </c>
       <c r="H153" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I153" s="13" t="s">
         <v>540</v>
       </c>
-      <c r="I153" s="13" t="s">
+      <c r="J153" s="13" t="s">
         <v>740</v>
       </c>
-      <c r="J153" s="13" t="s">
+      <c r="K153" s="13" t="s">
         <v>1269</v>
       </c>
-      <c r="K153" s="13" t="s">
+      <c r="L153" s="13" t="s">
         <v>1265</v>
       </c>
-      <c r="L153" s="14" t="str">
+      <c r="M153" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(152, 'Ayaan', 'Wilkerson', '166 Woodside Ave', 'Cape Coral', 'FL', '33904', 'willg@gmail.com', '629-689-5102', '4758229444757406', '11 / 23'),</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(152, 'Ayaan', 'Wilkerson', '166 Woodside Ave', 'Cape Coral', 'FL', '33904', 'USA', 'willg@gmail.com', '629-689-5102', '4758229444757406', '11 / 23'),</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" s="26" t="s">
         <v>1850</v>
       </c>
@@ -34195,23 +34661,26 @@
         <v>73112</v>
       </c>
       <c r="H154" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I154" s="13" t="s">
         <v>541</v>
       </c>
-      <c r="I154" s="13" t="s">
+      <c r="J154" s="13" t="s">
         <v>741</v>
       </c>
-      <c r="J154" s="13" t="s">
+      <c r="K154" s="13" t="s">
         <v>1408</v>
       </c>
-      <c r="K154" s="13" t="s">
+      <c r="L154" s="13" t="s">
         <v>1249</v>
       </c>
-      <c r="L154" s="14" t="str">
+      <c r="M154" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(153, 'Teagan', 'Kennedy', '93 Meadowbrook Rd', 'Oklahoma City', 'OK', '73112', 'caidaperl@yahoo.com', '791-276-3103', '5138494228632708', '05 / 22'),</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(153, 'Teagan', 'Kennedy', '93 Meadowbrook Rd', 'Oklahoma City', 'OK', '73112', 'USA', 'caidaperl@yahoo.com', '791-276-3103', '5138494228632708', '05 / 22'),</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" s="26" t="s">
         <v>1851</v>
       </c>
@@ -34234,23 +34703,26 @@
         <v>10002</v>
       </c>
       <c r="H155" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I155" s="13" t="s">
         <v>542</v>
       </c>
-      <c r="I155" s="13" t="s">
+      <c r="J155" s="13" t="s">
         <v>742</v>
       </c>
-      <c r="J155" s="13" t="s">
+      <c r="K155" s="13" t="s">
         <v>1270</v>
       </c>
-      <c r="K155" s="13" t="s">
+      <c r="L155" s="13" t="s">
         <v>1260</v>
       </c>
-      <c r="L155" s="14" t="str">
+      <c r="M155" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(154, 'Misael', 'Pierce', '23 Cardinal Lane', 'New York', 'NY', '10002', 'matty@verizon.net', '287-366-6218', '4539148618949928', '08 / 22'),</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(154, 'Misael', 'Pierce', '23 Cardinal Lane', 'New York', 'NY', '10002', 'USA', 'matty@verizon.net', '287-366-6218', '4539148618949928', '08 / 22'),</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" s="26" t="s">
         <v>1852</v>
       </c>
@@ -34273,23 +34745,26 @@
         <v>46360</v>
       </c>
       <c r="H156" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I156" s="13" t="s">
         <v>543</v>
       </c>
-      <c r="I156" s="13" t="s">
+      <c r="J156" s="13" t="s">
         <v>743</v>
       </c>
-      <c r="J156" s="13" t="s">
+      <c r="K156" s="13" t="s">
         <v>1409</v>
       </c>
-      <c r="K156" s="13" t="s">
+      <c r="L156" s="13" t="s">
         <v>1254</v>
       </c>
-      <c r="L156" s="14" t="str">
+      <c r="M156" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(155, 'Ismael', 'Carrillo', '193 Walnutwood Lane', 'Michigan City', 'IN', '46360', 'ryanvm@yahoo.ca', '526-910-6461', '5243858343359102', '06 / 20'),</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(155, 'Ismael', 'Carrillo', '193 Walnutwood Lane', 'Michigan City', 'IN', '46360', 'USA', 'ryanvm@yahoo.ca', '526-910-6461', '5243858343359102', '06 / 20'),</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" s="26" t="s">
         <v>1853</v>
       </c>
@@ -34312,23 +34787,26 @@
         <v>33604</v>
       </c>
       <c r="H157" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I157" s="13" t="s">
         <v>544</v>
       </c>
-      <c r="I157" s="13" t="s">
+      <c r="J157" s="13" t="s">
         <v>744</v>
       </c>
-      <c r="J157" s="13" t="s">
+      <c r="K157" s="13" t="s">
         <v>1449</v>
       </c>
-      <c r="K157" s="13" t="s">
+      <c r="L157" s="13" t="s">
         <v>1259</v>
       </c>
-      <c r="L157" s="14" t="str">
+      <c r="M157" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(156, 'Kiera', 'Martin', '510 South St Louis Dr', 'Tampa', 'FL', '33604', 'psichel@mac.com', '628-445-4245', '5155245597678773', '03 / 22'),</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(156, 'Kiera', 'Martin', '510 South St Louis Dr', 'Tampa', 'FL', '33604', 'USA', 'psichel@mac.com', '628-445-4245', '5155245597678773', '03 / 22'),</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" s="26" t="s">
         <v>1854</v>
       </c>
@@ -34351,23 +34829,26 @@
         <v>76522</v>
       </c>
       <c r="H158" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I158" s="13" t="s">
         <v>545</v>
       </c>
-      <c r="I158" s="13" t="s">
+      <c r="J158" s="13" t="s">
         <v>745</v>
       </c>
-      <c r="J158" s="13" t="s">
+      <c r="K158" s="13" t="s">
         <v>1397</v>
       </c>
-      <c r="K158" s="13" t="s">
+      <c r="L158" s="13" t="s">
         <v>1260</v>
       </c>
-      <c r="L158" s="14" t="str">
+      <c r="M158" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(157, 'Vivian', 'Hooper', '777 Bow Ridge Lane', 'Copperas Cove', 'TX', '76522', 'gospodin@mac.com', '550-332-1624', '5509134334201292', '08 / 22'),</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(157, 'Vivian', 'Hooper', '777 Bow Ridge Lane', 'Copperas Cove', 'TX', '76522', 'USA', 'gospodin@mac.com', '550-332-1624', '5509134334201292', '08 / 22'),</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" s="26" t="s">
         <v>1855</v>
       </c>
@@ -34390,23 +34871,26 @@
         <v>984</v>
       </c>
       <c r="H159" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I159" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="I159" s="13" t="s">
+      <c r="J159" s="13" t="s">
         <v>746</v>
       </c>
-      <c r="J159" s="13" t="s">
+      <c r="K159" s="13" t="s">
         <v>1450</v>
       </c>
-      <c r="K159" s="13" t="s">
+      <c r="L159" s="13" t="s">
         <v>1255</v>
       </c>
-      <c r="L159" s="14" t="str">
+      <c r="M159" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(158, 'Kadyn', 'Lawrence', '60 Big Rock Cove St', 'Beverly', 'MA', '01915', 'leviathan@me.com', '365-797-1420', '5556616735514218', '11 / 20'),</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(158, 'Kadyn', 'Lawrence', '60 Big Rock Cove St', 'Beverly', 'MA', '01915', 'USA', 'leviathan@me.com', '365-797-1420', '5556616735514218', '11 / 20'),</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" s="26" t="s">
         <v>1856</v>
       </c>
@@ -34429,23 +34913,26 @@
         <v>31904</v>
       </c>
       <c r="H160" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I160" s="13" t="s">
         <v>547</v>
       </c>
-      <c r="I160" s="13" t="s">
+      <c r="J160" s="13" t="s">
         <v>747</v>
       </c>
-      <c r="J160" s="13" t="s">
+      <c r="K160" s="13" t="s">
         <v>1442</v>
       </c>
-      <c r="K160" s="13" t="s">
+      <c r="L160" s="13" t="s">
         <v>1253</v>
       </c>
-      <c r="L160" s="14" t="str">
+      <c r="M160" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(159, 'Jadyn', 'Gibson', '388 2nd St', 'Columbus', 'GA', '31904', 'catalog@mac.com', '437-350-6986', '5206529253202906', '05 / 20'),</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(159, 'Jadyn', 'Gibson', '388 2nd St', 'Columbus', 'GA', '31904', 'USA', 'catalog@mac.com', '437-350-6986', '5206529253202906', '05 / 20'),</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" s="26" t="s">
         <v>1857</v>
       </c>
@@ -34468,23 +34955,26 @@
         <v>21113</v>
       </c>
       <c r="H161" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I161" s="13" t="s">
         <v>548</v>
       </c>
-      <c r="I161" s="13" t="s">
+      <c r="J161" s="13" t="s">
         <v>748</v>
       </c>
-      <c r="J161" s="13" t="s">
+      <c r="K161" s="13" t="s">
         <v>1430</v>
       </c>
-      <c r="K161" s="13" t="s">
+      <c r="L161" s="13" t="s">
         <v>1250</v>
       </c>
-      <c r="L161" s="14" t="str">
+      <c r="M161" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(160, 'Quinn', 'Curry', '18 Saxon Street', 'Odenton', 'MD', '21113', 'bowmanbs@yahoo.com', '448-771-5324', '5416877910362464', '01 / 20'),</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(160, 'Quinn', 'Curry', '18 Saxon Street', 'Odenton', 'MD', '21113', 'USA', 'bowmanbs@yahoo.com', '448-771-5324', '5416877910362464', '01 / 20'),</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" s="26" t="s">
         <v>1858</v>
       </c>
@@ -34507,23 +34997,26 @@
         <v>14075</v>
       </c>
       <c r="H162" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I162" s="13" t="s">
         <v>549</v>
       </c>
-      <c r="I162" s="13" t="s">
+      <c r="J162" s="13" t="s">
         <v>749</v>
       </c>
-      <c r="J162" s="13" t="s">
+      <c r="K162" s="13" t="s">
         <v>1295</v>
       </c>
-      <c r="K162" s="13" t="s">
+      <c r="L162" s="13" t="s">
         <v>1258</v>
       </c>
-      <c r="L162" s="14" t="str">
+      <c r="M162" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(161, 'Arthur', 'Barrett', '36 Cedarwood St', 'Hamburg', 'NY', '14075', 'mnemonic@gmail.com', '322-405-1126', '4532517199440225', '10 / 21'),</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(161, 'Arthur', 'Barrett', '36 Cedarwood St', 'Hamburg', 'NY', '14075', 'USA', 'mnemonic@gmail.com', '322-405-1126', '4532517199440225', '10 / 21'),</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163" s="26" t="s">
         <v>1859</v>
       </c>
@@ -34546,23 +35039,26 @@
         <v>23451</v>
       </c>
       <c r="H163" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I163" s="13" t="s">
         <v>550</v>
       </c>
-      <c r="I163" s="13" t="s">
+      <c r="J163" s="13" t="s">
         <v>750</v>
       </c>
-      <c r="J163" s="13" t="s">
+      <c r="K163" s="13" t="s">
         <v>1266</v>
       </c>
-      <c r="K163" s="13" t="s">
+      <c r="L163" s="13" t="s">
         <v>1251</v>
       </c>
-      <c r="L163" s="14" t="str">
+      <c r="M163" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(162, 'Teagan', 'Becker', '3 Roehampton Street Unit 637', 'Virginia Beach', 'VA', '23451', 'formis@mac.com', '721-303-2911', '4024007146688410', '03 / 20'),</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(162, 'Teagan', 'Becker', '3 Roehampton Street Unit 637', 'Virginia Beach', 'VA', '23451', 'USA', 'formis@mac.com', '721-303-2911', '4024007146688410', '03 / 20'),</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164" s="26" t="s">
         <v>1860</v>
       </c>
@@ -34585,23 +35081,26 @@
         <v>56601</v>
       </c>
       <c r="H164" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I164" s="13" t="s">
         <v>551</v>
       </c>
-      <c r="I164" s="13" t="s">
+      <c r="J164" s="13" t="s">
         <v>751</v>
       </c>
-      <c r="J164" s="13" t="s">
+      <c r="K164" s="13" t="s">
         <v>1420</v>
       </c>
-      <c r="K164" s="13" t="s">
+      <c r="L164" s="13" t="s">
         <v>1256</v>
       </c>
-      <c r="L164" s="14" t="str">
+      <c r="M164" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(163, 'Jaelynn', 'Francis', '180 N Lees Creek Ave', 'Bemidji', 'MN', '56601', 'goldberg@me.com', '246-729-9187', '5293207642329011', '06 / 21'),</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(163, 'Jaelynn', 'Francis', '180 N Lees Creek Ave', 'Bemidji', 'MN', '56601', 'USA', 'goldberg@me.com', '246-729-9187', '5293207642329011', '06 / 21'),</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" s="26" t="s">
         <v>1861</v>
       </c>
@@ -34624,23 +35123,26 @@
         <v>27502</v>
       </c>
       <c r="H165" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I165" s="13" t="s">
         <v>552</v>
       </c>
-      <c r="I165" s="13" t="s">
+      <c r="J165" s="13" t="s">
         <v>752</v>
       </c>
-      <c r="J165" s="13" t="s">
+      <c r="K165" s="13" t="s">
         <v>1437</v>
       </c>
-      <c r="K165" s="13" t="s">
+      <c r="L165" s="13" t="s">
         <v>1253</v>
       </c>
-      <c r="L165" s="14" t="str">
+      <c r="M165" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(164, 'Cael', 'Zamora', '791 Lilac Lane', 'Apex', 'NC', '27502', 'stewwy@att.net', '264-480-3394', '5314985533076735', '05 / 20'),</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(164, 'Cael', 'Zamora', '791 Lilac Lane', 'Apex', 'NC', '27502', 'USA', 'stewwy@att.net', '264-480-3394', '5314985533076735', '05 / 20'),</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" s="26" t="s">
         <v>1862</v>
       </c>
@@ -34663,23 +35165,26 @@
         <v>60007</v>
       </c>
       <c r="H166" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I166" s="13" t="s">
         <v>553</v>
       </c>
-      <c r="I166" s="13" t="s">
+      <c r="J166" s="13" t="s">
         <v>753</v>
       </c>
-      <c r="J166" s="13" t="s">
+      <c r="K166" s="13" t="s">
         <v>1275</v>
       </c>
-      <c r="K166" s="13" t="s">
+      <c r="L166" s="13" t="s">
         <v>1261</v>
       </c>
-      <c r="L166" s="14" t="str">
+      <c r="M166" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(165, 'Cullen', 'Lester', '2 Acacia Dr', 'Elk Grove Village', 'IL', '60007', 'afeldspar@yahoo.ca', '219-584-8208', '4916269075398855', '02 / 23'),</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(165, 'Cullen', 'Lester', '2 Acacia Dr', 'Elk Grove Village', 'IL', '60007', 'USA', 'afeldspar@yahoo.ca', '219-584-8208', '4916269075398855', '02 / 23'),</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167" s="26" t="s">
         <v>1863</v>
       </c>
@@ -34702,23 +35207,26 @@
         <v>49022</v>
       </c>
       <c r="H167" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I167" s="13" t="s">
         <v>554</v>
       </c>
-      <c r="I167" s="13" t="s">
+      <c r="J167" s="13" t="s">
         <v>754</v>
       </c>
-      <c r="J167" s="13" t="s">
+      <c r="K167" s="13" t="s">
         <v>1331</v>
       </c>
-      <c r="K167" s="13" t="s">
+      <c r="L167" s="13" t="s">
         <v>1245</v>
       </c>
-      <c r="L167" s="14" t="str">
+      <c r="M167" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(166, 'Jeremiah', 'Newman', '635 Jockey Hollow Court', 'Benton Harbor', 'MI', '49022', 'stinson@mac.com', '989-586-4082', '4024007141385236', '10 / 22'),</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(166, 'Jeremiah', 'Newman', '635 Jockey Hollow Court', 'Benton Harbor', 'MI', '49022', 'USA', 'stinson@mac.com', '989-586-4082', '4024007141385236', '10 / 22'),</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168" s="26" t="s">
         <v>1864</v>
       </c>
@@ -34741,23 +35249,26 @@
         <v>11787</v>
       </c>
       <c r="H168" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I168" s="13" t="s">
         <v>555</v>
       </c>
-      <c r="I168" s="13" t="s">
+      <c r="J168" s="13" t="s">
         <v>755</v>
       </c>
-      <c r="J168" s="13" t="s">
+      <c r="K168" s="13" t="s">
         <v>1434</v>
       </c>
-      <c r="K168" s="13" t="s">
+      <c r="L168" s="13" t="s">
         <v>1251</v>
       </c>
-      <c r="L168" s="14" t="str">
+      <c r="M168" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(167, 'Triston', 'Harris', '8935 West Silver Spear St', 'Smithtown', 'NY', '11787', 'cgcra@verizon.net', '610-785-2105', '5289361481532460', '03 / 20'),</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(167, 'Triston', 'Harris', '8935 West Silver Spear St', 'Smithtown', 'NY', '11787', 'USA', 'cgcra@verizon.net', '610-785-2105', '5289361481532460', '03 / 20'),</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169" s="26" t="s">
         <v>1865</v>
       </c>
@@ -34780,23 +35291,26 @@
         <v>48047</v>
       </c>
       <c r="H169" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I169" s="13" t="s">
         <v>556</v>
       </c>
-      <c r="I169" s="13" t="s">
+      <c r="J169" s="13" t="s">
         <v>756</v>
       </c>
-      <c r="J169" s="13" t="s">
+      <c r="K169" s="13" t="s">
         <v>1415</v>
       </c>
-      <c r="K169" s="13" t="s">
+      <c r="L169" s="13" t="s">
         <v>1245</v>
       </c>
-      <c r="L169" s="14" t="str">
+      <c r="M169" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(168, 'Layton', 'Shepherd', '8824 Princess Drive', 'New Baltimore', 'MI', '48047', 'claypool@sbcglobal.net', '605-548-4510', '5197618268592681', '10 / 22'),</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(168, 'Layton', 'Shepherd', '8824 Princess Drive', 'New Baltimore', 'MI', '48047', 'USA', 'claypool@sbcglobal.net', '605-548-4510', '5197618268592681', '10 / 22'),</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" s="26" t="s">
         <v>1866</v>
       </c>
@@ -34819,23 +35333,26 @@
         <v>33428</v>
       </c>
       <c r="H170" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I170" s="13" t="s">
         <v>557</v>
       </c>
-      <c r="I170" s="13" t="s">
+      <c r="J170" s="13" t="s">
         <v>757</v>
       </c>
-      <c r="J170" s="13" t="s">
+      <c r="K170" s="13" t="s">
         <v>1411</v>
       </c>
-      <c r="K170" s="13" t="s">
+      <c r="L170" s="13" t="s">
         <v>1264</v>
       </c>
-      <c r="L170" s="14" t="str">
+      <c r="M170" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(169, 'Aydin', 'Shields', '14 Fairfield Dr', 'Boca Raton', 'FL', '33428', 'granboul@mac.com', '541-439-0681', '5541836828697997', '10 / 23'),</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(169, 'Aydin', 'Shields', '14 Fairfield Dr', 'Boca Raton', 'FL', '33428', 'USA', 'granboul@mac.com', '541-439-0681', '5541836828697997', '10 / 23'),</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" s="26" t="s">
         <v>1867</v>
       </c>
@@ -34858,23 +35375,26 @@
         <v>20744</v>
       </c>
       <c r="H171" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I171" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="I171" s="13" t="s">
+      <c r="J171" s="13" t="s">
         <v>758</v>
       </c>
-      <c r="J171" s="13" t="s">
+      <c r="K171" s="13" t="s">
         <v>1395</v>
       </c>
-      <c r="K171" s="13" t="s">
+      <c r="L171" s="13" t="s">
         <v>1263</v>
       </c>
-      <c r="L171" s="14" t="str">
+      <c r="M171" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(170, 'Jeffery', 'Dunlap', '33 Saxon Road', 'Fort Washington', 'MD', '20744', 'dbrobins@aol.com', '441-285-6030', '5453566683871322', '07 / 23'),</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(170, 'Jeffery', 'Dunlap', '33 Saxon Road', 'Fort Washington', 'MD', '20744', 'USA', 'dbrobins@aol.com', '441-285-6030', '5453566683871322', '07 / 23'),</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" s="26" t="s">
         <v>1868</v>
       </c>
@@ -34897,23 +35417,26 @@
         <v>1044</v>
       </c>
       <c r="H172" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I172" s="13" t="s">
         <v>559</v>
       </c>
-      <c r="I172" s="13" t="s">
+      <c r="J172" s="13" t="s">
         <v>759</v>
       </c>
-      <c r="J172" s="13" t="s">
+      <c r="K172" s="13" t="s">
         <v>1330</v>
       </c>
-      <c r="K172" s="13" t="s">
+      <c r="L172" s="13" t="s">
         <v>1258</v>
       </c>
-      <c r="L172" s="14" t="str">
+      <c r="M172" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(171, 'Demarion', 'Garner', '395 Redwood Drive', 'Randolph', 'MA', '02368', 'william@optonline.net', '302-477-6298', '4929871814630285', '10 / 21'),</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(171, 'Demarion', 'Garner', '395 Redwood Drive', 'Randolph', 'MA', '02368', 'USA', 'william@optonline.net', '302-477-6298', '4929871814630285', '10 / 21'),</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" s="26" t="s">
         <v>1869</v>
       </c>
@@ -34936,23 +35459,26 @@
         <v>44133</v>
       </c>
       <c r="H173" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I173" s="13" t="s">
         <v>560</v>
       </c>
-      <c r="I173" s="13" t="s">
+      <c r="J173" s="13" t="s">
         <v>760</v>
       </c>
-      <c r="J173" s="13" t="s">
+      <c r="K173" s="13" t="s">
         <v>1282</v>
       </c>
-      <c r="K173" s="13" t="s">
+      <c r="L173" s="13" t="s">
         <v>1245</v>
       </c>
-      <c r="L173" s="14" t="str">
+      <c r="M173" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(172, 'Samson', 'Wong', '8720 Prairie Dr', 'North Royalton', 'OH', '44133', 'makarow@aol.com', '631-667-1142', '4532655867087165', '10 / 22'),</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(172, 'Samson', 'Wong', '8720 Prairie Dr', 'North Royalton', 'OH', '44133', 'USA', 'makarow@aol.com', '631-667-1142', '4532655867087165', '10 / 22'),</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174" s="26" t="s">
         <v>1870</v>
       </c>
@@ -34975,23 +35501,26 @@
         <v>11010</v>
       </c>
       <c r="H174" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I174" s="13" t="s">
         <v>561</v>
       </c>
-      <c r="I174" s="13" t="s">
+      <c r="J174" s="13" t="s">
         <v>761</v>
       </c>
-      <c r="J174" s="13" t="s">
+      <c r="K174" s="13" t="s">
         <v>1384</v>
       </c>
-      <c r="K174" s="13" t="s">
+      <c r="L174" s="13" t="s">
         <v>1259</v>
       </c>
-      <c r="L174" s="14" t="str">
+      <c r="M174" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(173, 'Mateo', 'Walker', '37 Longbranch Rd', 'Franklin Square', 'NY', '11010', 'frostman@gmail.com', '759-263-4490', '5271720235715574', '03 / 22'),</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(173, 'Mateo', 'Walker', '37 Longbranch Rd', 'Franklin Square', 'NY', '11010', 'USA', 'frostman@gmail.com', '759-263-4490', '5271720235715574', '03 / 22'),</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175" s="26" t="s">
         <v>1871</v>
       </c>
@@ -35014,23 +35543,26 @@
         <v>30813</v>
       </c>
       <c r="H175" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I175" s="13" t="s">
         <v>562</v>
       </c>
-      <c r="I175" s="13" t="s">
+      <c r="J175" s="13" t="s">
         <v>762</v>
       </c>
-      <c r="J175" s="13" t="s">
+      <c r="K175" s="13" t="s">
         <v>1342</v>
       </c>
-      <c r="K175" s="13" t="s">
+      <c r="L175" s="13" t="s">
         <v>1245</v>
       </c>
-      <c r="L175" s="14" t="str">
+      <c r="M175" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(174, 'Marina', 'Harvey', '808 Harvey Road', 'Grovetown', 'GA', '30813', 'rattenbt@comcast.net', '845-583-1351', '4286102347833486', '10 / 22'),</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(174, 'Marina', 'Harvey', '808 Harvey Road', 'Grovetown', 'GA', '30813', 'USA', 'rattenbt@comcast.net', '845-583-1351', '4286102347833486', '10 / 22'),</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176" s="26" t="s">
         <v>1872</v>
       </c>
@@ -35053,23 +35585,26 @@
         <v>23111</v>
       </c>
       <c r="H176" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I176" s="13" t="s">
         <v>563</v>
       </c>
-      <c r="I176" s="13" t="s">
+      <c r="J176" s="13" t="s">
         <v>763</v>
       </c>
-      <c r="J176" s="13" t="s">
+      <c r="K176" s="13" t="s">
         <v>1319</v>
       </c>
-      <c r="K176" s="13" t="s">
+      <c r="L176" s="13" t="s">
         <v>1253</v>
       </c>
-      <c r="L176" s="14" t="str">
+      <c r="M176" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(175, 'Cristian', 'Haynes', '96 Sage Lane', 'Mechanicsville', 'VA', '23111', 'policies@aol.com', '534-210-5489', '4929691424311336', '05 / 20'),</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(175, 'Cristian', 'Haynes', '96 Sage Lane', 'Mechanicsville', 'VA', '23111', 'USA', 'policies@aol.com', '534-210-5489', '4929691424311336', '05 / 20'),</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177" s="26" t="s">
         <v>1873</v>
       </c>
@@ -35092,23 +35627,26 @@
         <v>27302</v>
       </c>
       <c r="H177" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I177" s="13" t="s">
         <v>564</v>
       </c>
-      <c r="I177" s="13" t="s">
+      <c r="J177" s="13" t="s">
         <v>764</v>
       </c>
-      <c r="J177" s="13" t="s">
+      <c r="K177" s="13" t="s">
         <v>1339</v>
       </c>
-      <c r="K177" s="13" t="s">
+      <c r="L177" s="13" t="s">
         <v>1262</v>
       </c>
-      <c r="L177" s="14" t="str">
+      <c r="M177" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(176, 'Ireland', 'Petty', '99 Overlook Ave', 'Mebane', 'NC', '27302', 'psharpe@gmail.com', '356-207-7725', '4716561937355129', '05 / 23'),</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(176, 'Ireland', 'Petty', '99 Overlook Ave', 'Mebane', 'NC', '27302', 'USA', 'psharpe@gmail.com', '356-207-7725', '4716561937355129', '05 / 23'),</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178" s="26" t="s">
         <v>1874</v>
       </c>
@@ -35131,23 +35669,26 @@
         <v>60067</v>
       </c>
       <c r="H178" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I178" s="13" t="s">
         <v>565</v>
       </c>
-      <c r="I178" s="13" t="s">
+      <c r="J178" s="13" t="s">
         <v>765</v>
       </c>
-      <c r="J178" s="13" t="s">
+      <c r="K178" s="13" t="s">
         <v>1276</v>
       </c>
-      <c r="K178" s="13" t="s">
+      <c r="L178" s="13" t="s">
         <v>1246</v>
       </c>
-      <c r="L178" s="14" t="str">
+      <c r="M178" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(177, 'Chaz', 'Page', '55 East Ramblewood Ave', 'Palatine', 'IL', '60067', 'payned@att.net', '880-953-9131', '4716925495133469', '12 / 22'),</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(177, 'Chaz', 'Page', '55 East Ramblewood Ave', 'Palatine', 'IL', '60067', 'USA', 'payned@att.net', '880-953-9131', '4716925495133469', '12 / 22'),</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179" s="26" t="s">
         <v>1875</v>
       </c>
@@ -35170,23 +35711,26 @@
         <v>47130</v>
       </c>
       <c r="H179" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I179" s="13" t="s">
         <v>566</v>
       </c>
-      <c r="I179" s="13" t="s">
+      <c r="J179" s="13" t="s">
         <v>766</v>
       </c>
-      <c r="J179" s="13" t="s">
+      <c r="K179" s="13" t="s">
         <v>1316</v>
       </c>
-      <c r="K179" s="13" t="s">
+      <c r="L179" s="13" t="s">
         <v>1260</v>
       </c>
-      <c r="L179" s="14" t="str">
+      <c r="M179" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(178, 'Andy', 'Park', '7106 SE Border Drive', 'Jeffersonville', 'IN', '47130', 'tristan@comcast.net', '529-810-1204', '4532233389509387', '08 / 22'),</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(178, 'Andy', 'Park', '7106 SE Border Drive', 'Jeffersonville', 'IN', '47130', 'USA', 'tristan@comcast.net', '529-810-1204', '4532233389509387', '08 / 22'),</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180" s="26" t="s">
         <v>1876</v>
       </c>
@@ -35209,23 +35753,26 @@
         <v>94806</v>
       </c>
       <c r="H180" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I180" s="13" t="s">
         <v>567</v>
       </c>
-      <c r="I180" s="13" t="s">
+      <c r="J180" s="13" t="s">
         <v>767</v>
       </c>
-      <c r="J180" s="13" t="s">
+      <c r="K180" s="13" t="s">
         <v>1349</v>
       </c>
-      <c r="K180" s="13" t="s">
+      <c r="L180" s="13" t="s">
         <v>1256</v>
       </c>
-      <c r="L180" s="14" t="str">
+      <c r="M180" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(179, 'Julien', 'Vincent', '780 E River Dr', 'San Pablo', 'CA', '94806', 'sagal@yahoo.ca', '878-739-3726', '4929651163120470', '06 / 21'),</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(179, 'Julien', 'Vincent', '780 E River Dr', 'San Pablo', 'CA', '94806', 'USA', 'sagal@yahoo.ca', '878-739-3726', '4929651163120470', '06 / 21'),</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181" s="26" t="s">
         <v>1877</v>
       </c>
@@ -35248,23 +35795,26 @@
         <v>44094</v>
       </c>
       <c r="H181" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I181" s="13" t="s">
         <v>568</v>
       </c>
-      <c r="I181" s="13" t="s">
+      <c r="J181" s="13" t="s">
         <v>768</v>
       </c>
-      <c r="J181" s="13" t="s">
+      <c r="K181" s="13" t="s">
         <v>1392</v>
       </c>
-      <c r="K181" s="13" t="s">
+      <c r="L181" s="13" t="s">
         <v>1249</v>
       </c>
-      <c r="L181" s="14" t="str">
+      <c r="M181" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(180, 'Paola', 'Dominguez', '62 Birch Hill Ave', 'Willoughby', 'OH', '44094', 'murty@icloud.com', '370-983-4120', '5451146532406208', '05 / 22'),</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(180, 'Paola', 'Dominguez', '62 Birch Hill Ave', 'Willoughby', 'OH', '44094', 'USA', 'murty@icloud.com', '370-983-4120', '5451146532406208', '05 / 22'),</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182" s="26" t="s">
         <v>1878</v>
       </c>
@@ -35287,23 +35837,26 @@
         <v>60060</v>
       </c>
       <c r="H182" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I182" s="13" t="s">
         <v>569</v>
       </c>
-      <c r="I182" s="13" t="s">
+      <c r="J182" s="13" t="s">
         <v>769</v>
       </c>
-      <c r="J182" s="13" t="s">
+      <c r="K182" s="13" t="s">
         <v>1407</v>
       </c>
-      <c r="K182" s="13" t="s">
+      <c r="L182" s="13" t="s">
         <v>1254</v>
       </c>
-      <c r="L182" s="14" t="str">
+      <c r="M182" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(181, 'Jermaine', 'Brandt', '69 Edgewater Street', 'Mundelein', 'IL', '60060', 'tangsh@hotmail.com', '902-668-7000', '5316028924460321', '06 / 20'),</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(181, 'Jermaine', 'Brandt', '69 Edgewater Street', 'Mundelein', 'IL', '60060', 'USA', 'tangsh@hotmail.com', '902-668-7000', '5316028924460321', '06 / 20'),</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183" s="26" t="s">
         <v>1879</v>
       </c>
@@ -35326,23 +35879,26 @@
         <v>49855</v>
       </c>
       <c r="H183" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I183" s="13" t="s">
         <v>570</v>
       </c>
-      <c r="I183" s="13" t="s">
+      <c r="J183" s="13" t="s">
         <v>770</v>
       </c>
-      <c r="J183" s="13" t="s">
+      <c r="K183" s="13" t="s">
         <v>1387</v>
       </c>
-      <c r="K183" s="13" t="s">
+      <c r="L183" s="13" t="s">
         <v>1260</v>
       </c>
-      <c r="L183" s="14" t="str">
+      <c r="M183" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(182, 'Veronica', 'Neal', '8596 Anderson Street', 'Marquette', 'MI', '49855', 'staikos@comcast.net', '385-420-7464', '5214109672703907', '08 / 22'),</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(182, 'Veronica', 'Neal', '8596 Anderson Street', 'Marquette', 'MI', '49855', 'USA', 'staikos@comcast.net', '385-420-7464', '5214109672703907', '08 / 22'),</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184" s="26" t="s">
         <v>1880</v>
       </c>
@@ -35365,23 +35921,26 @@
         <v>11720</v>
       </c>
       <c r="H184" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I184" s="13" t="s">
         <v>571</v>
       </c>
-      <c r="I184" s="13" t="s">
+      <c r="J184" s="13" t="s">
         <v>771</v>
       </c>
-      <c r="J184" s="13" t="s">
+      <c r="K184" s="13" t="s">
         <v>1398</v>
       </c>
-      <c r="K184" s="13" t="s">
+      <c r="L184" s="13" t="s">
         <v>1250</v>
       </c>
-      <c r="L184" s="14" t="str">
+      <c r="M184" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(183, 'Audrey', 'Levy', '65 Primrose Avenue', 'Centereach', 'NY', '11720', 'ovprit@yahoo.com', '622-319-7930', '5267861619852785', '01 / 20'),</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(183, 'Audrey', 'Levy', '65 Primrose Avenue', 'Centereach', 'NY', '11720', 'USA', 'ovprit@yahoo.com', '622-319-7930', '5267861619852785', '01 / 20'),</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185" s="26" t="s">
         <v>1881</v>
       </c>
@@ -35404,23 +35963,26 @@
         <v>55316</v>
       </c>
       <c r="H185" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I185" s="13" t="s">
         <v>572</v>
       </c>
-      <c r="I185" s="13" t="s">
+      <c r="J185" s="13" t="s">
         <v>772</v>
       </c>
-      <c r="J185" s="13" t="s">
+      <c r="K185" s="13" t="s">
         <v>1321</v>
       </c>
-      <c r="K185" s="13" t="s">
+      <c r="L185" s="13" t="s">
         <v>1252</v>
       </c>
-      <c r="L185" s="14" t="str">
+      <c r="M185" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(184, 'Zain', 'Morris', '8948 Bedford Avenue', 'Champlin', 'MN', '55316', 'marcs@live.com', '725-765-0951', '4716421977913180', '04 / 20'),</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(184, 'Zain', 'Morris', '8948 Bedford Avenue', 'Champlin', 'MN', '55316', 'USA', 'marcs@live.com', '725-765-0951', '4716421977913180', '04 / 20'),</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186" s="26" t="s">
         <v>1882</v>
       </c>
@@ -35443,23 +36005,26 @@
         <v>34952</v>
       </c>
       <c r="H186" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I186" s="13" t="s">
         <v>573</v>
       </c>
-      <c r="I186" s="13" t="s">
+      <c r="J186" s="13" t="s">
         <v>773</v>
       </c>
-      <c r="J186" s="13" t="s">
+      <c r="K186" s="13" t="s">
         <v>1456</v>
       </c>
-      <c r="K186" s="13" t="s">
+      <c r="L186" s="13" t="s">
         <v>1264</v>
       </c>
-      <c r="L186" s="14" t="str">
+      <c r="M186" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(185, 'Jaydon', 'Owen', '4 Sunbeam St', 'Port Saint Lucie', 'FL', '34952', 'lydia@att.net', '259-246-1374', '5322585998334734', '10 / 23'),</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(185, 'Jaydon', 'Owen', '4 Sunbeam St', 'Port Saint Lucie', 'FL', '34952', 'USA', 'lydia@att.net', '259-246-1374', '5322585998334734', '10 / 23'),</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187" s="26" t="s">
         <v>1883</v>
       </c>
@@ -35482,23 +36047,26 @@
         <v>29440</v>
       </c>
       <c r="H187" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I187" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="I187" s="13" t="s">
+      <c r="J187" s="13" t="s">
         <v>774</v>
       </c>
-      <c r="J187" s="13" t="s">
+      <c r="K187" s="13" t="s">
         <v>1385</v>
       </c>
-      <c r="K187" s="13" t="s">
+      <c r="L187" s="13" t="s">
         <v>1253</v>
       </c>
-      <c r="L187" s="14" t="str">
+      <c r="M187" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(186, 'Andreas', 'Henderson', '287 Airport Ave', 'Georgetown', 'SC', '29440', 'chaki@verizon.net', '518-624-8467', '5406089887069146', '05 / 20'),</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(186, 'Andreas', 'Henderson', '287 Airport Ave', 'Georgetown', 'SC', '29440', 'USA', 'chaki@verizon.net', '518-624-8467', '5406089887069146', '05 / 20'),</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188" s="26" t="s">
         <v>1884</v>
       </c>
@@ -35521,23 +36089,26 @@
         <v>22630</v>
       </c>
       <c r="H188" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I188" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="I188" s="13" t="s">
+      <c r="J188" s="13" t="s">
         <v>775</v>
       </c>
-      <c r="J188" s="13" t="s">
+      <c r="K188" s="13" t="s">
         <v>1455</v>
       </c>
-      <c r="K188" s="13" t="s">
+      <c r="L188" s="13" t="s">
         <v>1249</v>
       </c>
-      <c r="L188" s="14" t="str">
+      <c r="M188" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(187, 'Mckenna', 'Donaldson', '8 Oxford Street', 'Front Royal', 'VA', '22630', 'jesse@sbcglobal.net', '675-320-9989', '5365094411041354', '05 / 22'),</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(187, 'Mckenna', 'Donaldson', '8 Oxford Street', 'Front Royal', 'VA', '22630', 'USA', 'jesse@sbcglobal.net', '675-320-9989', '5365094411041354', '05 / 22'),</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189" s="26" t="s">
         <v>1885</v>
       </c>
@@ -35560,23 +36131,26 @@
         <v>28792</v>
       </c>
       <c r="H189" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I189" s="13" t="s">
         <v>576</v>
       </c>
-      <c r="I189" s="13" t="s">
+      <c r="J189" s="13" t="s">
         <v>776</v>
       </c>
-      <c r="J189" s="13" t="s">
+      <c r="K189" s="13" t="s">
         <v>1381</v>
       </c>
-      <c r="K189" s="13" t="s">
+      <c r="L189" s="13" t="s">
         <v>1250</v>
       </c>
-      <c r="L189" s="14" t="str">
+      <c r="M189" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(188, 'Johan', 'Norris', '8783 Lawrence Ave', 'Hendersonville', 'NC', '28792', 'starstuff@optonline.net', '460-603-2474', '5477029651692156', '01 / 20'),</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(188, 'Johan', 'Norris', '8783 Lawrence Ave', 'Hendersonville', 'NC', '28792', 'USA', 'starstuff@optonline.net', '460-603-2474', '5477029651692156', '01 / 20'),</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190" s="26" t="s">
         <v>1886</v>
       </c>
@@ -35599,23 +36173,26 @@
         <v>985</v>
       </c>
       <c r="H190" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I190" s="13" t="s">
         <v>577</v>
       </c>
-      <c r="I190" s="13" t="s">
+      <c r="J190" s="13" t="s">
         <v>777</v>
       </c>
-      <c r="J190" s="13" t="s">
+      <c r="K190" s="13" t="s">
         <v>1272</v>
       </c>
-      <c r="K190" s="13" t="s">
+      <c r="L190" s="13" t="s">
         <v>1252</v>
       </c>
-      <c r="L190" s="14" t="str">
+      <c r="M190" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(189, 'Sidney', 'Rogers', '77 W Riverside Street', 'Cambridge', 'MA', '02138', 'karasik@icloud.com', '273-734-8614', '4485396030169997', '04 / 20'),</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(189, 'Sidney', 'Rogers', '77 W Riverside Street', 'Cambridge', 'MA', '02138', 'USA', 'karasik@icloud.com', '273-734-8614', '4485396030169997', '04 / 20'),</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191" s="26" t="s">
         <v>1887</v>
       </c>
@@ -35638,23 +36215,26 @@
         <v>11758</v>
       </c>
       <c r="H191" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I191" s="13" t="s">
         <v>578</v>
       </c>
-      <c r="I191" s="13" t="s">
+      <c r="J191" s="13" t="s">
         <v>778</v>
       </c>
-      <c r="J191" s="13" t="s">
+      <c r="K191" s="13" t="s">
         <v>1386</v>
       </c>
-      <c r="K191" s="13" t="s">
+      <c r="L191" s="13" t="s">
         <v>1265</v>
       </c>
-      <c r="L191" s="14" t="str">
+      <c r="M191" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(190, 'Trey', 'Terrell', '58 Hill Street', 'Massapequa', 'NY', '11758', 'gordonjcp@outlook.com', '494-294-4674', '5263445706005616', '11 / 23'),</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(190, 'Trey', 'Terrell', '58 Hill Street', 'Massapequa', 'NY', '11758', 'USA', 'gordonjcp@outlook.com', '494-294-4674', '5263445706005616', '11 / 23'),</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192" s="26" t="s">
         <v>1888</v>
       </c>
@@ -35677,23 +36257,26 @@
         <v>51106</v>
       </c>
       <c r="H192" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I192" s="13" t="s">
         <v>579</v>
       </c>
-      <c r="I192" s="13" t="s">
+      <c r="J192" s="13" t="s">
         <v>779</v>
       </c>
-      <c r="J192" s="13" t="s">
+      <c r="K192" s="13" t="s">
         <v>1314</v>
       </c>
-      <c r="K192" s="13" t="s">
+      <c r="L192" s="13" t="s">
         <v>1250</v>
       </c>
-      <c r="L192" s="14" t="str">
+      <c r="M192" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(191, 'Abram', 'Sweeney', '7891 N Miller St', 'Sioux City', 'IA', '51106', 'zeller@att.net', '279-631-9780', '4556492728833632', '01 / 20'),</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(191, 'Abram', 'Sweeney', '7891 N Miller St', 'Sioux City', 'IA', '51106', 'USA', 'zeller@att.net', '279-631-9780', '4556492728833632', '01 / 20'),</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193" s="26" t="s">
         <v>1889</v>
       </c>
@@ -35716,23 +36299,26 @@
         <v>54935</v>
       </c>
       <c r="H193" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I193" s="13" t="s">
         <v>580</v>
       </c>
-      <c r="I193" s="13" t="s">
+      <c r="J193" s="13" t="s">
         <v>780</v>
       </c>
-      <c r="J193" s="13" t="s">
+      <c r="K193" s="13" t="s">
         <v>1301</v>
       </c>
-      <c r="K193" s="13" t="s">
+      <c r="L193" s="13" t="s">
         <v>1259</v>
       </c>
-      <c r="L193" s="14" t="str">
+      <c r="M193" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>(192, 'Maleah', 'Wright', '7932 Sunset Street', 'Fond Du Lac', 'WI', '54935', 'overbom@optonline.net', '718-296-2578', '4532192901185136', '03 / 22'),</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(192, 'Maleah', 'Wright', '7932 Sunset Street', 'Fond Du Lac', 'WI', '54935', 'USA', 'overbom@optonline.net', '718-296-2578', '4532192901185136', '03 / 22'),</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194" s="26" t="s">
         <v>1890</v>
       </c>
@@ -35755,23 +36341,26 @@
         <v>35209</v>
       </c>
       <c r="H194" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I194" s="13" t="s">
         <v>581</v>
       </c>
-      <c r="I194" s="13" t="s">
+      <c r="J194" s="13" t="s">
         <v>781</v>
       </c>
-      <c r="J194" s="13" t="s">
+      <c r="K194" s="13" t="s">
         <v>1406</v>
       </c>
-      <c r="K194" s="13" t="s">
+      <c r="L194" s="13" t="s">
         <v>1249</v>
       </c>
-      <c r="L194" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>(193, 'Nasir', 'Graves', '1 North Pin Oak Road', 'Birmingham', 'AL', '35209', 'feamster@verizon.net', '648-709-1177', '5393039168669796', '05 / 22'),</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M194" s="14" t="str">
+        <f t="shared" ref="M194:M200" si="3">"("&amp;A194&amp;", '"&amp;B194&amp;"', '"&amp;C194&amp;"', '"&amp;D194&amp;"', '"&amp;E194&amp;"', '"&amp;F194&amp;"', '"&amp;G194&amp;"', '"&amp;H194&amp;"', '"&amp;I194&amp;"', '"&amp;J194&amp;"', '"&amp;K194&amp;"', '"&amp;L194&amp;"'),"</f>
+        <v>(193, 'Nasir', 'Graves', '1 North Pin Oak Road', 'Birmingham', 'AL', '35209', 'USA', 'feamster@verizon.net', '648-709-1177', '5393039168669796', '05 / 22'),</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195" s="26" t="s">
         <v>1891</v>
       </c>
@@ -35794,23 +36383,26 @@
         <v>44691</v>
       </c>
       <c r="H195" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I195" s="13" t="s">
         <v>582</v>
       </c>
-      <c r="I195" s="13" t="s">
+      <c r="J195" s="13" t="s">
         <v>782</v>
       </c>
-      <c r="J195" s="13" t="s">
+      <c r="K195" s="13" t="s">
         <v>1278</v>
       </c>
-      <c r="K195" s="13" t="s">
+      <c r="L195" s="13" t="s">
         <v>1265</v>
       </c>
-      <c r="L195" s="14" t="str">
-        <f t="shared" ref="L195:L200" si="3">"("&amp;A195&amp;", '"&amp;B195&amp;"', '"&amp;C195&amp;"', '"&amp;D195&amp;"', '"&amp;E195&amp;"', '"&amp;F195&amp;"', '"&amp;G195&amp;"', '"&amp;H195&amp;"', '"&amp;I195&amp;"', '"&amp;J195&amp;"', '"&amp;K195&amp;"'),"</f>
-        <v>(194, 'Chanel', 'Morton', '8447 Plumb Branch Road', 'Wooster', 'OH', '44691', 'elflord@comcast.net', '576-974-0328', '4539712308905647', '11 / 23'),</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M195" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v>(194, 'Chanel', 'Morton', '8447 Plumb Branch Road', 'Wooster', 'OH', '44691', 'USA', 'elflord@comcast.net', '576-974-0328', '4539712308905647', '11 / 23'),</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196" s="26" t="s">
         <v>1892</v>
       </c>
@@ -35833,23 +36425,26 @@
         <v>60156</v>
       </c>
       <c r="H196" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I196" s="13" t="s">
         <v>583</v>
       </c>
-      <c r="I196" s="13" t="s">
+      <c r="J196" s="13" t="s">
         <v>783</v>
       </c>
-      <c r="J196" s="13" t="s">
+      <c r="K196" s="13" t="s">
         <v>1305</v>
       </c>
-      <c r="K196" s="13" t="s">
+      <c r="L196" s="13" t="s">
         <v>1245</v>
       </c>
-      <c r="L196" s="14" t="str">
+      <c r="M196" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>(195, 'Ashtyn', 'Frazier', '32 Elm Lane', 'Lake In The Hills', 'IL', '60156', 'majordick@msn.com', '811-334-6284', '4916068018458341', '10 / 22'),</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(195, 'Ashtyn', 'Frazier', '32 Elm Lane', 'Lake In The Hills', 'IL', '60156', 'USA', 'majordick@msn.com', '811-334-6284', '4916068018458341', '10 / 22'),</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197" s="26" t="s">
         <v>1893</v>
       </c>
@@ -35872,23 +36467,26 @@
         <v>20170</v>
       </c>
       <c r="H197" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I197" s="13" t="s">
         <v>584</v>
       </c>
-      <c r="I197" s="13" t="s">
+      <c r="J197" s="13" t="s">
         <v>784</v>
       </c>
-      <c r="J197" s="13" t="s">
+      <c r="K197" s="13" t="s">
         <v>1440</v>
       </c>
-      <c r="K197" s="13" t="s">
+      <c r="L197" s="13" t="s">
         <v>1245</v>
       </c>
-      <c r="L197" s="14" t="str">
+      <c r="M197" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>(196, 'Quentin', 'Davies', '954 Trenton Street', 'Herndon', 'VA', '20170', 'heroine@aol.com', '595-211-7057', '5407203926486166', '10 / 22'),</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(196, 'Quentin', 'Davies', '954 Trenton Street', 'Herndon', 'VA', '20170', 'USA', 'heroine@aol.com', '595-211-7057', '5407203926486166', '10 / 22'),</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198" s="26" t="s">
         <v>1894</v>
       </c>
@@ -35911,23 +36509,26 @@
         <v>1043</v>
       </c>
       <c r="H198" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I198" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="I198" s="13" t="s">
+      <c r="J198" s="13" t="s">
         <v>785</v>
       </c>
-      <c r="J198" s="13" t="s">
+      <c r="K198" s="13" t="s">
         <v>1293</v>
       </c>
-      <c r="K198" s="13" t="s">
+      <c r="L198" s="13" t="s">
         <v>1257</v>
       </c>
-      <c r="L198" s="14" t="str">
+      <c r="M198" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>(197, 'Emerson', 'Long', '9927 W Pheasant Drive', 'West New York', 'NJ', '07093', 'tamas@icloud.com', '265-337-9379', '4024007197096901', '07 / 21'),</v>
-      </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(197, 'Emerson', 'Long', '9927 W Pheasant Drive', 'West New York', 'NJ', '07093', 'USA', 'tamas@icloud.com', '265-337-9379', '4024007197096901', '07 / 21'),</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199" s="26" t="s">
         <v>1895</v>
       </c>
@@ -35950,23 +36551,26 @@
         <v>27909</v>
       </c>
       <c r="H199" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I199" s="13" t="s">
         <v>586</v>
       </c>
-      <c r="I199" s="13" t="s">
+      <c r="J199" s="13" t="s">
         <v>786</v>
       </c>
-      <c r="J199" s="13" t="s">
+      <c r="K199" s="13" t="s">
         <v>1374</v>
       </c>
-      <c r="K199" s="13" t="s">
+      <c r="L199" s="13" t="s">
         <v>1265</v>
       </c>
-      <c r="L199" s="14" t="str">
+      <c r="M199" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>(198, 'Danielle', 'Gould', '653 Anderson Drive', 'Elizabeth City', 'NC', '27909', 'dgriffith@hotmail.com', '410-903-7957', '5384265839975525', '11 / 23'),</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(198, 'Danielle', 'Gould', '653 Anderson Drive', 'Elizabeth City', 'NC', '27909', 'USA', 'dgriffith@hotmail.com', '410-903-7957', '5384265839975525', '11 / 23'),</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200" s="26" t="s">
         <v>1896</v>
       </c>
@@ -35989,23 +36593,26 @@
         <v>37388</v>
       </c>
       <c r="H200" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I200" s="13" t="s">
         <v>587</v>
       </c>
-      <c r="I200" s="13" t="s">
+      <c r="J200" s="13" t="s">
         <v>787</v>
       </c>
-      <c r="J200" s="13" t="s">
+      <c r="K200" s="13" t="s">
         <v>1333</v>
       </c>
-      <c r="K200" s="13" t="s">
+      <c r="L200" s="13" t="s">
         <v>1260</v>
       </c>
-      <c r="L200" s="14" t="str">
+      <c r="M200" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>(199, 'Jamarion', 'Le', '278 S Saxon Court', 'Tullahoma', 'TN', '37388', 'hillct@comcast.net', '639-312-9329', '4916118471617469', '08 / 22'),</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(199, 'Jamarion', 'Le', '278 S Saxon Court', 'Tullahoma', 'TN', '37388', 'USA', 'hillct@comcast.net', '639-312-9329', '4916118471617469', '08 / 22'),</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201" s="26" t="s">
         <v>1897</v>
       </c>
@@ -36028,20 +36635,23 @@
         <v>49085</v>
       </c>
       <c r="H201" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I201" s="13" t="s">
         <v>588</v>
       </c>
-      <c r="I201" s="13" t="s">
+      <c r="J201" s="13" t="s">
         <v>788</v>
       </c>
-      <c r="J201" s="13" t="s">
+      <c r="K201" s="13" t="s">
         <v>1283</v>
       </c>
-      <c r="K201" s="13" t="s">
+      <c r="L201" s="13" t="s">
         <v>1262</v>
       </c>
-      <c r="L201" s="14" t="str">
-        <f>"("&amp;A201&amp;", '"&amp;B201&amp;"', '"&amp;C201&amp;"', '"&amp;D201&amp;"', '"&amp;E201&amp;"', '"&amp;F201&amp;"', '"&amp;G201&amp;"', '"&amp;H201&amp;"', '"&amp;I201&amp;"', '"&amp;J201&amp;"', '"&amp;K201&amp;"');"</f>
-        <v>(200, 'Chance', 'Mcdowell', '78 Virginia Rd', 'Saint Joseph', 'MI', '49085', 'chinthaka@sbcglobal.net', '698-379-0629', '4916164093404811', '05 / 23');</v>
+      <c r="M201" s="14" t="str">
+        <f>"("&amp;A201&amp;", '"&amp;B201&amp;"', '"&amp;C201&amp;"', '"&amp;D201&amp;"', '"&amp;E201&amp;"', '"&amp;F201&amp;"', '"&amp;G201&amp;"', '"&amp;H201&amp;"', '"&amp;I201&amp;"', '"&amp;J201&amp;"', '"&amp;K201&amp;"', '"&amp;L201&amp;"'),"</f>
+        <v>(200, 'Chance', 'Mcdowell', '78 Virginia Rd', 'Saint Joseph', 'MI', '49085', 'USA', 'chinthaka@sbcglobal.net', '698-379-0629', '4916164093404811', '05 / 23'),</v>
       </c>
     </row>
   </sheetData>

--- a/config/seeds.xlsx
+++ b/config/seeds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike\Desktop\code\hotel-worx-3\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39674A30-8FBF-4CD1-B4BE-C9AF119B032A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFE7D99-8E97-4CB2-A516-41CDA67B5DAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res_rooms (old)" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4020" uniqueCount="2006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4021" uniqueCount="2007">
   <si>
     <t>room_num</t>
   </si>
@@ -6053,6 +6053,9 @@
   </si>
   <si>
     <t>USA</t>
+  </si>
+  <si>
+    <t>allow_charges</t>
   </si>
 </sst>
 </file>
@@ -16215,11 +16218,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D42255F-FA0E-4B98-904D-E6CC9AC6492A}">
-  <dimension ref="A1:M201"/>
+  <dimension ref="A1:N201"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M201" sqref="M2:M201"/>
+      <selection pane="bottomLeft" activeCell="N2" sqref="N2:N201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16235,10 +16238,11 @@
     <col min="10" max="10" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="147.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="147.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1693</v>
       </c>
@@ -16275,11 +16279,14 @@
       <c r="L1" s="10" t="s">
         <v>1467</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="4" t="s">
+        <v>2006</v>
+      </c>
+      <c r="N1" s="22" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1001</v>
       </c>
@@ -16316,12 +16323,15 @@
       <c r="L2" s="11" t="s">
         <v>1478</v>
       </c>
-      <c r="M2" s="11" t="str">
-        <f>"("&amp;A2&amp;", "&amp;B2&amp;", "&amp;C2&amp;", "&amp;D2&amp;", "&amp;E2&amp;", "&amp;F2&amp;", "&amp;G2&amp;", "&amp;H2&amp;", "&amp;I2&amp;", '"&amp;J2&amp;"', '"&amp;K2&amp;"', '"&amp;L2&amp;"'),"</f>
-        <v>(1001, 1001, 1, DATE_SUB(CURDATE(), INTERVAL 3 DAY), DATE_ADD(CURDATE(), INTERVAL 1 DAY), 1, 0, 1, 9, '109.99', '190501001001', 'needs a late checkout time'),</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M2" s="6">
+        <v>1</v>
+      </c>
+      <c r="N2" s="11" t="str">
+        <f>"("&amp;A2&amp;", "&amp;B2&amp;", "&amp;C2&amp;", "&amp;D2&amp;", "&amp;E2&amp;", "&amp;F2&amp;", "&amp;G2&amp;", "&amp;H2&amp;", "&amp;I2&amp;", '"&amp;J2&amp;"', '"&amp;K2&amp;"', '"&amp;L2&amp;"', "&amp;M2&amp;"),"</f>
+        <v>(1001, 1001, 1, DATE_SUB(CURDATE(), INTERVAL 3 DAY), DATE_ADD(CURDATE(), INTERVAL 1 DAY), 1, 0, 1, 9, '109.99', '190501001001', 'needs a late checkout time', 1),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1002</v>
       </c>
@@ -16356,12 +16366,15 @@
         <v>1482</v>
       </c>
       <c r="L3" s="11"/>
-      <c r="M3" s="11" t="str">
-        <f t="shared" ref="M3:M66" si="0">"("&amp;A3&amp;", "&amp;B3&amp;", "&amp;C3&amp;", "&amp;D3&amp;", "&amp;E3&amp;", "&amp;F3&amp;", "&amp;G3&amp;", "&amp;H3&amp;", "&amp;I3&amp;", '"&amp;J3&amp;"', '"&amp;K3&amp;"', '"&amp;L3&amp;"'),"</f>
-        <v>(1002, 1002, 2, DATE_SUB(CURDATE(), INTERVAL 3 DAY), DATE_ADD(CURDATE(), INTERVAL 1 DAY), 1, 0, 2, 4, '119.99', '190503002001', ''),</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M3" s="6">
+        <v>1</v>
+      </c>
+      <c r="N3" s="11" t="str">
+        <f t="shared" ref="N3:N66" si="0">"("&amp;A3&amp;", "&amp;B3&amp;", "&amp;C3&amp;", "&amp;D3&amp;", "&amp;E3&amp;", "&amp;F3&amp;", "&amp;G3&amp;", "&amp;H3&amp;", "&amp;I3&amp;", '"&amp;J3&amp;"', '"&amp;K3&amp;"', '"&amp;L3&amp;"', "&amp;M3&amp;"),"</f>
+        <v>(1002, 1002, 2, DATE_SUB(CURDATE(), INTERVAL 3 DAY), DATE_ADD(CURDATE(), INTERVAL 1 DAY), 1, 0, 2, 4, '119.99', '190503002001', '', 1),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>1003</v>
       </c>
@@ -16396,12 +16409,15 @@
         <v>1483</v>
       </c>
       <c r="L4" s="11"/>
-      <c r="M4" s="11" t="str">
+      <c r="M4" s="6">
+        <v>1</v>
+      </c>
+      <c r="N4" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1003, 1003, 1, DATE_SUB(CURDATE(), INTERVAL 3 DAY), DATE_ADD(CURDATE(), INTERVAL 1 DAY), 1, 0, 2, 11, '109.99', '190503003001', ''),</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1003, 1003, 1, DATE_SUB(CURDATE(), INTERVAL 3 DAY), DATE_ADD(CURDATE(), INTERVAL 1 DAY), 1, 0, 2, 11, '109.99', '190503003001', '', 1),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>1004</v>
       </c>
@@ -16438,12 +16454,15 @@
       <c r="L5" s="11" t="s">
         <v>1480</v>
       </c>
-      <c r="M5" s="11" t="str">
+      <c r="M5" s="6">
+        <v>1</v>
+      </c>
+      <c r="N5" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1004, 1004, 2, DATE_SUB(CURDATE(), INTERVAL 3 DAY), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 1, 0, 1, 12, '119.99', '190504004001', 'wants a good view'),</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1004, 1004, 2, DATE_SUB(CURDATE(), INTERVAL 3 DAY), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 1, 0, 1, 12, '119.99', '190504004001', 'wants a good view', 1),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>1005</v>
       </c>
@@ -16478,12 +16497,15 @@
         <v>1485</v>
       </c>
       <c r="L6" s="11"/>
-      <c r="M6" s="11" t="str">
+      <c r="M6" s="6">
+        <v>1</v>
+      </c>
+      <c r="N6" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1005, 1005, 1, DATE_SUB(CURDATE(), INTERVAL 3 DAY), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 1, 0, 2, 13, '109.99', '190505005001', ''),</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1005, 1005, 1, DATE_SUB(CURDATE(), INTERVAL 3 DAY), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 1, 0, 2, 13, '109.99', '190505005001', '', 1),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>1006</v>
       </c>
@@ -16518,12 +16540,15 @@
         <v>1486</v>
       </c>
       <c r="L7" s="11"/>
-      <c r="M7" s="11" t="str">
+      <c r="M7" s="6">
+        <v>1</v>
+      </c>
+      <c r="N7" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1006, 1006, 3, DATE_SUB(CURDATE(), INTERVAL 3 DAY), DATE_ADD(CURDATE(), INTERVAL 3 DAY), 1, 0, 1, 6, '129.99', '190508006001', ''),</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1006, 1006, 3, DATE_SUB(CURDATE(), INTERVAL 3 DAY), DATE_ADD(CURDATE(), INTERVAL 3 DAY), 1, 0, 1, 6, '129.99', '190508006001', '', 1),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>1007</v>
       </c>
@@ -16558,12 +16583,15 @@
         <v>1487</v>
       </c>
       <c r="L8" s="11"/>
-      <c r="M8" s="11" t="str">
+      <c r="M8" s="6">
+        <v>1</v>
+      </c>
+      <c r="N8" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1007, 1007, 1, DATE_SUB(CURDATE(), INTERVAL 2 DAY), DATE_ADD(CURDATE(), INTERVAL 1 DAY), 1, 0, 2, 23, '109.99', '190509007001', ''),</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1007, 1007, 1, DATE_SUB(CURDATE(), INTERVAL 2 DAY), DATE_ADD(CURDATE(), INTERVAL 1 DAY), 1, 0, 2, 23, '109.99', '190509007001', '', 1),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>1008</v>
       </c>
@@ -16598,12 +16626,15 @@
         <v>1488</v>
       </c>
       <c r="L9" s="11"/>
-      <c r="M9" s="11" t="str">
+      <c r="M9" s="6">
+        <v>1</v>
+      </c>
+      <c r="N9" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1008, 1008, 3, DATE_SUB(CURDATE(), INTERVAL 2 DAY), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 1, 0, 2, 26, '129.99', '190511008001', ''),</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1008, 1008, 3, DATE_SUB(CURDATE(), INTERVAL 2 DAY), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 1, 0, 2, 26, '129.99', '190511008001', '', 1),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>1009</v>
       </c>
@@ -16638,12 +16669,15 @@
         <v>1489</v>
       </c>
       <c r="L10" s="11"/>
-      <c r="M10" s="11" t="str">
+      <c r="M10" s="6">
+        <v>1</v>
+      </c>
+      <c r="N10" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1009, 1009, 1, DATE_SUB(CURDATE(), INTERVAL 2 DAY), DATE_ADD(CURDATE(), INTERVAL 3 DAY), 1, 0, 1, 25, '109.99', '190513009001', ''),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1009, 1009, 1, DATE_SUB(CURDATE(), INTERVAL 2 DAY), DATE_ADD(CURDATE(), INTERVAL 3 DAY), 1, 0, 1, 25, '109.99', '190513009001', '', 1),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>1010</v>
       </c>
@@ -16678,12 +16712,15 @@
         <v>1490</v>
       </c>
       <c r="L11" s="11"/>
-      <c r="M11" s="11" t="str">
+      <c r="M11" s="6">
+        <v>1</v>
+      </c>
+      <c r="N11" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1010, 1010, 3, DATE_SUB(CURDATE(), INTERVAL 2 DAY), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 1, 0, 3, 28, '129.99', '190515010001', ''),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1010, 1010, 3, DATE_SUB(CURDATE(), INTERVAL 2 DAY), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 1, 0, 3, 28, '129.99', '190515010001', '', 1),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>1011</v>
       </c>
@@ -16718,12 +16755,15 @@
         <v>1491</v>
       </c>
       <c r="L12" s="11"/>
-      <c r="M12" s="11" t="str">
+      <c r="M12" s="6">
+        <v>1</v>
+      </c>
+      <c r="N12" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1011, 1011, 1, DATE_SUB(CURDATE(), INTERVAL 2 DAY), DATE_ADD(CURDATE(), INTERVAL 3 DAY), 1, 0, 1, 27, '109.99', '190517011001', ''),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1011, 1011, 1, DATE_SUB(CURDATE(), INTERVAL 2 DAY), DATE_ADD(CURDATE(), INTERVAL 3 DAY), 1, 0, 1, 27, '109.99', '190517011001', '', 1),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>1012</v>
       </c>
@@ -16758,12 +16798,15 @@
         <v>1492</v>
       </c>
       <c r="L13" s="11"/>
-      <c r="M13" s="11" t="str">
+      <c r="M13" s="6">
+        <v>1</v>
+      </c>
+      <c r="N13" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1012, 1012, 2, DATE_SUB(CURDATE(), INTERVAL 2 DAY), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 1, 0, 2, 24, '119.99', '190519012001', ''),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1012, 1012, 2, DATE_SUB(CURDATE(), INTERVAL 2 DAY), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 1, 0, 2, 24, '119.99', '190519012001', '', 1),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>1013</v>
       </c>
@@ -16798,12 +16841,15 @@
         <v>1493</v>
       </c>
       <c r="L14" s="11"/>
-      <c r="M14" s="11" t="str">
+      <c r="M14" s="6">
+        <v>1</v>
+      </c>
+      <c r="N14" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1013, 1013, 1, DATE_SUB(CURDATE(), INTERVAL 2 DAY), DATE_ADD(CURDATE(), INTERVAL 1 DAY), 1, 0, 2, 29, '109.99', '190521013001', ''),</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1013, 1013, 1, DATE_SUB(CURDATE(), INTERVAL 2 DAY), DATE_ADD(CURDATE(), INTERVAL 1 DAY), 1, 0, 2, 29, '109.99', '190521013001', '', 1),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>1014</v>
       </c>
@@ -16838,12 +16884,15 @@
         <v>1494</v>
       </c>
       <c r="L15" s="11"/>
-      <c r="M15" s="11" t="str">
+      <c r="M15" s="6">
+        <v>1</v>
+      </c>
+      <c r="N15" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1014, 1014, 2, DATE_SUB(CURDATE(), INTERVAL 2 DAY), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 1, 0, 1, 32, '119.99', '190523014001', ''),</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1014, 1014, 2, DATE_SUB(CURDATE(), INTERVAL 2 DAY), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 1, 0, 1, 32, '119.99', '190523014001', '', 1),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>1015</v>
       </c>
@@ -16878,12 +16927,15 @@
         <v>1495</v>
       </c>
       <c r="L16" s="11"/>
-      <c r="M16" s="11" t="str">
+      <c r="M16" s="6">
+        <v>1</v>
+      </c>
+      <c r="N16" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1015, 1015, 1, DATE_SUB(CURDATE(), INTERVAL 2 DAY), DATE_ADD(CURDATE(), INTERVAL 1 DAY), 1, 0, 3, 31, '109.99', '190525015001', ''),</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1015, 1015, 1, DATE_SUB(CURDATE(), INTERVAL 2 DAY), DATE_ADD(CURDATE(), INTERVAL 1 DAY), 1, 0, 3, 31, '109.99', '190525015001', '', 1),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>1016</v>
       </c>
@@ -16918,12 +16970,15 @@
         <v>1496</v>
       </c>
       <c r="L17" s="11"/>
-      <c r="M17" s="11" t="str">
+      <c r="M17" s="6">
+        <v>1</v>
+      </c>
+      <c r="N17" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1016, 1016, 3, DATE_SUB(CURDATE(), INTERVAL 1 DAY), DATE_ADD(CURDATE(), INTERVAL 3 DAY), 1, 0, 1, 50, '129.99', '190528016001', ''),</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1016, 1016, 3, DATE_SUB(CURDATE(), INTERVAL 1 DAY), DATE_ADD(CURDATE(), INTERVAL 3 DAY), 1, 0, 1, 50, '129.99', '190528016001', '', 1),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>1017</v>
       </c>
@@ -16960,12 +17015,15 @@
       <c r="L18" s="11" t="s">
         <v>1478</v>
       </c>
-      <c r="M18" s="11" t="str">
+      <c r="M18" s="6">
+        <v>1</v>
+      </c>
+      <c r="N18" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1017, 1017, 1, DATE_SUB(CURDATE(), INTERVAL 1 DAY), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 1, 0, 2, 63, '109.99', '190529017001', 'needs a late checkout time'),</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1017, 1017, 1, DATE_SUB(CURDATE(), INTERVAL 1 DAY), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 1, 0, 2, 63, '109.99', '190529017001', 'needs a late checkout time', 1),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>1018</v>
       </c>
@@ -17000,12 +17058,15 @@
         <v>1498</v>
       </c>
       <c r="L19" s="11"/>
-      <c r="M19" s="11" t="str">
+      <c r="M19" s="6">
+        <v>1</v>
+      </c>
+      <c r="N19" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1018, 1018, 3, DATE_SUB(CURDATE(), INTERVAL 1 DAY), DATE_ADD(CURDATE(), INTERVAL 1 DAY), 1, 0, 2, 56, '129.99', '190601018001', ''),</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1018, 1018, 3, DATE_SUB(CURDATE(), INTERVAL 1 DAY), DATE_ADD(CURDATE(), INTERVAL 1 DAY), 1, 0, 2, 56, '129.99', '190601018001', '', 1),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>1019</v>
       </c>
@@ -17040,12 +17101,15 @@
         <v>1499</v>
       </c>
       <c r="L20" s="11"/>
-      <c r="M20" s="11" t="str">
+      <c r="M20" s="6">
+        <v>1</v>
+      </c>
+      <c r="N20" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1019, 1019, 1, DATE_SUB(CURDATE(), INTERVAL 1 DAY), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 1, 0, 1, 65, '109.99', '190601019001', ''),</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1019, 1019, 1, DATE_SUB(CURDATE(), INTERVAL 1 DAY), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 1, 0, 1, 65, '109.99', '190601019001', '', 1),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>1020</v>
       </c>
@@ -17082,12 +17146,15 @@
       <c r="L21" s="11" t="s">
         <v>1480</v>
       </c>
-      <c r="M21" s="11" t="str">
+      <c r="M21" s="6">
+        <v>1</v>
+      </c>
+      <c r="N21" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1020, 1020, 3, DATE_SUB(CURDATE(), INTERVAL 1 DAY), DATE_ADD(CURDATE(), INTERVAL 1 DAY), 1, 0, 3, 58, '129.99', '190601020001', 'wants a good view'),</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1020, 1020, 3, DATE_SUB(CURDATE(), INTERVAL 1 DAY), DATE_ADD(CURDATE(), INTERVAL 1 DAY), 1, 0, 3, 58, '129.99', '190601020001', 'wants a good view', 1),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>1021</v>
       </c>
@@ -17122,12 +17189,15 @@
         <v>1501</v>
       </c>
       <c r="L22" s="11"/>
-      <c r="M22" s="11" t="str">
+      <c r="M22" s="6">
+        <v>1</v>
+      </c>
+      <c r="N22" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1021, 1021, 1, DATE_SUB(CURDATE(), INTERVAL 1 DAY), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 1, 0, 1, 67, '109.99', '190601021001', ''),</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1021, 1021, 1, DATE_SUB(CURDATE(), INTERVAL 1 DAY), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 1, 0, 1, 67, '109.99', '190601021001', '', 1),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>1022</v>
       </c>
@@ -17162,12 +17232,15 @@
         <v>1502</v>
       </c>
       <c r="L23" s="11"/>
-      <c r="M23" s="11" t="str">
+      <c r="M23" s="6">
+        <v>1</v>
+      </c>
+      <c r="N23" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1022, 1022, 2, DATE_SUB(CURDATE(), INTERVAL 1 DAY), DATE_ADD(CURDATE(), INTERVAL 4 DAY), 1, 0, 2, 62, '119.99', '190601022001', ''),</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1022, 1022, 2, DATE_SUB(CURDATE(), INTERVAL 1 DAY), DATE_ADD(CURDATE(), INTERVAL 4 DAY), 1, 0, 2, 62, '119.99', '190601022001', '', 1),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>1023</v>
       </c>
@@ -17202,12 +17275,15 @@
         <v>1503</v>
       </c>
       <c r="L24" s="11"/>
-      <c r="M24" s="11" t="str">
+      <c r="M24" s="6">
+        <v>1</v>
+      </c>
+      <c r="N24" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1023, 1023, 1, DATE_SUB(CURDATE(), INTERVAL 1 DAY), DATE_ADD(CURDATE(), INTERVAL 6 DAY), 1, 0, 2, 69, '109.99', '190602023001', ''),</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1023, 1023, 1, DATE_SUB(CURDATE(), INTERVAL 1 DAY), DATE_ADD(CURDATE(), INTERVAL 6 DAY), 1, 0, 2, 69, '109.99', '190602023001', '', 1),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>1024</v>
       </c>
@@ -17242,12 +17318,15 @@
         <v>1504</v>
       </c>
       <c r="L25" s="11"/>
-      <c r="M25" s="11" t="str">
+      <c r="M25" s="6">
+        <v>1</v>
+      </c>
+      <c r="N25" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1024, 1024, 2, DATE_SUB(CURDATE(), INTERVAL 1 DAY), DATE_ADD(CURDATE(), INTERVAL 3 DAY), 1, 0, 1, 64, '119.99', '190602024001', ''),</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1024, 1024, 2, DATE_SUB(CURDATE(), INTERVAL 1 DAY), DATE_ADD(CURDATE(), INTERVAL 3 DAY), 1, 0, 1, 64, '119.99', '190602024001', '', 1),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>1025</v>
       </c>
@@ -17282,12 +17361,15 @@
         <v>1505</v>
       </c>
       <c r="L26" s="11"/>
-      <c r="M26" s="11" t="str">
+      <c r="M26" s="6">
+        <v>1</v>
+      </c>
+      <c r="N26" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1025, 1025, 1, DATE_SUB(CURDATE(), INTERVAL 1 DAY), DATE_ADD(CURDATE(), INTERVAL 1 DAY), 1, 0, 3, 71, '109.99', '190602025001', ''),</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1025, 1025, 1, DATE_SUB(CURDATE(), INTERVAL 1 DAY), DATE_ADD(CURDATE(), INTERVAL 1 DAY), 1, 0, 3, 71, '109.99', '190602025001', '', 1),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>1026</v>
       </c>
@@ -17324,12 +17406,15 @@
       <c r="L27" s="11" t="s">
         <v>1478</v>
       </c>
-      <c r="M27" s="11" t="str">
+      <c r="M27" s="6">
+        <v>1</v>
+      </c>
+      <c r="N27" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1026, 1026, 3, DATE_SUB(CURDATE(), INTERVAL 3 DAY), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 1, 0, 1, 8, '129.99', '190603026001', 'needs a late checkout time'),</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1026, 1026, 3, DATE_SUB(CURDATE(), INTERVAL 3 DAY), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 1, 0, 1, 8, '129.99', '190603026001', 'needs a late checkout time', 1),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>1027</v>
       </c>
@@ -17364,12 +17449,15 @@
         <v>1507</v>
       </c>
       <c r="L28" s="11"/>
-      <c r="M28" s="11" t="str">
+      <c r="M28" s="6">
+        <v>1</v>
+      </c>
+      <c r="N28" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1027, 1027, 1, DATE_SUB(CURDATE(), INTERVAL 3 DAY), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 1, 0, 2, 15, '109.99', '190603027001', ''),</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1027, 1027, 1, DATE_SUB(CURDATE(), INTERVAL 3 DAY), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 1, 0, 2, 15, '109.99', '190603027001', '', 1),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>1028</v>
       </c>
@@ -17404,12 +17492,15 @@
         <v>1508</v>
       </c>
       <c r="L29" s="11"/>
-      <c r="M29" s="11" t="str">
+      <c r="M29" s="6">
+        <v>1</v>
+      </c>
+      <c r="N29" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1028, 1028, 3, DATE_SUB(CURDATE(), INTERVAL 3 DAY), DATE_ADD(CURDATE(), INTERVAL 3 DAY), 1, 0, 2, 10, '129.99', '190603028001', ''),</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1028, 1028, 3, DATE_SUB(CURDATE(), INTERVAL 3 DAY), DATE_ADD(CURDATE(), INTERVAL 3 DAY), 1, 0, 2, 10, '129.99', '190603028001', '', 1),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>1029</v>
       </c>
@@ -17444,12 +17535,15 @@
         <v>1509</v>
       </c>
       <c r="L30" s="11"/>
-      <c r="M30" s="11" t="str">
+      <c r="M30" s="6">
+        <v>1</v>
+      </c>
+      <c r="N30" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1029, 1029, 1, DATE_SUB(CURDATE(), INTERVAL 2 DAY), DATE_ADD(CURDATE(), INTERVAL 1 DAY), 1, 0, 1, 33, '109.99', '190604029001', ''),</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1029, 1029, 1, DATE_SUB(CURDATE(), INTERVAL 2 DAY), DATE_ADD(CURDATE(), INTERVAL 1 DAY), 1, 0, 1, 33, '109.99', '190604029001', '', 1),</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>1030</v>
       </c>
@@ -17484,12 +17578,15 @@
         <v>1510</v>
       </c>
       <c r="L31" s="11"/>
-      <c r="M31" s="11" t="str">
+      <c r="M31" s="6">
+        <v>1</v>
+      </c>
+      <c r="N31" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1030, 1030, 3, DATE_SUB(CURDATE(), INTERVAL 2 DAY), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 1, 0, 3, 30, '129.99', '190604030001', ''),</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1030, 1030, 3, DATE_SUB(CURDATE(), INTERVAL 2 DAY), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 1, 0, 3, 30, '129.99', '190604030001', '', 1),</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>1031</v>
       </c>
@@ -17524,12 +17621,15 @@
         <v>1511</v>
       </c>
       <c r="L32" s="11"/>
-      <c r="M32" s="11" t="str">
+      <c r="M32" s="6">
+        <v>1</v>
+      </c>
+      <c r="N32" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1031, 1031, 1, DATE_SUB(CURDATE(), INTERVAL 2 DAY), DATE_ADD(CURDATE(), INTERVAL 3 DAY), 1, 0, 1, 35, '109.99', '190604031001', ''),</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1031, 1031, 1, DATE_SUB(CURDATE(), INTERVAL 2 DAY), DATE_ADD(CURDATE(), INTERVAL 3 DAY), 1, 0, 1, 35, '109.99', '190604031001', '', 1),</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>1032</v>
       </c>
@@ -17564,12 +17664,15 @@
         <v>1512</v>
       </c>
       <c r="L33" s="11"/>
-      <c r="M33" s="11" t="str">
+      <c r="M33" s="6">
+        <v>1</v>
+      </c>
+      <c r="N33" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1032, 1032, 2, DATE_SUB(CURDATE(), INTERVAL 2 DAY), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 1, 0, 2, 34, '119.99', '190604032001', ''),</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1032, 1032, 2, DATE_SUB(CURDATE(), INTERVAL 2 DAY), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 1, 0, 2, 34, '119.99', '190604032001', '', 1),</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>1033</v>
       </c>
@@ -17604,12 +17707,15 @@
         <v>1513</v>
       </c>
       <c r="L34" s="11"/>
-      <c r="M34" s="11" t="str">
+      <c r="M34" s="6">
+        <v>1</v>
+      </c>
+      <c r="N34" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1033, 1033, 1, DATE_SUB(CURDATE(), INTERVAL 2 DAY), DATE_ADD(CURDATE(), INTERVAL 3 DAY), 1, 0, 2, 37, '109.99', '190605033001', ''),</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1033, 1033, 1, DATE_SUB(CURDATE(), INTERVAL 2 DAY), DATE_ADD(CURDATE(), INTERVAL 3 DAY), 1, 0, 2, 37, '109.99', '190605033001', '', 1),</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>1034</v>
       </c>
@@ -17644,12 +17750,15 @@
         <v>1514</v>
       </c>
       <c r="L35" s="11"/>
-      <c r="M35" s="11" t="str">
+      <c r="M35" s="6">
+        <v>1</v>
+      </c>
+      <c r="N35" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1034, 1034, 2, DATE_SUB(CURDATE(), INTERVAL 2 DAY), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 1, 0, 1, 42, '119.99', '190605034001', ''),</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1034, 1034, 2, DATE_SUB(CURDATE(), INTERVAL 2 DAY), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 1, 0, 1, 42, '119.99', '190605034001', '', 1),</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>1035</v>
       </c>
@@ -17684,12 +17793,15 @@
         <v>1515</v>
       </c>
       <c r="L36" s="11"/>
-      <c r="M36" s="11" t="str">
+      <c r="M36" s="6">
+        <v>1</v>
+      </c>
+      <c r="N36" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1035, 1035, 1, DATE_SUB(CURDATE(), INTERVAL 2 DAY), DATE_ADD(CURDATE(), INTERVAL 1 DAY), 1, 0, 4, 39, '109.99', '190605035001', ''),</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1035, 1035, 1, DATE_SUB(CURDATE(), INTERVAL 2 DAY), DATE_ADD(CURDATE(), INTERVAL 1 DAY), 1, 0, 4, 39, '109.99', '190605035001', '', 1),</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>1036</v>
       </c>
@@ -17726,12 +17838,15 @@
       <c r="L37" s="11" t="s">
         <v>1478</v>
       </c>
-      <c r="M37" s="11" t="str">
+      <c r="M37" s="6">
+        <v>1</v>
+      </c>
+      <c r="N37" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1036, 1036, 3, DATE_SUB(CURDATE(), INTERVAL 2 DAY), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 1, 0, 1, 36, '129.99', '190605036001', 'needs a late checkout time'),</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1036, 1036, 3, DATE_SUB(CURDATE(), INTERVAL 2 DAY), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 1, 0, 1, 36, '129.99', '190605036001', 'needs a late checkout time', 1),</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>1037</v>
       </c>
@@ -17766,12 +17881,15 @@
         <v>1517</v>
       </c>
       <c r="L38" s="11"/>
-      <c r="M38" s="11" t="str">
+      <c r="M38" s="6">
+        <v>1</v>
+      </c>
+      <c r="N38" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1037, 1037, 1, DATE_SUB(CURDATE(), INTERVAL 2 DAY), DATE_ADD(CURDATE(), INTERVAL 1 DAY), 1, 0, 2, 41, '109.99', '190605037001', ''),</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1037, 1037, 1, DATE_SUB(CURDATE(), INTERVAL 2 DAY), DATE_ADD(CURDATE(), INTERVAL 1 DAY), 1, 0, 2, 41, '109.99', '190605037001', '', 1),</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>1038</v>
       </c>
@@ -17806,12 +17924,15 @@
         <v>1518</v>
       </c>
       <c r="L39" s="11"/>
-      <c r="M39" s="11" t="str">
+      <c r="M39" s="6">
+        <v>1</v>
+      </c>
+      <c r="N39" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1038, 1038, 3, DATE_SUB(CURDATE(), INTERVAL 1 DAY), DATE_ADD(CURDATE(), INTERVAL 3 DAY), 1, 0, 2, 60, '129.99', '190605038001', ''),</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1038, 1038, 3, DATE_SUB(CURDATE(), INTERVAL 1 DAY), DATE_ADD(CURDATE(), INTERVAL 3 DAY), 1, 0, 2, 60, '129.99', '190605038001', '', 1),</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>1039</v>
       </c>
@@ -17846,12 +17967,15 @@
         <v>1519</v>
       </c>
       <c r="L40" s="11"/>
-      <c r="M40" s="11" t="str">
+      <c r="M40" s="6">
+        <v>1</v>
+      </c>
+      <c r="N40" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1039, 1039, 1, DATE_SUB(CURDATE(), INTERVAL 1 DAY), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 1, 0, 1, 73, '109.99', '190605039001', ''),</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1039, 1039, 1, DATE_SUB(CURDATE(), INTERVAL 1 DAY), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 1, 0, 1, 73, '109.99', '190605039001', '', 1),</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>1040</v>
       </c>
@@ -17886,12 +18010,15 @@
         <v>1520</v>
       </c>
       <c r="L41" s="11"/>
-      <c r="M41" s="11" t="str">
+      <c r="M41" s="6">
+        <v>1</v>
+      </c>
+      <c r="N41" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1040, 1040, 3, DATE_SUB(CURDATE(), INTERVAL 1 DAY), DATE_ADD(CURDATE(), INTERVAL 1 DAY), 1, 0, 3, 66, '129.99', '190606040001', ''),</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1040, 1040, 3, DATE_SUB(CURDATE(), INTERVAL 1 DAY), DATE_ADD(CURDATE(), INTERVAL 1 DAY), 1, 0, 3, 66, '129.99', '190606040001', '', 1),</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>1041</v>
       </c>
@@ -17928,12 +18055,15 @@
       <c r="L42" s="11" t="s">
         <v>1478</v>
       </c>
-      <c r="M42" s="11" t="str">
+      <c r="M42" s="6">
+        <v>1</v>
+      </c>
+      <c r="N42" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1041, 1041, 1, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 0, 0, 1, null, '109.99', '190606041001', 'needs a late checkout time'),</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1041, 1041, 1, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 0, 0, 1, null, '109.99', '190606041001', 'needs a late checkout time', 1),</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>1042</v>
       </c>
@@ -17968,12 +18098,15 @@
         <v>1522</v>
       </c>
       <c r="L43" s="11"/>
-      <c r="M43" s="11" t="str">
+      <c r="M43" s="6">
+        <v>1</v>
+      </c>
+      <c r="N43" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1042, 1042, 2, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 4 DAY), 0, 0, 2, null, '119.99', '190607042001', ''),</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1042, 1042, 2, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 4 DAY), 0, 0, 2, null, '119.99', '190607042001', '', 1),</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>1043</v>
       </c>
@@ -18008,12 +18141,15 @@
         <v>1523</v>
       </c>
       <c r="L44" s="11"/>
-      <c r="M44" s="11" t="str">
+      <c r="M44" s="6">
+        <v>1</v>
+      </c>
+      <c r="N44" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1043, 1043, 1, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 3 DAY), 0, 0, 2, null, '109.99', '190607043001', ''),</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1043, 1043, 1, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 3 DAY), 0, 0, 2, null, '109.99', '190607043001', '', 1),</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>1044</v>
       </c>
@@ -18048,12 +18184,15 @@
         <v>1524</v>
       </c>
       <c r="L45" s="11"/>
-      <c r="M45" s="11" t="str">
+      <c r="M45" s="6">
+        <v>1</v>
+      </c>
+      <c r="N45" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1044, 1044, 2, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 0, 0, 1, null, '119.99', '190607044001', ''),</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1044, 1044, 2, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 0, 0, 1, null, '119.99', '190607044001', '', 1),</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>1045</v>
       </c>
@@ -18088,12 +18227,15 @@
         <v>1525</v>
       </c>
       <c r="L46" s="11"/>
-      <c r="M46" s="11" t="str">
+      <c r="M46" s="6">
+        <v>1</v>
+      </c>
+      <c r="N46" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1045, 1045, 1, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 6 DAY), 0, 0, 3, null, '109.99', '190607045001', ''),</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1045, 1045, 1, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 6 DAY), 0, 0, 3, null, '109.99', '190607045001', '', 1),</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>1046</v>
       </c>
@@ -18128,12 +18270,15 @@
         <v>1526</v>
       </c>
       <c r="L47" s="11"/>
-      <c r="M47" s="11" t="str">
+      <c r="M47" s="6">
+        <v>1</v>
+      </c>
+      <c r="N47" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1046, 1046, 3, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 3 DAY), 0, 0, 1, null, '129.99', '190607046001', ''),</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1046, 1046, 3, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 3 DAY), 0, 0, 1, null, '129.99', '190607046001', '', 1),</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>1047</v>
       </c>
@@ -18170,12 +18315,15 @@
       <c r="L48" s="11" t="s">
         <v>1478</v>
       </c>
-      <c r="M48" s="11" t="str">
+      <c r="M48" s="6">
+        <v>1</v>
+      </c>
+      <c r="N48" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1047, 1047, 1, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 1 DAY), 0, 0, 2, null, '109.99', '190608047001', 'needs a late checkout time'),</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1047, 1047, 1, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 1 DAY), 0, 0, 2, null, '109.99', '190608047001', 'needs a late checkout time', 1),</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>1048</v>
       </c>
@@ -18210,12 +18358,15 @@
         <v>1528</v>
       </c>
       <c r="L49" s="11"/>
-      <c r="M49" s="11" t="str">
+      <c r="M49" s="6">
+        <v>1</v>
+      </c>
+      <c r="N49" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1048, 1048, 3, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 1 DAY), 0, 0, 2, null, '129.99', '190608048001', ''),</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1048, 1048, 3, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 1 DAY), 0, 0, 2, null, '129.99', '190608048001', '', 1),</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>1049</v>
       </c>
@@ -18250,12 +18401,15 @@
         <v>1529</v>
       </c>
       <c r="L50" s="11"/>
-      <c r="M50" s="11" t="str">
+      <c r="M50" s="6">
+        <v>1</v>
+      </c>
+      <c r="N50" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1049, 1049, 1, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 0, 0, 1, null, '109.99', '190608049001', ''),</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1049, 1049, 1, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 0, 0, 1, null, '109.99', '190608049001', '', 1),</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>1050</v>
       </c>
@@ -18290,12 +18444,15 @@
         <v>1530</v>
       </c>
       <c r="L51" s="11"/>
-      <c r="M51" s="11" t="str">
+      <c r="M51" s="6">
+        <v>1</v>
+      </c>
+      <c r="N51" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1050, 1050, 3, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 1 DAY), 0, 0, 3, null, '129.99', '190608050001', ''),</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1050, 1050, 3, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 1 DAY), 0, 0, 3, null, '129.99', '190608050001', '', 1),</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>1051</v>
       </c>
@@ -18330,12 +18487,15 @@
         <v>1531</v>
       </c>
       <c r="L52" s="11"/>
-      <c r="M52" s="11" t="str">
+      <c r="M52" s="6">
+        <v>1</v>
+      </c>
+      <c r="N52" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1051, 1051, 1, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 4 DAY), 0, 0, 1, null, '109.99', '190608051001', ''),</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1051, 1051, 1, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 4 DAY), 0, 0, 1, null, '109.99', '190608051001', '', 1),</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>1052</v>
       </c>
@@ -18370,12 +18530,15 @@
         <v>1532</v>
       </c>
       <c r="L53" s="11"/>
-      <c r="M53" s="11" t="str">
+      <c r="M53" s="6">
+        <v>1</v>
+      </c>
+      <c r="N53" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1052, 1052, 2, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 3 DAY), 0, 0, 2, null, '119.99', '190608052001', ''),</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1052, 1052, 2, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 3 DAY), 0, 0, 2, null, '119.99', '190608052001', '', 1),</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>1053</v>
       </c>
@@ -18410,12 +18573,15 @@
         <v>1533</v>
       </c>
       <c r="L54" s="11"/>
-      <c r="M54" s="11" t="str">
+      <c r="M54" s="6">
+        <v>1</v>
+      </c>
+      <c r="N54" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1053, 1053, 1, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 0, 0, 2, null, '109.99', '190609053001', ''),</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1053, 1053, 1, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 0, 0, 2, null, '109.99', '190609053001', '', 1),</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>1054</v>
       </c>
@@ -18450,12 +18616,15 @@
         <v>1534</v>
       </c>
       <c r="L55" s="11"/>
-      <c r="M55" s="11" t="str">
+      <c r="M55" s="6">
+        <v>1</v>
+      </c>
+      <c r="N55" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1054, 1054, 2, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 4 DAY), 0, 0, 1, null, '119.99', '190609054001', ''),</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1054, 1054, 2, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 4 DAY), 0, 0, 1, null, '119.99', '190609054001', '', 1),</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>1055</v>
       </c>
@@ -18490,12 +18659,15 @@
         <v>1535</v>
       </c>
       <c r="L56" s="11"/>
-      <c r="M56" s="11" t="str">
+      <c r="M56" s="6">
+        <v>1</v>
+      </c>
+      <c r="N56" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1055, 1055, 1, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 3 DAY), 0, 0, 3, null, '109.99', '190609055001', ''),</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1055, 1055, 1, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 3 DAY), 0, 0, 3, null, '109.99', '190609055001', '', 1),</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>1056</v>
       </c>
@@ -18530,12 +18702,15 @@
         <v>1536</v>
       </c>
       <c r="L57" s="11"/>
-      <c r="M57" s="11" t="str">
+      <c r="M57" s="6">
+        <v>1</v>
+      </c>
+      <c r="N57" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1056, 1056, 3, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 1 DAY), 0, 0, 1, null, '129.99', '190609056001', ''),</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1056, 1056, 3, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 1 DAY), 0, 0, 1, null, '129.99', '190609056001', '', 1),</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>1057</v>
       </c>
@@ -18570,12 +18745,15 @@
         <v>1537</v>
       </c>
       <c r="L58" s="11"/>
-      <c r="M58" s="11" t="str">
+      <c r="M58" s="6">
+        <v>1</v>
+      </c>
+      <c r="N58" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1057, 1057, 1, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 1 DAY), 0, 0, 2, null, '109.99', '190609057001', ''),</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1057, 1057, 1, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 1 DAY), 0, 0, 2, null, '109.99', '190609057001', '', 1),</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>1058</v>
       </c>
@@ -18610,12 +18788,15 @@
         <v>1538</v>
       </c>
       <c r="L59" s="11"/>
-      <c r="M59" s="11" t="str">
+      <c r="M59" s="6">
+        <v>1</v>
+      </c>
+      <c r="N59" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1058, 1058, 3, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 0, 0, 2, null, '129.99', '190610058001', ''),</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1058, 1058, 3, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 0, 0, 2, null, '129.99', '190610058001', '', 1),</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>1059</v>
       </c>
@@ -18650,12 +18831,15 @@
         <v>1539</v>
       </c>
       <c r="L60" s="11"/>
-      <c r="M60" s="11" t="str">
+      <c r="M60" s="6">
+        <v>1</v>
+      </c>
+      <c r="N60" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1059, 1059, 1, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 1 DAY), 0, 0, 1, null, '109.99', '190610059001', ''),</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1059, 1059, 1, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 1 DAY), 0, 0, 1, null, '109.99', '190610059001', '', 1),</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>1060</v>
       </c>
@@ -18690,12 +18874,15 @@
         <v>1540</v>
       </c>
       <c r="L61" s="11"/>
-      <c r="M61" s="11" t="str">
+      <c r="M61" s="6">
+        <v>1</v>
+      </c>
+      <c r="N61" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1060, 1060, 3, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 4 DAY), 0, 0, 3, null, '129.99', '190610060001', ''),</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1060, 1060, 3, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 4 DAY), 0, 0, 3, null, '129.99', '190610060001', '', 1),</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>1061</v>
       </c>
@@ -18732,12 +18919,15 @@
       <c r="L62" s="11" t="s">
         <v>1478</v>
       </c>
-      <c r="M62" s="11" t="str">
+      <c r="M62" s="6">
+        <v>1</v>
+      </c>
+      <c r="N62" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1061, 1061, 1, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 3 DAY), 0, 0, 1, null, '109.99', '190610061001', 'needs a late checkout time'),</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1061, 1061, 1, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 3 DAY), 0, 0, 1, null, '109.99', '190610061001', 'needs a late checkout time', 1),</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>1062</v>
       </c>
@@ -18772,12 +18962,15 @@
         <v>1542</v>
       </c>
       <c r="L63" s="11"/>
-      <c r="M63" s="11" t="str">
+      <c r="M63" s="6">
+        <v>1</v>
+      </c>
+      <c r="N63" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1062, 1062, 2, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 0, 0, 2, null, '119.99', '190611062001', ''),</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1062, 1062, 2, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 0, 0, 2, null, '119.99', '190611062001', '', 1),</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>1063</v>
       </c>
@@ -18812,12 +19005,15 @@
         <v>1543</v>
       </c>
       <c r="L64" s="11"/>
-      <c r="M64" s="11" t="str">
+      <c r="M64" s="6">
+        <v>1</v>
+      </c>
+      <c r="N64" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1063, 1063, 1, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 5 DAY), 0, 0, 2, null, '109.99', '190611063001', ''),</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1063, 1063, 1, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 5 DAY), 0, 0, 2, null, '109.99', '190611063001', '', 1),</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>1064</v>
       </c>
@@ -18852,12 +19048,15 @@
         <v>1544</v>
       </c>
       <c r="L65" s="11"/>
-      <c r="M65" s="11" t="str">
+      <c r="M65" s="6">
+        <v>1</v>
+      </c>
+      <c r="N65" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1064, 1064, 2, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 3 DAY), 0, 0, 1, null, '119.99', '190612064001', ''),</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1064, 1064, 2, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 3 DAY), 0, 0, 1, null, '119.99', '190612064001', '', 1),</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>1065</v>
       </c>
@@ -18894,12 +19093,15 @@
       <c r="L66" s="11" t="s">
         <v>1479</v>
       </c>
-      <c r="M66" s="11" t="str">
+      <c r="M66" s="6">
+        <v>1</v>
+      </c>
+      <c r="N66" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>(1065, 1065, 1, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 1 DAY), 0, 0, 3, null, '109.99', '190612065001', 'wants a large screen tv'),</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1065, 1065, 1, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 1 DAY), 0, 0, 3, null, '109.99', '190612065001', 'wants a large screen tv', 1),</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>1066</v>
       </c>
@@ -18934,12 +19136,15 @@
         <v>1546</v>
       </c>
       <c r="L67" s="11"/>
-      <c r="M67" s="11" t="str">
-        <f t="shared" ref="M67:M130" si="1">"("&amp;A67&amp;", "&amp;B67&amp;", "&amp;C67&amp;", "&amp;D67&amp;", "&amp;E67&amp;", "&amp;F67&amp;", "&amp;G67&amp;", "&amp;H67&amp;", "&amp;I67&amp;", '"&amp;J67&amp;"', '"&amp;K67&amp;"', '"&amp;L67&amp;"'),"</f>
-        <v>(1066, 1066, 3, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 4 DAY), 0, 0, 1, null, '129.99', '190613066001', ''),</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M67" s="6">
+        <v>1</v>
+      </c>
+      <c r="N67" s="11" t="str">
+        <f t="shared" ref="N67:N130" si="1">"("&amp;A67&amp;", "&amp;B67&amp;", "&amp;C67&amp;", "&amp;D67&amp;", "&amp;E67&amp;", "&amp;F67&amp;", "&amp;G67&amp;", "&amp;H67&amp;", "&amp;I67&amp;", '"&amp;J67&amp;"', '"&amp;K67&amp;"', '"&amp;L67&amp;"', "&amp;M67&amp;"),"</f>
+        <v>(1066, 1066, 3, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 4 DAY), 0, 0, 1, null, '129.99', '190613066001', '', 1),</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>1067</v>
       </c>
@@ -18974,12 +19179,15 @@
         <v>1547</v>
       </c>
       <c r="L68" s="11"/>
-      <c r="M68" s="11" t="str">
+      <c r="M68" s="6">
+        <v>1</v>
+      </c>
+      <c r="N68" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1067, 1067, 1, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 3 DAY), 0, 0, 2, null, '109.99', '190613067001', ''),</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1067, 1067, 1, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 3 DAY), 0, 0, 2, null, '109.99', '190613067001', '', 1),</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>1068</v>
       </c>
@@ -19014,12 +19222,15 @@
         <v>1548</v>
       </c>
       <c r="L69" s="11"/>
-      <c r="M69" s="11" t="str">
+      <c r="M69" s="6">
+        <v>1</v>
+      </c>
+      <c r="N69" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1068, 1068, 3, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 1 DAY), 0, 0, 2, null, '129.99', '190613068001', ''),</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1068, 1068, 3, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 1 DAY), 0, 0, 2, null, '129.99', '190613068001', '', 1),</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>1069</v>
       </c>
@@ -19054,12 +19265,15 @@
         <v>1549</v>
       </c>
       <c r="L70" s="11"/>
-      <c r="M70" s="11" t="str">
+      <c r="M70" s="6">
+        <v>1</v>
+      </c>
+      <c r="N70" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1069, 1069, 1, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 1 DAY), 0, 0, 1, null, '109.99', '190613069001', ''),</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1069, 1069, 1, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 1 DAY), 0, 0, 1, null, '109.99', '190613069001', '', 1),</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>1070</v>
       </c>
@@ -19094,12 +19308,15 @@
         <v>1550</v>
       </c>
       <c r="L71" s="11"/>
-      <c r="M71" s="11" t="str">
+      <c r="M71" s="6">
+        <v>1</v>
+      </c>
+      <c r="N71" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1070, 1070, 3, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 0, 0, 3, null, '129.99', '190614070001', ''),</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1070, 1070, 3, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 0, 0, 3, null, '129.99', '190614070001', '', 1),</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>1071</v>
       </c>
@@ -19134,12 +19351,15 @@
         <v>1551</v>
       </c>
       <c r="L72" s="11"/>
-      <c r="M72" s="11" t="str">
+      <c r="M72" s="6">
+        <v>1</v>
+      </c>
+      <c r="N72" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1071, 1071, 1, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 10 DAY), 0, 0, 1, null, '109.99', '190614071001', ''),</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1071, 1071, 1, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 10 DAY), 0, 0, 1, null, '109.99', '190614071001', '', 1),</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>1072</v>
       </c>
@@ -19174,12 +19394,15 @@
         <v>1552</v>
       </c>
       <c r="L73" s="11"/>
-      <c r="M73" s="11" t="str">
+      <c r="M73" s="6">
+        <v>1</v>
+      </c>
+      <c r="N73" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1072, 1072, 2, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 4 DAY), 0, 0, 2, null, '119.99', '190614072001', ''),</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1072, 1072, 2, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 4 DAY), 0, 0, 2, null, '119.99', '190614072001', '', 1),</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>1073</v>
       </c>
@@ -19216,12 +19439,15 @@
       <c r="L74" s="11" t="s">
         <v>1478</v>
       </c>
-      <c r="M74" s="11" t="str">
+      <c r="M74" s="6">
+        <v>1</v>
+      </c>
+      <c r="N74" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1073, 1073, 1, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 3 DAY), 0, 0, 2, null, '109.99', '190615073001', 'needs a late checkout time'),</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1073, 1073, 1, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 3 DAY), 0, 0, 2, null, '109.99', '190615073001', 'needs a late checkout time', 1),</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>1074</v>
       </c>
@@ -19256,12 +19482,15 @@
         <v>1554</v>
       </c>
       <c r="L75" s="11"/>
-      <c r="M75" s="11" t="str">
+      <c r="M75" s="6">
+        <v>1</v>
+      </c>
+      <c r="N75" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1074, 1074, 2, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 0, 0, 1, null, '119.99', '190615074001', ''),</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1074, 1074, 2, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 0, 0, 1, null, '119.99', '190615074001', '', 1),</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <v>1075</v>
       </c>
@@ -19296,12 +19525,15 @@
         <v>1555</v>
       </c>
       <c r="L76" s="11"/>
-      <c r="M76" s="11" t="str">
+      <c r="M76" s="6">
+        <v>1</v>
+      </c>
+      <c r="N76" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1075, 1075, 1, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 5 DAY), 0, 0, 3, null, '109.99', '190615075001', ''),</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1075, 1075, 1, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 5 DAY), 0, 0, 3, null, '109.99', '190615075001', '', 1),</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
         <v>1076</v>
       </c>
@@ -19336,12 +19568,15 @@
         <v>1556</v>
       </c>
       <c r="L77" s="11"/>
-      <c r="M77" s="11" t="str">
+      <c r="M77" s="6">
+        <v>1</v>
+      </c>
+      <c r="N77" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1076, 1076, 3, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 3 DAY), 0, 0, 1, null, '129.99', '190615076001', ''),</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1076, 1076, 3, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 3 DAY), 0, 0, 1, null, '129.99', '190615076001', '', 1),</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
         <v>1077</v>
       </c>
@@ -19376,12 +19611,15 @@
         <v>1557</v>
       </c>
       <c r="L78" s="11"/>
-      <c r="M78" s="11" t="str">
+      <c r="M78" s="6">
+        <v>1</v>
+      </c>
+      <c r="N78" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1077, 1077, 1, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 1 DAY), 0, 0, 2, null, '109.99', '190615077001', ''),</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1077, 1077, 1, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 1 DAY), 0, 0, 2, null, '109.99', '190615077001', '', 1),</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
         <v>1078</v>
       </c>
@@ -19416,12 +19654,15 @@
         <v>1558</v>
       </c>
       <c r="L79" s="11"/>
-      <c r="M79" s="11" t="str">
+      <c r="M79" s="6">
+        <v>1</v>
+      </c>
+      <c r="N79" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1078, 1078, 3, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 4 DAY), 0, 0, 2, null, '129.99', '190616078001', ''),</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1078, 1078, 3, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 4 DAY), 0, 0, 2, null, '129.99', '190616078001', '', 1),</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
         <v>1079</v>
       </c>
@@ -19456,12 +19697,15 @@
         <v>1559</v>
       </c>
       <c r="L80" s="11"/>
-      <c r="M80" s="11" t="str">
+      <c r="M80" s="6">
+        <v>1</v>
+      </c>
+      <c r="N80" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1079, 1079, 1, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 1 DAY), 0, 0, 1, null, '109.99', '190616079001', ''),</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1079, 1079, 1, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 1 DAY), 0, 0, 1, null, '109.99', '190616079001', '', 1),</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
         <v>1080</v>
       </c>
@@ -19496,12 +19740,15 @@
         <v>1560</v>
       </c>
       <c r="L81" s="11"/>
-      <c r="M81" s="11" t="str">
+      <c r="M81" s="6">
+        <v>1</v>
+      </c>
+      <c r="N81" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1080, 1080, 3, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 3 DAY), 0, 0, 3, null, '129.99', '190616080001', ''),</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1080, 1080, 3, CURDATE(), DATE_ADD(CURDATE(), INTERVAL 3 DAY), 0, 0, 3, null, '129.99', '190616080001', '', 1),</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
         <v>1081</v>
       </c>
@@ -19536,12 +19783,15 @@
         <v>1561</v>
       </c>
       <c r="L82" s="11"/>
-      <c r="M82" s="11" t="str">
+      <c r="M82" s="6">
+        <v>1</v>
+      </c>
+      <c r="N82" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1081, 1081, 1, DATE_SUB(CURDATE(), INTERVAL 3 DAY), CURDATE(), 1, 0, 1, 17, '109.99', '190616081001', ''),</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1081, 1081, 1, DATE_SUB(CURDATE(), INTERVAL 3 DAY), CURDATE(), 1, 0, 1, 17, '109.99', '190616081001', '', 1),</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
         <v>1082</v>
       </c>
@@ -19576,12 +19826,15 @@
         <v>1562</v>
       </c>
       <c r="L83" s="11"/>
-      <c r="M83" s="11" t="str">
+      <c r="M83" s="6">
+        <v>1</v>
+      </c>
+      <c r="N83" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1082, 1082, 2, DATE_SUB(CURDATE(), INTERVAL 3 DAY), CURDATE(), 1, 0, 2, 14, '119.99', '190617082001', ''),</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1082, 1082, 2, DATE_SUB(CURDATE(), INTERVAL 3 DAY), CURDATE(), 1, 0, 2, 14, '119.99', '190617082001', '', 1),</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
         <v>1083</v>
       </c>
@@ -19618,12 +19871,15 @@
       <c r="L84" s="11" t="s">
         <v>1478</v>
       </c>
-      <c r="M84" s="11" t="str">
+      <c r="M84" s="6">
+        <v>1</v>
+      </c>
+      <c r="N84" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1083, 1083, 1, DATE_SUB(CURDATE(), INTERVAL 3 DAY), CURDATE(), 1, 0, 2, 19, '109.99', '190617083001', 'needs a late checkout time'),</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1083, 1083, 1, DATE_SUB(CURDATE(), INTERVAL 3 DAY), CURDATE(), 1, 0, 2, 19, '109.99', '190617083001', 'needs a late checkout time', 1),</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
         <v>1084</v>
       </c>
@@ -19658,12 +19914,15 @@
         <v>1564</v>
       </c>
       <c r="L85" s="11"/>
-      <c r="M85" s="11" t="str">
+      <c r="M85" s="6">
+        <v>1</v>
+      </c>
+      <c r="N85" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1084, 1084, 2, DATE_SUB(CURDATE(), INTERVAL 3 DAY), CURDATE(), 1, 0, 1, 22, '119.99', '190617084001', ''),</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1084, 1084, 2, DATE_SUB(CURDATE(), INTERVAL 3 DAY), CURDATE(), 1, 0, 1, 22, '119.99', '190617084001', '', 1),</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
         <v>1085</v>
       </c>
@@ -19698,12 +19957,15 @@
         <v>1565</v>
       </c>
       <c r="L86" s="11"/>
-      <c r="M86" s="11" t="str">
+      <c r="M86" s="6">
+        <v>1</v>
+      </c>
+      <c r="N86" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1085, 1085, 1, DATE_SUB(CURDATE(), INTERVAL 4 DAY), CURDATE(), 1, 0, 3, 3, '109.99', '190617085001', ''),</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1085, 1085, 1, DATE_SUB(CURDATE(), INTERVAL 4 DAY), CURDATE(), 1, 0, 3, 3, '109.99', '190617085001', '', 1),</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
         <v>1086</v>
       </c>
@@ -19738,12 +20000,15 @@
         <v>1566</v>
       </c>
       <c r="L87" s="11"/>
-      <c r="M87" s="11" t="str">
+      <c r="M87" s="6">
+        <v>1</v>
+      </c>
+      <c r="N87" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1086, 1086, 3, DATE_SUB(CURDATE(), INTERVAL 3 DAY), CURDATE(), 1, 0, 4, 16, '129.99', '190618086001', ''),</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1086, 1086, 3, DATE_SUB(CURDATE(), INTERVAL 3 DAY), CURDATE(), 1, 0, 4, 16, '129.99', '190618086001', '', 1),</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
         <v>1087</v>
       </c>
@@ -19778,12 +20043,15 @@
         <v>1567</v>
       </c>
       <c r="L88" s="11"/>
-      <c r="M88" s="11" t="str">
+      <c r="M88" s="6">
+        <v>1</v>
+      </c>
+      <c r="N88" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1087, 1087, 1, DATE_SUB(CURDATE(), INTERVAL 2 DAY), CURDATE(), 1, 0, 2, 43, '109.99', '190618087001', ''),</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1087, 1087, 1, DATE_SUB(CURDATE(), INTERVAL 2 DAY), CURDATE(), 1, 0, 2, 43, '109.99', '190618087001', '', 1),</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="6">
         <v>1088</v>
       </c>
@@ -19820,12 +20088,15 @@
       <c r="L89" s="11" t="s">
         <v>1480</v>
       </c>
-      <c r="M89" s="11" t="str">
+      <c r="M89" s="6">
+        <v>1</v>
+      </c>
+      <c r="N89" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1088, 1088, 3, DATE_SUB(CURDATE(), INTERVAL 2 DAY), CURDATE(), 1, 0, 2, 38, '129.99', '190618088001', 'wants a good view'),</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1088, 1088, 3, DATE_SUB(CURDATE(), INTERVAL 2 DAY), CURDATE(), 1, 0, 2, 38, '129.99', '190618088001', 'wants a good view', 1),</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="6">
         <v>1089</v>
       </c>
@@ -19860,12 +20131,15 @@
         <v>1569</v>
       </c>
       <c r="L90" s="11"/>
-      <c r="M90" s="11" t="str">
+      <c r="M90" s="6">
+        <v>1</v>
+      </c>
+      <c r="N90" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1089, 1089, 1, DATE_SUB(CURDATE(), INTERVAL 2 DAY), CURDATE(), 1, 0, 1, 45, '109.99', '190618089001', ''),</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1089, 1089, 1, DATE_SUB(CURDATE(), INTERVAL 2 DAY), CURDATE(), 1, 0, 1, 45, '109.99', '190618089001', '', 1),</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="6">
         <v>1090</v>
       </c>
@@ -19900,12 +20174,15 @@
         <v>1570</v>
       </c>
       <c r="L91" s="11"/>
-      <c r="M91" s="11" t="str">
+      <c r="M91" s="6">
+        <v>1</v>
+      </c>
+      <c r="N91" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1090, 1090, 3, DATE_SUB(CURDATE(), INTERVAL 2 DAY), CURDATE(), 1, 0, 3, 40, '129.99', '190619090001', ''),</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1090, 1090, 3, DATE_SUB(CURDATE(), INTERVAL 2 DAY), CURDATE(), 1, 0, 3, 40, '129.99', '190619090001', '', 1),</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="6">
         <v>1091</v>
       </c>
@@ -19940,12 +20217,15 @@
         <v>1571</v>
       </c>
       <c r="L92" s="11"/>
-      <c r="M92" s="11" t="str">
+      <c r="M92" s="6">
+        <v>1</v>
+      </c>
+      <c r="N92" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1091, 1091, 1, DATE_SUB(CURDATE(), INTERVAL 2 DAY), CURDATE(), 1, 0, 1, 47, '109.99', '190619091001', ''),</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1091, 1091, 1, DATE_SUB(CURDATE(), INTERVAL 2 DAY), CURDATE(), 1, 0, 1, 47, '109.99', '190619091001', '', 1),</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="6">
         <v>1092</v>
       </c>
@@ -19980,12 +20260,15 @@
         <v>1572</v>
       </c>
       <c r="L93" s="11"/>
-      <c r="M93" s="11" t="str">
+      <c r="M93" s="6">
+        <v>1</v>
+      </c>
+      <c r="N93" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1092, 1092, 2, DATE_SUB(CURDATE(), INTERVAL 6 DAY), CURDATE(), 1, 0, 2, 2, '119.99', '190619092001', ''),</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1092, 1092, 2, DATE_SUB(CURDATE(), INTERVAL 6 DAY), CURDATE(), 1, 0, 2, 2, '119.99', '190619092001', '', 1),</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="6">
         <v>1093</v>
       </c>
@@ -20020,12 +20303,15 @@
         <v>1573</v>
       </c>
       <c r="L94" s="11"/>
-      <c r="M94" s="11" t="str">
+      <c r="M94" s="6">
+        <v>1</v>
+      </c>
+      <c r="N94" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1093, 1093, 1, DATE_SUB(CURDATE(), INTERVAL 2 DAY), CURDATE(), 1, 0, 2, 49, '109.99', '190619093001', ''),</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1093, 1093, 1, DATE_SUB(CURDATE(), INTERVAL 2 DAY), CURDATE(), 1, 0, 2, 49, '109.99', '190619093001', '', 1),</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="6">
         <v>1094</v>
       </c>
@@ -20060,12 +20346,15 @@
         <v>1574</v>
       </c>
       <c r="L95" s="11"/>
-      <c r="M95" s="11" t="str">
+      <c r="M95" s="6">
+        <v>1</v>
+      </c>
+      <c r="N95" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1094, 1094, 2, DATE_SUB(CURDATE(), INTERVAL 2 DAY), CURDATE(), 1, 0, 1, 44, '119.99', '190619094001', ''),</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1094, 1094, 2, DATE_SUB(CURDATE(), INTERVAL 2 DAY), CURDATE(), 1, 0, 1, 44, '119.99', '190619094001', '', 1),</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" s="6">
         <v>1095</v>
       </c>
@@ -20100,12 +20389,15 @@
         <v>1575</v>
       </c>
       <c r="L96" s="11"/>
-      <c r="M96" s="11" t="str">
+      <c r="M96" s="6">
+        <v>1</v>
+      </c>
+      <c r="N96" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1095, 1095, 1, DATE_SUB(CURDATE(), INTERVAL 2 DAY), CURDATE(), 1, 0, 3, 51, '109.99', '190619095001', ''),</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1095, 1095, 1, DATE_SUB(CURDATE(), INTERVAL 2 DAY), CURDATE(), 1, 0, 3, 51, '109.99', '190619095001', '', 1),</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="6">
         <v>1096</v>
       </c>
@@ -20140,12 +20432,15 @@
         <v>1576</v>
       </c>
       <c r="L97" s="11"/>
-      <c r="M97" s="11" t="str">
+      <c r="M97" s="6">
+        <v>1</v>
+      </c>
+      <c r="N97" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1096, 1096, 3, DATE_SUB(CURDATE(), INTERVAL 1 DAY), CURDATE(), 1, 0, 3, 68, '129.99', '190619096001', ''),</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1096, 1096, 3, DATE_SUB(CURDATE(), INTERVAL 1 DAY), CURDATE(), 1, 0, 3, 68, '129.99', '190619096001', '', 1),</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="6">
         <v>1097</v>
       </c>
@@ -20180,12 +20475,15 @@
         <v>1577</v>
       </c>
       <c r="L98" s="11"/>
-      <c r="M98" s="11" t="str">
+      <c r="M98" s="6">
+        <v>1</v>
+      </c>
+      <c r="N98" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1097, 1097, 1, DATE_SUB(CURDATE(), INTERVAL 4 DAY), CURDATE(), 1, 0, 2, 5, '109.99', '190620097001', ''),</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1097, 1097, 1, DATE_SUB(CURDATE(), INTERVAL 4 DAY), CURDATE(), 1, 0, 2, 5, '109.99', '190620097001', '', 1),</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="6">
         <v>1098</v>
       </c>
@@ -20220,12 +20518,15 @@
         <v>1578</v>
       </c>
       <c r="L99" s="11"/>
-      <c r="M99" s="11" t="str">
+      <c r="M99" s="6">
+        <v>1</v>
+      </c>
+      <c r="N99" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1098, 1098, 3, DATE_SUB(CURDATE(), INTERVAL 1 DAY), CURDATE(), 1, 0, 2, 70, '129.99', '190620098001', ''),</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1098, 1098, 3, DATE_SUB(CURDATE(), INTERVAL 1 DAY), CURDATE(), 1, 0, 2, 70, '129.99', '190620098001', '', 1),</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="6">
         <v>1099</v>
       </c>
@@ -20262,12 +20563,15 @@
       <c r="L100" s="11" t="s">
         <v>1478</v>
       </c>
-      <c r="M100" s="11" t="str">
+      <c r="M100" s="6">
+        <v>1</v>
+      </c>
+      <c r="N100" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1099, 1099, 1, DATE_SUB(CURDATE(), INTERVAL 2 DAY), CURDATE(), 1, 0, 1, 53, '109.99', '190620099001', 'needs a late checkout time'),</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1099, 1099, 1, DATE_SUB(CURDATE(), INTERVAL 2 DAY), CURDATE(), 1, 0, 1, 53, '109.99', '190620099001', 'needs a late checkout time', 1),</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="6">
         <v>1100</v>
       </c>
@@ -20302,12 +20606,15 @@
         <v>1580</v>
       </c>
       <c r="L101" s="11"/>
-      <c r="M101" s="11" t="str">
+      <c r="M101" s="6">
+        <v>1</v>
+      </c>
+      <c r="N101" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1100, 1100, 3, DATE_SUB(CURDATE(), INTERVAL 1 DAY), CURDATE(), 1, 0, 3, 76, '129.99', '190620100001', ''),</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1100, 1100, 3, DATE_SUB(CURDATE(), INTERVAL 1 DAY), CURDATE(), 1, 0, 3, 76, '129.99', '190620100001', '', 1),</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="6">
         <v>1101</v>
       </c>
@@ -20342,12 +20649,15 @@
         <v>1581</v>
       </c>
       <c r="L102" s="11"/>
-      <c r="M102" s="11" t="str">
+      <c r="M102" s="6">
+        <v>1</v>
+      </c>
+      <c r="N102" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1101, 1101, 1, DATE_SUB(CURDATE(), INTERVAL 6 DAY), CURDATE(), 1, 0, 1, 1, '109.99', '190621101001', ''),</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1101, 1101, 1, DATE_SUB(CURDATE(), INTERVAL 6 DAY), CURDATE(), 1, 0, 1, 1, '109.99', '190621101001', '', 1),</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" s="6">
         <v>1102</v>
       </c>
@@ -20382,12 +20692,15 @@
         <v>1582</v>
       </c>
       <c r="L103" s="11"/>
-      <c r="M103" s="11" t="str">
+      <c r="M103" s="6">
+        <v>1</v>
+      </c>
+      <c r="N103" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1102, 1102, 2, DATE_SUB(CURDATE(), INTERVAL 1 DAY), CURDATE(), 1, 0, 2, 72, '119.99', '190621102001', ''),</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1102, 1102, 2, DATE_SUB(CURDATE(), INTERVAL 1 DAY), CURDATE(), 1, 0, 2, 72, '119.99', '190621102001', '', 1),</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" s="6">
         <v>1103</v>
       </c>
@@ -20422,12 +20735,15 @@
         <v>1583</v>
       </c>
       <c r="L104" s="11"/>
-      <c r="M104" s="11" t="str">
+      <c r="M104" s="6">
+        <v>1</v>
+      </c>
+      <c r="N104" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1103, 1103, 1, DATE_SUB(CURDATE(), INTERVAL 1 DAY), CURDATE(), 1, 0, 2, 75, '109.99', '190621103001', ''),</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1103, 1103, 1, DATE_SUB(CURDATE(), INTERVAL 1 DAY), CURDATE(), 1, 0, 2, 75, '109.99', '190621103001', '', 1),</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" s="6">
         <v>1104</v>
       </c>
@@ -20462,12 +20778,15 @@
         <v>1584</v>
       </c>
       <c r="L105" s="11"/>
-      <c r="M105" s="11" t="str">
+      <c r="M105" s="6">
+        <v>1</v>
+      </c>
+      <c r="N105" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1104, 1104, 2, DATE_SUB(CURDATE(), INTERVAL 2 DAY), CURDATE(), 1, 0, 1, 52, '119.99', '190621104001', ''),</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1104, 1104, 2, DATE_SUB(CURDATE(), INTERVAL 2 DAY), CURDATE(), 1, 0, 1, 52, '119.99', '190621104001', '', 1),</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" s="6">
         <v>1105</v>
       </c>
@@ -20502,12 +20821,15 @@
         <v>1585</v>
       </c>
       <c r="L106" s="11"/>
-      <c r="M106" s="11" t="str">
+      <c r="M106" s="6">
+        <v>1</v>
+      </c>
+      <c r="N106" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1105, 1105, 1, DATE_SUB(CURDATE(), INTERVAL 1 DAY), CURDATE(), 1, 0, 3, 77, '109.99', '190622105001', ''),</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1105, 1105, 1, DATE_SUB(CURDATE(), INTERVAL 1 DAY), CURDATE(), 1, 0, 3, 77, '109.99', '190622105001', '', 1),</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" s="6">
         <v>1106</v>
       </c>
@@ -20542,12 +20864,15 @@
         <v>1586</v>
       </c>
       <c r="L107" s="11"/>
-      <c r="M107" s="11" t="str">
+      <c r="M107" s="6">
+        <v>1</v>
+      </c>
+      <c r="N107" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1106, 1106, 3, DATE_SUB(CURDATE(), INTERVAL 3 DAY), CURDATE(), 1, 0, 2, 18, '129.99', '190622106001', ''),</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1106, 1106, 3, DATE_SUB(CURDATE(), INTERVAL 3 DAY), CURDATE(), 1, 0, 2, 18, '129.99', '190622106001', '', 1),</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" s="6">
         <v>1107</v>
       </c>
@@ -20582,12 +20907,15 @@
         <v>1587</v>
       </c>
       <c r="L108" s="11"/>
-      <c r="M108" s="11" t="str">
+      <c r="M108" s="6">
+        <v>1</v>
+      </c>
+      <c r="N108" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1107, 1107, 1, DATE_SUB(CURDATE(), INTERVAL 3 DAY), CURDATE(), 1, 0, 2, 21, '109.99', '190623107001', ''),</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1107, 1107, 1, DATE_SUB(CURDATE(), INTERVAL 3 DAY), CURDATE(), 1, 0, 2, 21, '109.99', '190623107001', '', 1),</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="6">
         <v>1108</v>
       </c>
@@ -20622,12 +20950,15 @@
         <v>1588</v>
       </c>
       <c r="L109" s="11"/>
-      <c r="M109" s="11" t="str">
+      <c r="M109" s="6">
+        <v>1</v>
+      </c>
+      <c r="N109" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1108, 1108, 3, DATE_SUB(CURDATE(), INTERVAL 3 DAY), CURDATE(), 1, 0, 2, 20, '129.99', '190623108001', ''),</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1108, 1108, 3, DATE_SUB(CURDATE(), INTERVAL 3 DAY), CURDATE(), 1, 0, 2, 20, '129.99', '190623108001', '', 1),</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" s="6">
         <v>1109</v>
       </c>
@@ -20664,12 +20995,15 @@
       <c r="L110" s="11" t="s">
         <v>1478</v>
       </c>
-      <c r="M110" s="11" t="str">
+      <c r="M110" s="6">
+        <v>1</v>
+      </c>
+      <c r="N110" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1109, 1109, 1, DATE_SUB(CURDATE(), INTERVAL 2 DAY), CURDATE(), 1, 0, 1, 55, '109.99', '190623109001', 'needs a late checkout time'),</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1109, 1109, 1, DATE_SUB(CURDATE(), INTERVAL 2 DAY), CURDATE(), 1, 0, 1, 55, '109.99', '190623109001', 'needs a late checkout time', 1),</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" s="6">
         <v>1110</v>
       </c>
@@ -20704,12 +21038,15 @@
         <v>1590</v>
       </c>
       <c r="L111" s="11"/>
-      <c r="M111" s="11" t="str">
+      <c r="M111" s="6">
+        <v>1</v>
+      </c>
+      <c r="N111" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1110, 1110, 3, DATE_SUB(CURDATE(), INTERVAL 2 DAY), CURDATE(), 1, 0, 3, 46, '129.99', '190623110001', ''),</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1110, 1110, 3, DATE_SUB(CURDATE(), INTERVAL 2 DAY), CURDATE(), 1, 0, 3, 46, '129.99', '190623110001', '', 1),</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" s="6">
         <v>1111</v>
       </c>
@@ -20744,12 +21081,15 @@
         <v>1591</v>
       </c>
       <c r="L112" s="11"/>
-      <c r="M112" s="11" t="str">
+      <c r="M112" s="6">
+        <v>1</v>
+      </c>
+      <c r="N112" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1111, 1111, 1, DATE_SUB(CURDATE(), INTERVAL 2 DAY), CURDATE(), 1, 0, 1, 57, '109.99', '190624111001', ''),</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1111, 1111, 1, DATE_SUB(CURDATE(), INTERVAL 2 DAY), CURDATE(), 1, 0, 1, 57, '109.99', '190624111001', '', 1),</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" s="6">
         <v>1112</v>
       </c>
@@ -20784,12 +21124,15 @@
         <v>1592</v>
       </c>
       <c r="L113" s="11"/>
-      <c r="M113" s="11" t="str">
+      <c r="M113" s="6">
+        <v>1</v>
+      </c>
+      <c r="N113" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1112, 1112, 2, DATE_SUB(CURDATE(), INTERVAL 2 DAY), CURDATE(), 1, 0, 2, 54, '119.99', '190625112001', ''),</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1112, 1112, 2, DATE_SUB(CURDATE(), INTERVAL 2 DAY), CURDATE(), 1, 0, 2, 54, '119.99', '190625112001', '', 1),</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" s="6">
         <v>1113</v>
       </c>
@@ -20824,12 +21167,15 @@
         <v>1593</v>
       </c>
       <c r="L114" s="11"/>
-      <c r="M114" s="11" t="str">
+      <c r="M114" s="6">
+        <v>1</v>
+      </c>
+      <c r="N114" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1113, 1113, 1, DATE_SUB(CURDATE(), INTERVAL 2 DAY), CURDATE(), 1, 0, 2, 59, '109.99', '190625113001', ''),</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1113, 1113, 1, DATE_SUB(CURDATE(), INTERVAL 2 DAY), CURDATE(), 1, 0, 2, 59, '109.99', '190625113001', '', 1),</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" s="6">
         <v>1114</v>
       </c>
@@ -20864,12 +21210,15 @@
         <v>1594</v>
       </c>
       <c r="L115" s="11"/>
-      <c r="M115" s="11" t="str">
+      <c r="M115" s="6">
+        <v>1</v>
+      </c>
+      <c r="N115" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1114, 1114, 2, DATE_SUB(CURDATE(), INTERVAL 1 DAY), CURDATE(), 1, 0, 1, 74, '119.99', '190625114001', ''),</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1114, 1114, 2, DATE_SUB(CURDATE(), INTERVAL 1 DAY), CURDATE(), 1, 0, 1, 74, '119.99', '190625114001', '', 1),</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" s="6">
         <v>1115</v>
       </c>
@@ -20904,12 +21253,15 @@
         <v>1595</v>
       </c>
       <c r="L116" s="11"/>
-      <c r="M116" s="11" t="str">
+      <c r="M116" s="6">
+        <v>1</v>
+      </c>
+      <c r="N116" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1115, 1115, 1, DATE_SUB(CURDATE(), INTERVAL 4 DAY), CURDATE(), 1, 0, 3, 7, '109.99', '190625115001', ''),</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1115, 1115, 1, DATE_SUB(CURDATE(), INTERVAL 4 DAY), CURDATE(), 1, 0, 3, 7, '109.99', '190625115001', '', 1),</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" s="6">
         <v>1116</v>
       </c>
@@ -20944,12 +21296,15 @@
         <v>1596</v>
       </c>
       <c r="L117" s="11"/>
-      <c r="M117" s="11" t="str">
+      <c r="M117" s="6">
+        <v>1</v>
+      </c>
+      <c r="N117" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1116, 1116, 3, DATE_SUB(CURDATE(), INTERVAL 2 DAY), CURDATE(), 1, 0, 1, 48, '129.99', '190626116001', ''),</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1116, 1116, 3, DATE_SUB(CURDATE(), INTERVAL 2 DAY), CURDATE(), 1, 0, 1, 48, '129.99', '190626116001', '', 1),</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" s="6">
         <v>1117</v>
       </c>
@@ -20984,12 +21339,15 @@
         <v>1597</v>
       </c>
       <c r="L118" s="11"/>
-      <c r="M118" s="11" t="str">
+      <c r="M118" s="6">
+        <v>1</v>
+      </c>
+      <c r="N118" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1117, 1117, 1, DATE_SUB(CURDATE(), INTERVAL 2 DAY), CURDATE(), 1, 0, 2, 61, '109.99', '190626117001', ''),</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1117, 1117, 1, DATE_SUB(CURDATE(), INTERVAL 2 DAY), CURDATE(), 1, 0, 2, 61, '109.99', '190626117001', '', 1),</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" s="6">
         <v>1118</v>
       </c>
@@ -21024,12 +21382,15 @@
         <v>1598</v>
       </c>
       <c r="L119" s="11"/>
-      <c r="M119" s="11" t="str">
+      <c r="M119" s="6">
+        <v>1</v>
+      </c>
+      <c r="N119" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1118, 1118, 3, DATE_SUB(CURDATE(), INTERVAL 1 DAY), CURDATE(), 1, 0, 2, 78, '129.99', '190626118001', ''),</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1118, 1118, 3, DATE_SUB(CURDATE(), INTERVAL 1 DAY), CURDATE(), 1, 0, 2, 78, '129.99', '190626118001', '', 1),</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" s="6">
         <v>1119</v>
       </c>
@@ -21064,12 +21425,15 @@
         <v>1599</v>
       </c>
       <c r="L120" s="11"/>
-      <c r="M120" s="11" t="str">
+      <c r="M120" s="6">
+        <v>1</v>
+      </c>
+      <c r="N120" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1119, 1119, 1, DATE_SUB(CURDATE(), INTERVAL 1 DAY), CURDATE(), 1, 0, 1, 79, '109.99', '190626119001', ''),</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1119, 1119, 1, DATE_SUB(CURDATE(), INTERVAL 1 DAY), CURDATE(), 1, 0, 1, 79, '109.99', '190626119001', '', 1),</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" s="6">
         <v>1120</v>
       </c>
@@ -21104,12 +21468,15 @@
         <v>1600</v>
       </c>
       <c r="L121" s="11"/>
-      <c r="M121" s="11" t="str">
+      <c r="M121" s="6">
+        <v>1</v>
+      </c>
+      <c r="N121" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1120, 1120, 3, DATE_SUB(CURDATE(), INTERVAL 1 DAY), CURDATE(), 1, 0, 3, 80, '129.99', '190627120001', ''),</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1120, 1120, 3, DATE_SUB(CURDATE(), INTERVAL 1 DAY), CURDATE(), 1, 0, 3, 80, '129.99', '190627120001', '', 1),</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" s="6">
         <v>1121</v>
       </c>
@@ -21144,12 +21511,15 @@
         <v>1601</v>
       </c>
       <c r="L122" s="11"/>
-      <c r="M122" s="11" t="str">
+      <c r="M122" s="6">
+        <v>1</v>
+      </c>
+      <c r="N122" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1121, 1121, 1, DATE_ADD(CURDATE(), INTERVAL 1 DAY), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 0, 0, 1, null, '109.99', '190627121001', ''),</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1121, 1121, 1, DATE_ADD(CURDATE(), INTERVAL 1 DAY), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 0, 0, 1, null, '109.99', '190627121001', '', 1),</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" s="6">
         <v>1122</v>
       </c>
@@ -21186,12 +21556,15 @@
       <c r="L123" s="11" t="s">
         <v>1479</v>
       </c>
-      <c r="M123" s="11" t="str">
+      <c r="M123" s="6">
+        <v>1</v>
+      </c>
+      <c r="N123" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1122, 1122, 2, DATE_ADD(CURDATE(), INTERVAL 2 DAY), DATE_ADD(CURDATE(), INTERVAL 3 DAY), 0, 0, 2, null, '119.99', '190628122001', 'wants a large screen tv'),</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1122, 1122, 2, DATE_ADD(CURDATE(), INTERVAL 2 DAY), DATE_ADD(CURDATE(), INTERVAL 3 DAY), 0, 0, 2, null, '119.99', '190628122001', 'wants a large screen tv', 1),</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" s="6">
         <v>1123</v>
       </c>
@@ -21226,12 +21599,15 @@
         <v>1603</v>
       </c>
       <c r="L124" s="11"/>
-      <c r="M124" s="11" t="str">
+      <c r="M124" s="6">
+        <v>1</v>
+      </c>
+      <c r="N124" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1123, 1123, 1, DATE_ADD(CURDATE(), INTERVAL 3 DAY), DATE_ADD(CURDATE(), INTERVAL 4 DAY), 0, 0, 2, null, '109.99', '190628123001', ''),</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1123, 1123, 1, DATE_ADD(CURDATE(), INTERVAL 3 DAY), DATE_ADD(CURDATE(), INTERVAL 4 DAY), 0, 0, 2, null, '109.99', '190628123001', '', 1),</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" s="6">
         <v>1124</v>
       </c>
@@ -21266,12 +21642,15 @@
         <v>1604</v>
       </c>
       <c r="L125" s="11"/>
-      <c r="M125" s="11" t="str">
+      <c r="M125" s="6">
+        <v>1</v>
+      </c>
+      <c r="N125" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1124, 1124, 2, DATE_ADD(CURDATE(), INTERVAL 4 DAY), DATE_ADD(CURDATE(), INTERVAL 5 DAY), 0, 0, 1, null, '119.99', '190628124001', ''),</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1124, 1124, 2, DATE_ADD(CURDATE(), INTERVAL 4 DAY), DATE_ADD(CURDATE(), INTERVAL 5 DAY), 0, 0, 1, null, '119.99', '190628124001', '', 1),</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" s="6">
         <v>1125</v>
       </c>
@@ -21306,12 +21685,15 @@
         <v>1605</v>
       </c>
       <c r="L126" s="11"/>
-      <c r="M126" s="11" t="str">
+      <c r="M126" s="6">
+        <v>1</v>
+      </c>
+      <c r="N126" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1125, 1125, 1, DATE_ADD(CURDATE(), INTERVAL 5 DAY), DATE_ADD(CURDATE(), INTERVAL 6 DAY), 0, 0, 3, null, '109.99', '190628125001', ''),</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1125, 1125, 1, DATE_ADD(CURDATE(), INTERVAL 5 DAY), DATE_ADD(CURDATE(), INTERVAL 6 DAY), 0, 0, 3, null, '109.99', '190628125001', '', 1),</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" s="6">
         <v>1126</v>
       </c>
@@ -21346,12 +21728,15 @@
         <v>1606</v>
       </c>
       <c r="L127" s="11"/>
-      <c r="M127" s="11" t="str">
+      <c r="M127" s="6">
+        <v>1</v>
+      </c>
+      <c r="N127" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1126, 1126, 3, DATE_ADD(CURDATE(), INTERVAL 6 DAY), DATE_ADD(CURDATE(), INTERVAL 7 DAY), 0, 0, 1, null, '129.99', '190628126001', ''),</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1126, 1126, 3, DATE_ADD(CURDATE(), INTERVAL 6 DAY), DATE_ADD(CURDATE(), INTERVAL 7 DAY), 0, 0, 1, null, '129.99', '190628126001', '', 1),</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" s="6">
         <v>1127</v>
       </c>
@@ -21388,12 +21773,15 @@
       <c r="L128" s="11" t="s">
         <v>1478</v>
       </c>
-      <c r="M128" s="11" t="str">
+      <c r="M128" s="6">
+        <v>1</v>
+      </c>
+      <c r="N128" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1127, 1127, 1, DATE_ADD(CURDATE(), INTERVAL 7 DAY), DATE_ADD(CURDATE(), INTERVAL 8 DAY), 0, 0, 2, null, '109.99', '190629127001', 'needs a late checkout time'),</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1127, 1127, 1, DATE_ADD(CURDATE(), INTERVAL 7 DAY), DATE_ADD(CURDATE(), INTERVAL 8 DAY), 0, 0, 2, null, '109.99', '190629127001', 'needs a late checkout time', 1),</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" s="6">
         <v>1128</v>
       </c>
@@ -21428,12 +21816,15 @@
         <v>1608</v>
       </c>
       <c r="L129" s="11"/>
-      <c r="M129" s="11" t="str">
+      <c r="M129" s="6">
+        <v>1</v>
+      </c>
+      <c r="N129" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1128, 1128, 3, DATE_ADD(CURDATE(), INTERVAL 8 DAY), DATE_ADD(CURDATE(), INTERVAL 9 DAY), 0, 0, 2, null, '129.99', '190629128001', ''),</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1128, 1128, 3, DATE_ADD(CURDATE(), INTERVAL 8 DAY), DATE_ADD(CURDATE(), INTERVAL 9 DAY), 0, 0, 2, null, '129.99', '190629128001', '', 1),</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" s="6">
         <v>1129</v>
       </c>
@@ -21468,12 +21859,15 @@
         <v>1609</v>
       </c>
       <c r="L130" s="11"/>
-      <c r="M130" s="11" t="str">
+      <c r="M130" s="6">
+        <v>1</v>
+      </c>
+      <c r="N130" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>(1129, 1129, 1, DATE_ADD(CURDATE(), INTERVAL 9 DAY), DATE_ADD(CURDATE(), INTERVAL 10 DAY), 0, 0, 1, null, '109.99', '190629129001', ''),</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1129, 1129, 1, DATE_ADD(CURDATE(), INTERVAL 9 DAY), DATE_ADD(CURDATE(), INTERVAL 10 DAY), 0, 0, 1, null, '109.99', '190629129001', '', 1),</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" s="6">
         <v>1130</v>
       </c>
@@ -21508,12 +21902,15 @@
         <v>1610</v>
       </c>
       <c r="L131" s="11"/>
-      <c r="M131" s="11" t="str">
-        <f t="shared" ref="M131:M194" si="2">"("&amp;A131&amp;", "&amp;B131&amp;", "&amp;C131&amp;", "&amp;D131&amp;", "&amp;E131&amp;", "&amp;F131&amp;", "&amp;G131&amp;", "&amp;H131&amp;", "&amp;I131&amp;", '"&amp;J131&amp;"', '"&amp;K131&amp;"', '"&amp;L131&amp;"'),"</f>
-        <v>(1130, 1130, 3, DATE_ADD(CURDATE(), INTERVAL 10 DAY), DATE_ADD(CURDATE(), INTERVAL 13 DAY), 0, 0, 3, null, '129.99', '190629130001', ''),</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M131" s="6">
+        <v>1</v>
+      </c>
+      <c r="N131" s="11" t="str">
+        <f t="shared" ref="N131:N194" si="2">"("&amp;A131&amp;", "&amp;B131&amp;", "&amp;C131&amp;", "&amp;D131&amp;", "&amp;E131&amp;", "&amp;F131&amp;", "&amp;G131&amp;", "&amp;H131&amp;", "&amp;I131&amp;", '"&amp;J131&amp;"', '"&amp;K131&amp;"', '"&amp;L131&amp;"', "&amp;M131&amp;"),"</f>
+        <v>(1130, 1130, 3, DATE_ADD(CURDATE(), INTERVAL 10 DAY), DATE_ADD(CURDATE(), INTERVAL 13 DAY), 0, 0, 3, null, '129.99', '190629130001', '', 1),</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" s="6">
         <v>1131</v>
       </c>
@@ -21548,12 +21945,15 @@
         <v>1611</v>
       </c>
       <c r="L132" s="11"/>
-      <c r="M132" s="11" t="str">
+      <c r="M132" s="6">
+        <v>1</v>
+      </c>
+      <c r="N132" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1131, 1131, 1, DATE_ADD(CURDATE(), INTERVAL 1 DAY), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 0, 0, 1, null, '109.99', '190630131001', ''),</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1131, 1131, 1, DATE_ADD(CURDATE(), INTERVAL 1 DAY), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 0, 0, 1, null, '109.99', '190630131001', '', 1),</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" s="6">
         <v>1132</v>
       </c>
@@ -21588,12 +21988,15 @@
         <v>1612</v>
       </c>
       <c r="L133" s="11"/>
-      <c r="M133" s="11" t="str">
+      <c r="M133" s="6">
+        <v>1</v>
+      </c>
+      <c r="N133" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1132, 1132, 2, DATE_ADD(CURDATE(), INTERVAL 2 DAY), DATE_ADD(CURDATE(), INTERVAL 3 DAY), 0, 0, 2, null, '119.99', '190630132001', ''),</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1132, 1132, 2, DATE_ADD(CURDATE(), INTERVAL 2 DAY), DATE_ADD(CURDATE(), INTERVAL 3 DAY), 0, 0, 2, null, '119.99', '190630132001', '', 1),</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" s="6">
         <v>1133</v>
       </c>
@@ -21628,12 +22031,15 @@
         <v>1613</v>
       </c>
       <c r="L134" s="11"/>
-      <c r="M134" s="11" t="str">
+      <c r="M134" s="6">
+        <v>1</v>
+      </c>
+      <c r="N134" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1133, 1133, 1, DATE_ADD(CURDATE(), INTERVAL 3 DAY), DATE_ADD(CURDATE(), INTERVAL 4 DAY), 0, 0, 2, null, '109.99', '190630133001', ''),</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1133, 1133, 1, DATE_ADD(CURDATE(), INTERVAL 3 DAY), DATE_ADD(CURDATE(), INTERVAL 4 DAY), 0, 0, 2, null, '109.99', '190630133001', '', 1),</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" s="6">
         <v>1134</v>
       </c>
@@ -21668,12 +22074,15 @@
         <v>1614</v>
       </c>
       <c r="L135" s="11"/>
-      <c r="M135" s="11" t="str">
+      <c r="M135" s="6">
+        <v>1</v>
+      </c>
+      <c r="N135" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1134, 1134, 2, DATE_ADD(CURDATE(), INTERVAL 4 DAY), DATE_ADD(CURDATE(), INTERVAL 5 DAY), 0, 0, 2, null, '119.99', '190701134001', ''),</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1134, 1134, 2, DATE_ADD(CURDATE(), INTERVAL 4 DAY), DATE_ADD(CURDATE(), INTERVAL 5 DAY), 0, 0, 2, null, '119.99', '190701134001', '', 1),</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" s="6">
         <v>1135</v>
       </c>
@@ -21708,12 +22117,15 @@
         <v>1615</v>
       </c>
       <c r="L136" s="11"/>
-      <c r="M136" s="11" t="str">
+      <c r="M136" s="6">
+        <v>1</v>
+      </c>
+      <c r="N136" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1135, 1135, 1, DATE_ADD(CURDATE(), INTERVAL 5 DAY), DATE_ADD(CURDATE(), INTERVAL 8 DAY), 0, 0, 3, null, '109.99', '190701135001', ''),</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1135, 1135, 1, DATE_ADD(CURDATE(), INTERVAL 5 DAY), DATE_ADD(CURDATE(), INTERVAL 8 DAY), 0, 0, 3, null, '109.99', '190701135001', '', 1),</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" s="6">
         <v>1136</v>
       </c>
@@ -21748,12 +22160,15 @@
         <v>1616</v>
       </c>
       <c r="L137" s="11"/>
-      <c r="M137" s="11" t="str">
+      <c r="M137" s="6">
+        <v>1</v>
+      </c>
+      <c r="N137" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1136, 1136, 3, DATE_ADD(CURDATE(), INTERVAL 6 DAY), DATE_ADD(CURDATE(), INTERVAL 7 DAY), 0, 0, 4, null, '129.99', '190701136001', ''),</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1136, 1136, 3, DATE_ADD(CURDATE(), INTERVAL 6 DAY), DATE_ADD(CURDATE(), INTERVAL 7 DAY), 0, 0, 4, null, '129.99', '190701136001', '', 1),</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" s="6">
         <v>1137</v>
       </c>
@@ -21788,12 +22203,15 @@
         <v>1617</v>
       </c>
       <c r="L138" s="11"/>
-      <c r="M138" s="11" t="str">
+      <c r="M138" s="6">
+        <v>1</v>
+      </c>
+      <c r="N138" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1137, 1137, 1, DATE_ADD(CURDATE(), INTERVAL 7 DAY), DATE_ADD(CURDATE(), INTERVAL 11 DAY), 0, 0, 2, null, '109.99', '190701137001', ''),</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1137, 1137, 1, DATE_ADD(CURDATE(), INTERVAL 7 DAY), DATE_ADD(CURDATE(), INTERVAL 11 DAY), 0, 0, 2, null, '109.99', '190701137001', '', 1),</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" s="6">
         <v>1138</v>
       </c>
@@ -21828,12 +22246,15 @@
         <v>1618</v>
       </c>
       <c r="L139" s="11"/>
-      <c r="M139" s="11" t="str">
+      <c r="M139" s="6">
+        <v>1</v>
+      </c>
+      <c r="N139" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1138, 1138, 3, DATE_ADD(CURDATE(), INTERVAL 8 DAY), DATE_ADD(CURDATE(), INTERVAL 9 DAY), 0, 0, 2, null, '129.99', '190701138001', ''),</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1138, 1138, 3, DATE_ADD(CURDATE(), INTERVAL 8 DAY), DATE_ADD(CURDATE(), INTERVAL 9 DAY), 0, 0, 2, null, '129.99', '190701138001', '', 1),</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" s="6">
         <v>1139</v>
       </c>
@@ -21868,12 +22289,15 @@
         <v>1619</v>
       </c>
       <c r="L140" s="11"/>
-      <c r="M140" s="11" t="str">
+      <c r="M140" s="6">
+        <v>1</v>
+      </c>
+      <c r="N140" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1139, 1139, 1, DATE_ADD(CURDATE(), INTERVAL 9 DAY), DATE_ADD(CURDATE(), INTERVAL 12 DAY), 0, 0, 1, null, '109.99', '190701139001', ''),</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1139, 1139, 1, DATE_ADD(CURDATE(), INTERVAL 9 DAY), DATE_ADD(CURDATE(), INTERVAL 12 DAY), 0, 0, 1, null, '109.99', '190701139001', '', 1),</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" s="6">
         <v>1140</v>
       </c>
@@ -21910,12 +22334,15 @@
       <c r="L141" s="11" t="s">
         <v>1478</v>
       </c>
-      <c r="M141" s="11" t="str">
+      <c r="M141" s="6">
+        <v>1</v>
+      </c>
+      <c r="N141" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1140, 1140, 3, DATE_ADD(CURDATE(), INTERVAL 10 DAY), DATE_ADD(CURDATE(), INTERVAL 13 DAY), 0, 0, 3, null, '129.99', '190701140001', 'needs a late checkout time'),</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1140, 1140, 3, DATE_ADD(CURDATE(), INTERVAL 10 DAY), DATE_ADD(CURDATE(), INTERVAL 13 DAY), 0, 0, 3, null, '129.99', '190701140001', 'needs a late checkout time', 1),</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" s="6">
         <v>1141</v>
       </c>
@@ -21950,12 +22377,15 @@
         <v>1621</v>
       </c>
       <c r="L142" s="11"/>
-      <c r="M142" s="11" t="str">
+      <c r="M142" s="6">
+        <v>1</v>
+      </c>
+      <c r="N142" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1141, 1141, 1, DATE_ADD(CURDATE(), INTERVAL 1 DAY), DATE_ADD(CURDATE(), INTERVAL 6 DAY), 0, 0, 1, null, '109.99', '190701141001', ''),</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1141, 1141, 1, DATE_ADD(CURDATE(), INTERVAL 1 DAY), DATE_ADD(CURDATE(), INTERVAL 6 DAY), 0, 0, 1, null, '109.99', '190701141001', '', 1),</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" s="6">
         <v>1142</v>
       </c>
@@ -21990,12 +22420,15 @@
         <v>1622</v>
       </c>
       <c r="L143" s="11"/>
-      <c r="M143" s="11" t="str">
+      <c r="M143" s="6">
+        <v>1</v>
+      </c>
+      <c r="N143" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1142, 1142, 2, DATE_ADD(CURDATE(), INTERVAL 2 DAY), DATE_ADD(CURDATE(), INTERVAL 7 DAY), 0, 0, 2, null, '119.99', '190701142001', ''),</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1142, 1142, 2, DATE_ADD(CURDATE(), INTERVAL 2 DAY), DATE_ADD(CURDATE(), INTERVAL 7 DAY), 0, 0, 2, null, '119.99', '190701142001', '', 1),</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144" s="6">
         <v>1143</v>
       </c>
@@ -22030,12 +22463,15 @@
         <v>1623</v>
       </c>
       <c r="L144" s="11"/>
-      <c r="M144" s="11" t="str">
+      <c r="M144" s="6">
+        <v>1</v>
+      </c>
+      <c r="N144" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1143, 1143, 1, DATE_ADD(CURDATE(), INTERVAL 3 DAY), DATE_ADD(CURDATE(), INTERVAL 5 DAY), 0, 0, 2, null, '109.99', '190702143001', ''),</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1143, 1143, 1, DATE_ADD(CURDATE(), INTERVAL 3 DAY), DATE_ADD(CURDATE(), INTERVAL 5 DAY), 0, 0, 2, null, '109.99', '190702143001', '', 1),</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145" s="6">
         <v>1144</v>
       </c>
@@ -22070,12 +22506,15 @@
         <v>1624</v>
       </c>
       <c r="L145" s="11"/>
-      <c r="M145" s="11" t="str">
+      <c r="M145" s="6">
+        <v>1</v>
+      </c>
+      <c r="N145" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1144, 1144, 2, DATE_ADD(CURDATE(), INTERVAL 4 DAY), DATE_ADD(CURDATE(), INTERVAL 6 DAY), 0, 0, 1, null, '119.99', '190702144001', ''),</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1144, 1144, 2, DATE_ADD(CURDATE(), INTERVAL 4 DAY), DATE_ADD(CURDATE(), INTERVAL 6 DAY), 0, 0, 1, null, '119.99', '190702144001', '', 1),</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146" s="6">
         <v>1145</v>
       </c>
@@ -22112,12 +22551,15 @@
       <c r="L146" s="11" t="s">
         <v>1480</v>
       </c>
-      <c r="M146" s="11" t="str">
+      <c r="M146" s="6">
+        <v>1</v>
+      </c>
+      <c r="N146" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1145, 1145, 1, DATE_ADD(CURDATE(), INTERVAL 5 DAY), DATE_ADD(CURDATE(), INTERVAL 12 DAY), 0, 0, 3, null, '109.99', '190702145001', 'wants a good view'),</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1145, 1145, 1, DATE_ADD(CURDATE(), INTERVAL 5 DAY), DATE_ADD(CURDATE(), INTERVAL 12 DAY), 0, 0, 3, null, '109.99', '190702145001', 'wants a good view', 1),</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147" s="6">
         <v>1146</v>
       </c>
@@ -22152,12 +22594,15 @@
         <v>1626</v>
       </c>
       <c r="L147" s="11"/>
-      <c r="M147" s="11" t="str">
+      <c r="M147" s="6">
+        <v>1</v>
+      </c>
+      <c r="N147" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1146, 1146, 3, DATE_ADD(CURDATE(), INTERVAL 6 DAY), DATE_ADD(CURDATE(), INTERVAL 12 DAY), 0, 0, 4, null, '129.99', '190702146001', ''),</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1146, 1146, 3, DATE_ADD(CURDATE(), INTERVAL 6 DAY), DATE_ADD(CURDATE(), INTERVAL 12 DAY), 0, 0, 4, null, '129.99', '190702146001', '', 1),</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148" s="6">
         <v>1147</v>
       </c>
@@ -22192,12 +22637,15 @@
         <v>1627</v>
       </c>
       <c r="L148" s="11"/>
-      <c r="M148" s="11" t="str">
+      <c r="M148" s="6">
+        <v>1</v>
+      </c>
+      <c r="N148" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1147, 1147, 1, DATE_ADD(CURDATE(), INTERVAL 7 DAY), DATE_ADD(CURDATE(), INTERVAL 12 DAY), 0, 0, 2, null, '109.99', '190702147001', ''),</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1147, 1147, 1, DATE_ADD(CURDATE(), INTERVAL 7 DAY), DATE_ADD(CURDATE(), INTERVAL 12 DAY), 0, 0, 2, null, '109.99', '190702147001', '', 1),</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149" s="6">
         <v>1148</v>
       </c>
@@ -22234,12 +22682,15 @@
       <c r="L149" s="11" t="s">
         <v>1478</v>
       </c>
-      <c r="M149" s="11" t="str">
+      <c r="M149" s="6">
+        <v>1</v>
+      </c>
+      <c r="N149" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1148, 1148, 3, DATE_ADD(CURDATE(), INTERVAL 8 DAY), DATE_ADD(CURDATE(), INTERVAL 11 DAY), 0, 0, 2, null, '129.99', '190703148001', 'needs a late checkout time'),</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1148, 1148, 3, DATE_ADD(CURDATE(), INTERVAL 8 DAY), DATE_ADD(CURDATE(), INTERVAL 11 DAY), 0, 0, 2, null, '129.99', '190703148001', 'needs a late checkout time', 1),</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150" s="6">
         <v>1149</v>
       </c>
@@ -22274,12 +22725,15 @@
         <v>1629</v>
       </c>
       <c r="L150" s="11"/>
-      <c r="M150" s="11" t="str">
+      <c r="M150" s="6">
+        <v>1</v>
+      </c>
+      <c r="N150" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1149, 1149, 1, DATE_ADD(CURDATE(), INTERVAL 9 DAY), DATE_ADD(CURDATE(), INTERVAL 10 DAY), 0, 0, 1, null, '109.99', '190703149001', ''),</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1149, 1149, 1, DATE_ADD(CURDATE(), INTERVAL 9 DAY), DATE_ADD(CURDATE(), INTERVAL 10 DAY), 0, 0, 1, null, '109.99', '190703149001', '', 1),</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151" s="6">
         <v>1150</v>
       </c>
@@ -22314,12 +22768,15 @@
         <v>1630</v>
       </c>
       <c r="L151" s="11"/>
-      <c r="M151" s="11" t="str">
+      <c r="M151" s="6">
+        <v>1</v>
+      </c>
+      <c r="N151" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1150, 1150, 3, DATE_ADD(CURDATE(), INTERVAL 10 DAY), DATE_ADD(CURDATE(), INTERVAL 12 DAY), 0, 0, 3, null, '129.99', '190703150001', ''),</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1150, 1150, 3, DATE_ADD(CURDATE(), INTERVAL 10 DAY), DATE_ADD(CURDATE(), INTERVAL 12 DAY), 0, 0, 3, null, '129.99', '190703150001', '', 1),</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152" s="6">
         <v>1151</v>
       </c>
@@ -22354,12 +22811,15 @@
         <v>1631</v>
       </c>
       <c r="L152" s="11"/>
-      <c r="M152" s="11" t="str">
+      <c r="M152" s="6">
+        <v>1</v>
+      </c>
+      <c r="N152" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1151, 1151, 1, DATE_ADD(CURDATE(), INTERVAL 1 DAY), DATE_ADD(CURDATE(), INTERVAL 7 DAY), 0, 0, 1, null, '109.99', '190703151001', ''),</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1151, 1151, 1, DATE_ADD(CURDATE(), INTERVAL 1 DAY), DATE_ADD(CURDATE(), INTERVAL 7 DAY), 0, 0, 1, null, '109.99', '190703151001', '', 1),</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153" s="6">
         <v>1152</v>
       </c>
@@ -22394,12 +22854,15 @@
         <v>1632</v>
       </c>
       <c r="L153" s="11"/>
-      <c r="M153" s="11" t="str">
+      <c r="M153" s="6">
+        <v>1</v>
+      </c>
+      <c r="N153" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1152, 1152, 2, DATE_ADD(CURDATE(), INTERVAL 2 DAY), DATE_ADD(CURDATE(), INTERVAL 5 DAY), 0, 0, 2, null, '119.99', '190703152001', ''),</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1152, 1152, 2, DATE_ADD(CURDATE(), INTERVAL 2 DAY), DATE_ADD(CURDATE(), INTERVAL 5 DAY), 0, 0, 2, null, '119.99', '190703152001', '', 1),</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154" s="6">
         <v>1153</v>
       </c>
@@ -22434,12 +22897,15 @@
         <v>1633</v>
       </c>
       <c r="L154" s="11"/>
-      <c r="M154" s="11" t="str">
+      <c r="M154" s="6">
+        <v>1</v>
+      </c>
+      <c r="N154" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1153, 1153, 1, DATE_ADD(CURDATE(), INTERVAL 3 DAY), DATE_ADD(CURDATE(), INTERVAL 6 DAY), 0, 0, 2, null, '109.99', '190703153001', ''),</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1153, 1153, 1, DATE_ADD(CURDATE(), INTERVAL 3 DAY), DATE_ADD(CURDATE(), INTERVAL 6 DAY), 0, 0, 2, null, '109.99', '190703153001', '', 1),</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155" s="6">
         <v>1154</v>
       </c>
@@ -22474,12 +22940,15 @@
         <v>1634</v>
       </c>
       <c r="L155" s="11"/>
-      <c r="M155" s="11" t="str">
+      <c r="M155" s="6">
+        <v>1</v>
+      </c>
+      <c r="N155" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1154, 1154, 2, DATE_ADD(CURDATE(), INTERVAL 4 DAY), DATE_ADD(CURDATE(), INTERVAL 12 DAY), 0, 0, 1, null, '119.99', '190703154001', ''),</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1154, 1154, 2, DATE_ADD(CURDATE(), INTERVAL 4 DAY), DATE_ADD(CURDATE(), INTERVAL 12 DAY), 0, 0, 1, null, '119.99', '190703154001', '', 1),</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156" s="6">
         <v>1155</v>
       </c>
@@ -22514,12 +22983,15 @@
         <v>1635</v>
       </c>
       <c r="L156" s="11"/>
-      <c r="M156" s="11" t="str">
+      <c r="M156" s="6">
+        <v>1</v>
+      </c>
+      <c r="N156" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1155, 1155, 1, DATE_ADD(CURDATE(), INTERVAL 5 DAY), DATE_ADD(CURDATE(), INTERVAL 6 DAY), 0, 0, 3, null, '109.99', '190703155001', ''),</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1155, 1155, 1, DATE_ADD(CURDATE(), INTERVAL 5 DAY), DATE_ADD(CURDATE(), INTERVAL 6 DAY), 0, 0, 3, null, '109.99', '190703155001', '', 1),</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157" s="6">
         <v>1156</v>
       </c>
@@ -22554,12 +23026,15 @@
         <v>1636</v>
       </c>
       <c r="L157" s="11"/>
-      <c r="M157" s="11" t="str">
+      <c r="M157" s="6">
+        <v>1</v>
+      </c>
+      <c r="N157" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1156, 1156, 3, DATE_ADD(CURDATE(), INTERVAL 1 DAY), DATE_ADD(CURDATE(), INTERVAL 6 DAY), 0, 0, 4, null, '129.99', '190703156001', ''),</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1156, 1156, 3, DATE_ADD(CURDATE(), INTERVAL 1 DAY), DATE_ADD(CURDATE(), INTERVAL 6 DAY), 0, 0, 4, null, '129.99', '190703156001', '', 1),</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158" s="6">
         <v>1157</v>
       </c>
@@ -22594,12 +23069,15 @@
         <v>1637</v>
       </c>
       <c r="L158" s="11"/>
-      <c r="M158" s="11" t="str">
+      <c r="M158" s="6">
+        <v>1</v>
+      </c>
+      <c r="N158" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1157, 1157, 1, DATE_ADD(CURDATE(), INTERVAL 2 DAY), DATE_ADD(CURDATE(), INTERVAL 6 DAY), 0, 0, 2, null, '109.99', '190703157001', ''),</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1157, 1157, 1, DATE_ADD(CURDATE(), INTERVAL 2 DAY), DATE_ADD(CURDATE(), INTERVAL 6 DAY), 0, 0, 2, null, '109.99', '190703157001', '', 1),</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159" s="6">
         <v>1158</v>
       </c>
@@ -22634,12 +23112,15 @@
         <v>1638</v>
       </c>
       <c r="L159" s="11"/>
-      <c r="M159" s="11" t="str">
+      <c r="M159" s="6">
+        <v>1</v>
+      </c>
+      <c r="N159" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1158, 1158, 3, DATE_ADD(CURDATE(), INTERVAL 3 DAY), DATE_ADD(CURDATE(), INTERVAL 7 DAY), 0, 0, 2, null, '129.99', '190703158001', ''),</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1158, 1158, 3, DATE_ADD(CURDATE(), INTERVAL 3 DAY), DATE_ADD(CURDATE(), INTERVAL 7 DAY), 0, 0, 2, null, '129.99', '190703158001', '', 1),</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" s="6">
         <v>1159</v>
       </c>
@@ -22676,12 +23157,15 @@
       <c r="L160" s="11" t="s">
         <v>1478</v>
       </c>
-      <c r="M160" s="11" t="str">
+      <c r="M160" s="6">
+        <v>1</v>
+      </c>
+      <c r="N160" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1159, 1159, 1, DATE_ADD(CURDATE(), INTERVAL 4 DAY), DATE_ADD(CURDATE(), INTERVAL 5 DAY), 0, 0, 1, null, '109.99', '190703159001', 'needs a late checkout time'),</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1159, 1159, 1, DATE_ADD(CURDATE(), INTERVAL 4 DAY), DATE_ADD(CURDATE(), INTERVAL 5 DAY), 0, 0, 1, null, '109.99', '190703159001', 'needs a late checkout time', 1),</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161" s="6">
         <v>1160</v>
       </c>
@@ -22716,12 +23200,15 @@
         <v>1640</v>
       </c>
       <c r="L161" s="11"/>
-      <c r="M161" s="11" t="str">
+      <c r="M161" s="6">
+        <v>1</v>
+      </c>
+      <c r="N161" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1160, 1160, 3, DATE_ADD(CURDATE(), INTERVAL 5 DAY), DATE_ADD(CURDATE(), INTERVAL 6 DAY), 0, 0, 3, null, '129.99', '190703160001', ''),</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1160, 1160, 3, DATE_ADD(CURDATE(), INTERVAL 5 DAY), DATE_ADD(CURDATE(), INTERVAL 6 DAY), 0, 0, 3, null, '129.99', '190703160001', '', 1),</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162" s="6">
         <v>1161</v>
       </c>
@@ -22756,12 +23243,15 @@
         <v>1641</v>
       </c>
       <c r="L162" s="11"/>
-      <c r="M162" s="11" t="str">
+      <c r="M162" s="6">
+        <v>1</v>
+      </c>
+      <c r="N162" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1161, 1161, 1, DATE_ADD(CURDATE(), INTERVAL 1 DAY), DATE_ADD(CURDATE(), INTERVAL 12 DAY), 0, 0, 1, null, '109.99', '190703161001', ''),</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1161, 1161, 1, DATE_ADD(CURDATE(), INTERVAL 1 DAY), DATE_ADD(CURDATE(), INTERVAL 12 DAY), 0, 0, 1, null, '109.99', '190703161001', '', 1),</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163" s="6">
         <v>1162</v>
       </c>
@@ -22796,12 +23286,15 @@
         <v>1642</v>
       </c>
       <c r="L163" s="11"/>
-      <c r="M163" s="11" t="str">
+      <c r="M163" s="6">
+        <v>1</v>
+      </c>
+      <c r="N163" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1162, 1162, 2, DATE_ADD(CURDATE(), INTERVAL 2 DAY), DATE_ADD(CURDATE(), INTERVAL 5 DAY), 0, 0, 2, null, '119.99', '190703162001', ''),</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1162, 1162, 2, DATE_ADD(CURDATE(), INTERVAL 2 DAY), DATE_ADD(CURDATE(), INTERVAL 5 DAY), 0, 0, 2, null, '119.99', '190703162001', '', 1),</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164" s="6">
         <v>1163</v>
       </c>
@@ -22836,12 +23329,15 @@
         <v>1643</v>
       </c>
       <c r="L164" s="11"/>
-      <c r="M164" s="11" t="str">
+      <c r="M164" s="6">
+        <v>1</v>
+      </c>
+      <c r="N164" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1163, 1163, 1, DATE_ADD(CURDATE(), INTERVAL 3 DAY), DATE_ADD(CURDATE(), INTERVAL 5 DAY), 0, 0, 2, null, '109.99', '190703163001', ''),</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1163, 1163, 1, DATE_ADD(CURDATE(), INTERVAL 3 DAY), DATE_ADD(CURDATE(), INTERVAL 5 DAY), 0, 0, 2, null, '109.99', '190703163001', '', 1),</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165" s="6">
         <v>1164</v>
       </c>
@@ -22876,12 +23372,15 @@
         <v>1644</v>
       </c>
       <c r="L165" s="11"/>
-      <c r="M165" s="11" t="str">
+      <c r="M165" s="6">
+        <v>1</v>
+      </c>
+      <c r="N165" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1164, 1164, 2, DATE_ADD(CURDATE(), INTERVAL 1 DAY), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 0, 0, 2, null, '119.99', '190703164001', ''),</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1164, 1164, 2, DATE_ADD(CURDATE(), INTERVAL 1 DAY), DATE_ADD(CURDATE(), INTERVAL 2 DAY), 0, 0, 2, null, '119.99', '190703164001', '', 1),</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166" s="6">
         <v>1165</v>
       </c>
@@ -22916,12 +23415,15 @@
         <v>1645</v>
       </c>
       <c r="L166" s="11"/>
-      <c r="M166" s="11" t="str">
+      <c r="M166" s="6">
+        <v>1</v>
+      </c>
+      <c r="N166" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1165, 1165, 1, DATE_ADD(CURDATE(), INTERVAL 2 DAY), DATE_ADD(CURDATE(), INTERVAL 5 DAY), 0, 0, 3, null, '109.99', '190703165001', ''),</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1165, 1165, 1, DATE_ADD(CURDATE(), INTERVAL 2 DAY), DATE_ADD(CURDATE(), INTERVAL 5 DAY), 0, 0, 3, null, '109.99', '190703165001', '', 1),</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167" s="6">
         <v>1166</v>
       </c>
@@ -22956,12 +23458,15 @@
         <v>1646</v>
       </c>
       <c r="L167" s="11"/>
-      <c r="M167" s="11" t="str">
+      <c r="M167" s="6">
+        <v>1</v>
+      </c>
+      <c r="N167" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1166, 1166, 3, DATE_ADD(CURDATE(), INTERVAL 1 DAY), DATE_ADD(CURDATE(), INTERVAL 4 DAY), 0, 0, 2, null, '129.99', '190703166001', ''),</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1166, 1166, 3, DATE_ADD(CURDATE(), INTERVAL 1 DAY), DATE_ADD(CURDATE(), INTERVAL 4 DAY), 0, 0, 2, null, '129.99', '190703166001', '', 1),</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168" s="6">
         <v>1167</v>
       </c>
@@ -22998,12 +23503,15 @@
       <c r="L168" s="11" t="s">
         <v>1479</v>
       </c>
-      <c r="M168" s="11" t="str">
+      <c r="M168" s="6">
+        <v>1</v>
+      </c>
+      <c r="N168" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1167, 1167, 1, DATE_ADD(CURDATE(), INTERVAL 12 DAY), DATE_ADD(CURDATE(), INTERVAL 15 DAY), 0, 0, 2, null, '109.99', '190704167001', 'wants a large screen tv'),</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1167, 1167, 1, DATE_ADD(CURDATE(), INTERVAL 12 DAY), DATE_ADD(CURDATE(), INTERVAL 15 DAY), 0, 0, 2, null, '109.99', '190704167001', 'wants a large screen tv', 1),</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169" s="6">
         <v>1168</v>
       </c>
@@ -23038,12 +23546,15 @@
         <v>1648</v>
       </c>
       <c r="L169" s="11"/>
-      <c r="M169" s="11" t="str">
+      <c r="M169" s="6">
+        <v>1</v>
+      </c>
+      <c r="N169" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1168, 1168, 3, DATE_ADD(CURDATE(), INTERVAL 12 DAY), DATE_ADD(CURDATE(), INTERVAL 15 DAY), 0, 0, 2, null, '129.99', '190704168001', ''),</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1168, 1168, 3, DATE_ADD(CURDATE(), INTERVAL 12 DAY), DATE_ADD(CURDATE(), INTERVAL 15 DAY), 0, 0, 2, null, '129.99', '190704168001', '', 1),</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170" s="6">
         <v>1169</v>
       </c>
@@ -23078,12 +23589,15 @@
         <v>1649</v>
       </c>
       <c r="L170" s="11"/>
-      <c r="M170" s="11" t="str">
+      <c r="M170" s="6">
+        <v>1</v>
+      </c>
+      <c r="N170" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1169, 1169, 1, DATE_ADD(CURDATE(), INTERVAL 13 DAY), DATE_ADD(CURDATE(), INTERVAL 15 DAY), 0, 0, 1, null, '109.99', '190704169001', ''),</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1169, 1169, 1, DATE_ADD(CURDATE(), INTERVAL 13 DAY), DATE_ADD(CURDATE(), INTERVAL 15 DAY), 0, 0, 1, null, '109.99', '190704169001', '', 1),</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171" s="6">
         <v>1170</v>
       </c>
@@ -23118,12 +23632,15 @@
         <v>1650</v>
       </c>
       <c r="L171" s="11"/>
-      <c r="M171" s="11" t="str">
+      <c r="M171" s="6">
+        <v>1</v>
+      </c>
+      <c r="N171" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1170, 1170, 3, DATE_ADD(CURDATE(), INTERVAL 14 DAY), DATE_ADD(CURDATE(), INTERVAL 15 DAY), 0, 0, 3, null, '129.99', '190704170001', ''),</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1170, 1170, 3, DATE_ADD(CURDATE(), INTERVAL 14 DAY), DATE_ADD(CURDATE(), INTERVAL 15 DAY), 0, 0, 3, null, '129.99', '190704170001', '', 1),</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172" s="6">
         <v>1171</v>
       </c>
@@ -23158,12 +23675,15 @@
         <v>1651</v>
       </c>
       <c r="L172" s="11"/>
-      <c r="M172" s="11" t="str">
+      <c r="M172" s="6">
+        <v>1</v>
+      </c>
+      <c r="N172" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1171, 1171, 1, DATE_ADD(CURDATE(), INTERVAL 16 DAY), DATE_ADD(CURDATE(), INTERVAL 19 DAY), 0, 0, 1, null, '109.99', '190704171001', ''),</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1171, 1171, 1, DATE_ADD(CURDATE(), INTERVAL 16 DAY), DATE_ADD(CURDATE(), INTERVAL 19 DAY), 0, 0, 1, null, '109.99', '190704171001', '', 1),</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173" s="6">
         <v>1172</v>
       </c>
@@ -23198,12 +23718,15 @@
         <v>1652</v>
       </c>
       <c r="L173" s="11"/>
-      <c r="M173" s="11" t="str">
+      <c r="M173" s="6">
+        <v>1</v>
+      </c>
+      <c r="N173" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1172, 1172, 2, DATE_ADD(CURDATE(), INTERVAL 22 DAY), DATE_ADD(CURDATE(), INTERVAL 23 DAY), 0, 0, 2, null, '119.99', '190704172001', ''),</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1172, 1172, 2, DATE_ADD(CURDATE(), INTERVAL 22 DAY), DATE_ADD(CURDATE(), INTERVAL 23 DAY), 0, 0, 2, null, '119.99', '190704172001', '', 1),</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174" s="6">
         <v>1173</v>
       </c>
@@ -23238,12 +23761,15 @@
         <v>1653</v>
       </c>
       <c r="L174" s="11"/>
-      <c r="M174" s="11" t="str">
+      <c r="M174" s="6">
+        <v>1</v>
+      </c>
+      <c r="N174" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1173, 1173, 1, DATE_ADD(CURDATE(), INTERVAL 28 DAY), DATE_ADD(CURDATE(), INTERVAL 29 DAY), 0, 0, 2, null, '109.99', '190704173001', ''),</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1173, 1173, 1, DATE_ADD(CURDATE(), INTERVAL 28 DAY), DATE_ADD(CURDATE(), INTERVAL 29 DAY), 0, 0, 2, null, '109.99', '190704173001', '', 1),</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175" s="6">
         <v>1174</v>
       </c>
@@ -23278,12 +23804,15 @@
         <v>1654</v>
       </c>
       <c r="L175" s="11"/>
-      <c r="M175" s="11" t="str">
+      <c r="M175" s="6">
+        <v>1</v>
+      </c>
+      <c r="N175" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1174, 1174, 2, DATE_ADD(CURDATE(), INTERVAL 30 DAY), DATE_ADD(CURDATE(), INTERVAL 36 DAY), 0, 0, 1, null, '119.99', '190704174001', ''),</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1174, 1174, 2, DATE_ADD(CURDATE(), INTERVAL 30 DAY), DATE_ADD(CURDATE(), INTERVAL 36 DAY), 0, 0, 1, null, '119.99', '190704174001', '', 1),</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176" s="6">
         <v>1175</v>
       </c>
@@ -23318,12 +23847,15 @@
         <v>1655</v>
       </c>
       <c r="L176" s="11"/>
-      <c r="M176" s="11" t="str">
+      <c r="M176" s="6">
+        <v>1</v>
+      </c>
+      <c r="N176" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1175, 1175, 1, DATE_ADD(CURDATE(), INTERVAL 35 DAY), DATE_ADD(CURDATE(), INTERVAL 38 DAY), 0, 0, 3, null, '109.99', '190705175001', ''),</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1175, 1175, 1, DATE_ADD(CURDATE(), INTERVAL 35 DAY), DATE_ADD(CURDATE(), INTERVAL 38 DAY), 0, 0, 3, null, '109.99', '190705175001', '', 1),</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177" s="6">
         <v>1176</v>
       </c>
@@ -23358,12 +23890,15 @@
         <v>1656</v>
       </c>
       <c r="L177" s="11"/>
-      <c r="M177" s="11" t="str">
+      <c r="M177" s="6">
+        <v>1</v>
+      </c>
+      <c r="N177" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1176, 1176, 3, DATE_ADD(CURDATE(), INTERVAL 42 DAY), DATE_ADD(CURDATE(), INTERVAL 44 DAY), 0, 0, 1, null, '129.99', '190705176001', ''),</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1176, 1176, 3, DATE_ADD(CURDATE(), INTERVAL 42 DAY), DATE_ADD(CURDATE(), INTERVAL 44 DAY), 0, 0, 1, null, '129.99', '190705176001', '', 1),</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178" s="6">
         <v>1177</v>
       </c>
@@ -23400,12 +23935,15 @@
       <c r="L178" s="11" t="s">
         <v>1478</v>
       </c>
-      <c r="M178" s="11" t="str">
+      <c r="M178" s="6">
+        <v>1</v>
+      </c>
+      <c r="N178" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1177, 1177, 1, DATE_ADD(CURDATE(), INTERVAL 45 DAY), DATE_ADD(CURDATE(), INTERVAL 48 DAY), 0, 0, 2, null, '109.99', '190705177001', 'needs a late checkout time'),</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1177, 1177, 1, DATE_ADD(CURDATE(), INTERVAL 45 DAY), DATE_ADD(CURDATE(), INTERVAL 48 DAY), 0, 0, 2, null, '109.99', '190705177001', 'needs a late checkout time', 1),</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179" s="6">
         <v>1178</v>
       </c>
@@ -23440,12 +23978,15 @@
         <v>1658</v>
       </c>
       <c r="L179" s="11"/>
-      <c r="M179" s="11" t="str">
+      <c r="M179" s="6">
+        <v>1</v>
+      </c>
+      <c r="N179" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1178, 1178, 3, DATE_ADD(CURDATE(), INTERVAL 47 DAY), DATE_ADD(CURDATE(), INTERVAL 49 DAY), 0, 0, 2, null, '129.99', '190705178001', ''),</v>
-      </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1178, 1178, 3, DATE_ADD(CURDATE(), INTERVAL 47 DAY), DATE_ADD(CURDATE(), INTERVAL 49 DAY), 0, 0, 2, null, '129.99', '190705178001', '', 1),</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180" s="6">
         <v>1179</v>
       </c>
@@ -23480,12 +24021,15 @@
         <v>1659</v>
       </c>
       <c r="L180" s="11"/>
-      <c r="M180" s="11" t="str">
+      <c r="M180" s="6">
+        <v>1</v>
+      </c>
+      <c r="N180" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1179, 1179, 1, DATE_ADD(CURDATE(), INTERVAL 49 DAY), DATE_ADD(CURDATE(), INTERVAL 52 DAY), 0, 0, 1, null, '109.99', '190705179001', ''),</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1179, 1179, 1, DATE_ADD(CURDATE(), INTERVAL 49 DAY), DATE_ADD(CURDATE(), INTERVAL 52 DAY), 0, 0, 1, null, '109.99', '190705179001', '', 1),</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181" s="6">
         <v>1180</v>
       </c>
@@ -23520,12 +24064,15 @@
         <v>1660</v>
       </c>
       <c r="L181" s="11"/>
-      <c r="M181" s="11" t="str">
+      <c r="M181" s="6">
+        <v>1</v>
+      </c>
+      <c r="N181" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1180, 1180, 3, DATE_ADD(CURDATE(), INTERVAL 1 DAY), DATE_ADD(CURDATE(), INTERVAL 6 DAY), 0, 0, 3, null, '129.99', '190706180001', ''),</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1180, 1180, 3, DATE_ADD(CURDATE(), INTERVAL 1 DAY), DATE_ADD(CURDATE(), INTERVAL 6 DAY), 0, 0, 3, null, '129.99', '190706180001', '', 1),</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182" s="6">
         <v>1181</v>
       </c>
@@ -23560,12 +24107,15 @@
         <v>1661</v>
       </c>
       <c r="L182" s="11"/>
-      <c r="M182" s="11" t="str">
+      <c r="M182" s="6">
+        <v>1</v>
+      </c>
+      <c r="N182" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1181, 1181, 1, DATE_ADD(CURDATE(), INTERVAL 2 DAY), DATE_ADD(CURDATE(), INTERVAL 7 DAY), 0, 0, 1, null, '109.99', '190706181001', ''),</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1181, 1181, 1, DATE_ADD(CURDATE(), INTERVAL 2 DAY), DATE_ADD(CURDATE(), INTERVAL 7 DAY), 0, 0, 1, null, '109.99', '190706181001', '', 1),</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183" s="6">
         <v>1182</v>
       </c>
@@ -23600,12 +24150,15 @@
         <v>1662</v>
       </c>
       <c r="L183" s="11"/>
-      <c r="M183" s="11" t="str">
+      <c r="M183" s="6">
+        <v>1</v>
+      </c>
+      <c r="N183" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1182, 1182, 2, DATE_ADD(CURDATE(), INTERVAL 3 DAY), DATE_ADD(CURDATE(), INTERVAL 5 DAY), 0, 0, 2, null, '119.99', '190706182001', ''),</v>
-      </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1182, 1182, 2, DATE_ADD(CURDATE(), INTERVAL 3 DAY), DATE_ADD(CURDATE(), INTERVAL 5 DAY), 0, 0, 2, null, '119.99', '190706182001', '', 1),</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184" s="6">
         <v>1183</v>
       </c>
@@ -23640,12 +24193,15 @@
         <v>1663</v>
       </c>
       <c r="L184" s="11"/>
-      <c r="M184" s="11" t="str">
+      <c r="M184" s="6">
+        <v>1</v>
+      </c>
+      <c r="N184" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1183, 1183, 1, DATE_ADD(CURDATE(), INTERVAL 4 DAY), DATE_ADD(CURDATE(), INTERVAL 6 DAY), 0, 0, 2, null, '109.99', '190707183001', ''),</v>
-      </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1183, 1183, 1, DATE_ADD(CURDATE(), INTERVAL 4 DAY), DATE_ADD(CURDATE(), INTERVAL 6 DAY), 0, 0, 2, null, '109.99', '190707183001', '', 1),</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185" s="6">
         <v>1184</v>
       </c>
@@ -23680,12 +24236,15 @@
         <v>1664</v>
       </c>
       <c r="L185" s="11"/>
-      <c r="M185" s="11" t="str">
+      <c r="M185" s="6">
+        <v>1</v>
+      </c>
+      <c r="N185" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1184, 1184, 2, DATE_ADD(CURDATE(), INTERVAL 5 DAY), DATE_ADD(CURDATE(), INTERVAL 9 DAY), 0, 0, 1, null, '119.99', '190707184001', ''),</v>
-      </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1184, 1184, 2, DATE_ADD(CURDATE(), INTERVAL 5 DAY), DATE_ADD(CURDATE(), INTERVAL 9 DAY), 0, 0, 1, null, '119.99', '190707184001', '', 1),</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186" s="6">
         <v>1185</v>
       </c>
@@ -23720,12 +24279,15 @@
         <v>1665</v>
       </c>
       <c r="L186" s="11"/>
-      <c r="M186" s="11" t="str">
+      <c r="M186" s="6">
+        <v>1</v>
+      </c>
+      <c r="N186" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1185, 1185, 1, DATE_ADD(CURDATE(), INTERVAL 6 DAY), DATE_ADD(CURDATE(), INTERVAL 9 DAY), 0, 0, 3, null, '109.99', '190707185001', ''),</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1185, 1185, 1, DATE_ADD(CURDATE(), INTERVAL 6 DAY), DATE_ADD(CURDATE(), INTERVAL 9 DAY), 0, 0, 3, null, '109.99', '190707185001', '', 1),</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187" s="6">
         <v>1186</v>
       </c>
@@ -23760,12 +24322,15 @@
         <v>1666</v>
       </c>
       <c r="L187" s="11"/>
-      <c r="M187" s="11" t="str">
+      <c r="M187" s="6">
+        <v>1</v>
+      </c>
+      <c r="N187" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1186, 1186, 3, DATE_ADD(CURDATE(), INTERVAL 7 DAY), DATE_ADD(CURDATE(), INTERVAL 8 DAY), 0, 0, 1, null, '129.99', '190708186001', ''),</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1186, 1186, 3, DATE_ADD(CURDATE(), INTERVAL 7 DAY), DATE_ADD(CURDATE(), INTERVAL 8 DAY), 0, 0, 1, null, '129.99', '190708186001', '', 1),</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188" s="6">
         <v>1187</v>
       </c>
@@ -23802,12 +24367,15 @@
       <c r="L188" s="11" t="s">
         <v>1478</v>
       </c>
-      <c r="M188" s="11" t="str">
+      <c r="M188" s="6">
+        <v>1</v>
+      </c>
+      <c r="N188" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1187, 1187, 1, DATE_ADD(CURDATE(), INTERVAL 8 DAY), DATE_ADD(CURDATE(), INTERVAL 11 DAY), 0, 0, 2, null, '109.99', '190708187001', 'needs a late checkout time'),</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1187, 1187, 1, DATE_ADD(CURDATE(), INTERVAL 8 DAY), DATE_ADD(CURDATE(), INTERVAL 11 DAY), 0, 0, 2, null, '109.99', '190708187001', 'needs a late checkout time', 1),</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189" s="6">
         <v>1188</v>
       </c>
@@ -23842,12 +24410,15 @@
         <v>1668</v>
       </c>
       <c r="L189" s="11"/>
-      <c r="M189" s="11" t="str">
+      <c r="M189" s="6">
+        <v>1</v>
+      </c>
+      <c r="N189" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1188, 1188, 3, DATE_ADD(CURDATE(), INTERVAL 9 DAY), DATE_ADD(CURDATE(), INTERVAL 10 DAY), 0, 0, 2, null, '129.99', '190709188001', ''),</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1188, 1188, 3, DATE_ADD(CURDATE(), INTERVAL 9 DAY), DATE_ADD(CURDATE(), INTERVAL 10 DAY), 0, 0, 2, null, '129.99', '190709188001', '', 1),</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190" s="6">
         <v>1189</v>
       </c>
@@ -23882,12 +24453,15 @@
         <v>1669</v>
       </c>
       <c r="L190" s="11"/>
-      <c r="M190" s="11" t="str">
+      <c r="M190" s="6">
+        <v>1</v>
+      </c>
+      <c r="N190" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1189, 1189, 1, DATE_ADD(CURDATE(), INTERVAL 10 DAY), DATE_ADD(CURDATE(), INTERVAL 12 DAY), 0, 0, 1, null, '109.99', '190709189001', ''),</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1189, 1189, 1, DATE_ADD(CURDATE(), INTERVAL 10 DAY), DATE_ADD(CURDATE(), INTERVAL 12 DAY), 0, 0, 1, null, '109.99', '190709189001', '', 1),</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191" s="6">
         <v>1190</v>
       </c>
@@ -23922,12 +24496,15 @@
         <v>1670</v>
       </c>
       <c r="L191" s="11"/>
-      <c r="M191" s="11" t="str">
+      <c r="M191" s="6">
+        <v>1</v>
+      </c>
+      <c r="N191" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1190, 1190, 3, DATE_ADD(CURDATE(), INTERVAL 68 DAY), DATE_ADD(CURDATE(), INTERVAL 71 DAY), 0, 0, 3, null, '129.99', '190710190001', ''),</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1190, 1190, 3, DATE_ADD(CURDATE(), INTERVAL 68 DAY), DATE_ADD(CURDATE(), INTERVAL 71 DAY), 0, 0, 3, null, '129.99', '190710190001', '', 1),</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A192" s="6">
         <v>1191</v>
       </c>
@@ -23964,12 +24541,15 @@
       <c r="L192" s="11" t="s">
         <v>1480</v>
       </c>
-      <c r="M192" s="11" t="str">
+      <c r="M192" s="6">
+        <v>1</v>
+      </c>
+      <c r="N192" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1191, 1191, 1, DATE_ADD(CURDATE(), INTERVAL 75 DAY), DATE_ADD(CURDATE(), INTERVAL 77 DAY), 0, 0, 1, null, '109.99', '190710191001', 'wants a good view'),</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1191, 1191, 1, DATE_ADD(CURDATE(), INTERVAL 75 DAY), DATE_ADD(CURDATE(), INTERVAL 77 DAY), 0, 0, 1, null, '109.99', '190710191001', 'wants a good view', 1),</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193" s="6">
         <v>1192</v>
       </c>
@@ -24004,12 +24584,15 @@
         <v>1672</v>
       </c>
       <c r="L193" s="11"/>
-      <c r="M193" s="11" t="str">
+      <c r="M193" s="6">
+        <v>1</v>
+      </c>
+      <c r="N193" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1192, 1192, 2, DATE_ADD(CURDATE(), INTERVAL 81 DAY), DATE_ADD(CURDATE(), INTERVAL 84 DAY), 0, 0, 2, null, '119.99', '190711192001', ''),</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1192, 1192, 2, DATE_ADD(CURDATE(), INTERVAL 81 DAY), DATE_ADD(CURDATE(), INTERVAL 84 DAY), 0, 0, 2, null, '119.99', '190711192001', '', 1),</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194" s="6">
         <v>1193</v>
       </c>
@@ -24044,12 +24627,15 @@
         <v>1673</v>
       </c>
       <c r="L194" s="11"/>
-      <c r="M194" s="11" t="str">
+      <c r="M194" s="6">
+        <v>1</v>
+      </c>
+      <c r="N194" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>(1193, 1193, 1, DATE_ADD(CURDATE(), INTERVAL 85 DAY), DATE_ADD(CURDATE(), INTERVAL 89 DAY), 0, 0, 2, null, '109.99', '190711193001', ''),</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1193, 1193, 1, DATE_ADD(CURDATE(), INTERVAL 85 DAY), DATE_ADD(CURDATE(), INTERVAL 89 DAY), 0, 0, 2, null, '109.99', '190711193001', '', 1),</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195" s="6">
         <v>1194</v>
       </c>
@@ -24086,12 +24672,15 @@
       <c r="L195" s="11" t="s">
         <v>1479</v>
       </c>
-      <c r="M195" s="11" t="str">
-        <f t="shared" ref="M195:M200" si="3">"("&amp;A195&amp;", "&amp;B195&amp;", "&amp;C195&amp;", "&amp;D195&amp;", "&amp;E195&amp;", "&amp;F195&amp;", "&amp;G195&amp;", "&amp;H195&amp;", "&amp;I195&amp;", '"&amp;J195&amp;"', '"&amp;K195&amp;"', '"&amp;L195&amp;"'),"</f>
-        <v>(1194, 1194, 2, DATE_ADD(CURDATE(), INTERVAL 95 DAY), DATE_ADD(CURDATE(), INTERVAL 96 DAY), 0, 0, 1, null, '119.99', '190712194001', 'wants a large screen tv'),</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M195" s="6">
+        <v>1</v>
+      </c>
+      <c r="N195" s="11" t="str">
+        <f t="shared" ref="N195:N201" si="3">"("&amp;A195&amp;", "&amp;B195&amp;", "&amp;C195&amp;", "&amp;D195&amp;", "&amp;E195&amp;", "&amp;F195&amp;", "&amp;G195&amp;", "&amp;H195&amp;", "&amp;I195&amp;", '"&amp;J195&amp;"', '"&amp;K195&amp;"', '"&amp;L195&amp;"', "&amp;M195&amp;"),"</f>
+        <v>(1194, 1194, 2, DATE_ADD(CURDATE(), INTERVAL 95 DAY), DATE_ADD(CURDATE(), INTERVAL 96 DAY), 0, 0, 1, null, '119.99', '190712194001', 'wants a large screen tv', 1),</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196" s="6">
         <v>1195</v>
       </c>
@@ -24126,12 +24715,15 @@
         <v>1675</v>
       </c>
       <c r="L196" s="11"/>
-      <c r="M196" s="11" t="str">
+      <c r="M196" s="6">
+        <v>1</v>
+      </c>
+      <c r="N196" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>(1195, 1195, 1, DATE_ADD(CURDATE(), INTERVAL 98 DAY), DATE_ADD(CURDATE(), INTERVAL 100 DAY), 0, 0, 3, null, '109.99', '190712195001', ''),</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1195, 1195, 1, DATE_ADD(CURDATE(), INTERVAL 98 DAY), DATE_ADD(CURDATE(), INTERVAL 100 DAY), 0, 0, 3, null, '109.99', '190712195001', '', 1),</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197" s="6">
         <v>1196</v>
       </c>
@@ -24166,12 +24758,15 @@
         <v>1676</v>
       </c>
       <c r="L197" s="11"/>
-      <c r="M197" s="11" t="str">
+      <c r="M197" s="6">
+        <v>1</v>
+      </c>
+      <c r="N197" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>(1196, 1196, 3, DATE_ADD(CURDATE(), INTERVAL 101 DAY), DATE_ADD(CURDATE(), INTERVAL 102 DAY), 0, 0, 2, null, '129.99', '190713196001', ''),</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1196, 1196, 3, DATE_ADD(CURDATE(), INTERVAL 101 DAY), DATE_ADD(CURDATE(), INTERVAL 102 DAY), 0, 0, 2, null, '129.99', '190713196001', '', 1),</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198" s="6">
         <v>1197</v>
       </c>
@@ -24208,12 +24803,15 @@
       <c r="L198" s="11" t="s">
         <v>1478</v>
       </c>
-      <c r="M198" s="11" t="str">
+      <c r="M198" s="6">
+        <v>1</v>
+      </c>
+      <c r="N198" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>(1197, 1197, 1, DATE_ADD(CURDATE(), INTERVAL 106 DAY), DATE_ADD(CURDATE(), INTERVAL 107 DAY), 0, 0, 2, null, '109.99', '190713197001', 'needs a late checkout time'),</v>
-      </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1197, 1197, 1, DATE_ADD(CURDATE(), INTERVAL 106 DAY), DATE_ADD(CURDATE(), INTERVAL 107 DAY), 0, 0, 2, null, '109.99', '190713197001', 'needs a late checkout time', 1),</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199" s="6">
         <v>1198</v>
       </c>
@@ -24248,12 +24846,15 @@
         <v>1678</v>
       </c>
       <c r="L199" s="11"/>
-      <c r="M199" s="11" t="str">
+      <c r="M199" s="6">
+        <v>1</v>
+      </c>
+      <c r="N199" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>(1198, 1198, 3, DATE_ADD(CURDATE(), INTERVAL 108 DAY), DATE_ADD(CURDATE(), INTERVAL 110 DAY), 0, 0, 2, null, '129.99', '190713198001', ''),</v>
-      </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1198, 1198, 3, DATE_ADD(CURDATE(), INTERVAL 108 DAY), DATE_ADD(CURDATE(), INTERVAL 110 DAY), 0, 0, 2, null, '129.99', '190713198001', '', 1),</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200" s="6">
         <v>1199</v>
       </c>
@@ -24288,12 +24889,15 @@
         <v>1679</v>
       </c>
       <c r="L200" s="11"/>
-      <c r="M200" s="11" t="str">
+      <c r="M200" s="6">
+        <v>1</v>
+      </c>
+      <c r="N200" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>(1199, 1199, 1, DATE_ADD(CURDATE(), INTERVAL 111 DAY), DATE_ADD(CURDATE(), INTERVAL 116 DAY), 0, 0, 1, null, '109.99', '190714199001', ''),</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1199, 1199, 1, DATE_ADD(CURDATE(), INTERVAL 111 DAY), DATE_ADD(CURDATE(), INTERVAL 116 DAY), 0, 0, 1, null, '109.99', '190714199001', '', 1),</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201" s="6">
         <v>1200</v>
       </c>
@@ -24328,13 +24932,16 @@
         <v>1680</v>
       </c>
       <c r="L201" s="11"/>
-      <c r="M201" s="11" t="str">
-        <f>"("&amp;A201&amp;", "&amp;B201&amp;", "&amp;C201&amp;", "&amp;D201&amp;", "&amp;E201&amp;", "&amp;F201&amp;", "&amp;G201&amp;", "&amp;H201&amp;", "&amp;I201&amp;", '"&amp;J201&amp;"', '"&amp;K201&amp;"', '"&amp;L201&amp;"');"</f>
-        <v>(1200, 1200, 3, DATE_ADD(CURDATE(), INTERVAL 120 DAY), DATE_ADD(CURDATE(), INTERVAL 123 DAY), 0, 0, 3, null, '129.99', '190714200001', '');</v>
+      <c r="M201" s="6">
+        <v>1</v>
+      </c>
+      <c r="N201" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>(1200, 1200, 3, DATE_ADD(CURDATE(), INTERVAL 120 DAY), DATE_ADD(CURDATE(), INTERVAL 123 DAY), 0, 0, 3, null, '129.99', '190714200001', '', 1),</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M201">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N201">
     <sortCondition ref="A2:A201"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28190,7 +28797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D2267-72D7-482F-A136-70E06D3C8037}">
   <dimension ref="A1:M201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M2" sqref="M2:M201"/>
     </sheetView>
